--- a/my_work/data1/YearMeanER56778_昆明.xlsx
+++ b/my_work/data1/YearMeanER56778_昆明.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,966 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5633.95</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1032.15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1669.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1736.75</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1195.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5448.999999999996</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2879.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5498.300000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5320.899999999996</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3383.350000000002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5249.000000000003</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3722.35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7151.299999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7077.699999999995</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4379.500000000004</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5485.750000000004</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4636.150000000002</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8781.349999999997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8863.349999999991</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5535.750000000005</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5630.499999999997</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5615.600000000003</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10538.55</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10660.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6632.150000000005</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5429.999999999998</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6485.350000000003</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12134</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12406.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7851.550000000006</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5503.649999999998</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7480.400000000002</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13858.50000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14157.05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8884.800000000003</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5212.700000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8381.600000000004</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15486.55000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15734.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9991.199999999993</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5411.299999999997</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9270.100000000006</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17165.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17508.79999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11059.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5386.200000000003</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10157.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18776.45</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19259.90000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12196.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5530.400000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11149.6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20493.35000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>21083.60000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13194.79999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5642.050000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12126.45000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22192.20000000002</v>
+      </c>
+      <c r="E13" t="n">
+        <v>22878.45000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14366.29999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5260.349999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13096.35000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23838.50000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24757.80000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15131.09999999998</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5508.899999999997</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14041.40000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25480.90000000003</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26608.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16202.04999999998</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5458.25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14830.80000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>27204.85000000003</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28430.30000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17324.94999999997</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5670.199999999998</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15849.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28926.15000000003</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30213.65000000003</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18471.89999999997</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5536.450000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16786.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30597.15000000002</v>
+      </c>
+      <c r="E18" t="n">
+        <v>32013.55000000003</v>
+      </c>
+      <c r="F18" t="n">
+        <v>19600.14999999996</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5562.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17727.60000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>32326.10000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>33766.80000000005</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20739.84999999998</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5718.799999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18742.90000000002</v>
+      </c>
+      <c r="D20" t="n">
+        <v>34045.35000000002</v>
+      </c>
+      <c r="E20" t="n">
+        <v>35578.85000000009</v>
+      </c>
+      <c r="F20" t="n">
+        <v>21912.04999999998</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5719.499999999998</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19819.20000000004</v>
+      </c>
+      <c r="D21" t="n">
+        <v>35813.20000000002</v>
+      </c>
+      <c r="E21" t="n">
+        <v>37298.45000000006</v>
+      </c>
+      <c r="F21" t="n">
+        <v>23067.79999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5611.250000000002</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20789.80000000002</v>
+      </c>
+      <c r="D22" t="n">
+        <v>37541.15</v>
+      </c>
+      <c r="E22" t="n">
+        <v>39107.40000000007</v>
+      </c>
+      <c r="F22" t="n">
+        <v>24171.54999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5599.000000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21737.10000000003</v>
+      </c>
+      <c r="D23" t="n">
+        <v>39139</v>
+      </c>
+      <c r="E23" t="n">
+        <v>40945.85000000009</v>
+      </c>
+      <c r="F23" t="n">
+        <v>25386.94999999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5770.049999999997</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22790.45000000004</v>
+      </c>
+      <c r="D24" t="n">
+        <v>40869.05</v>
+      </c>
+      <c r="E24" t="n">
+        <v>42762.50000000011</v>
+      </c>
+      <c r="F24" t="n">
+        <v>26556.95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5514.449999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23676.40000000003</v>
+      </c>
+      <c r="D25" t="n">
+        <v>42620.79999999997</v>
+      </c>
+      <c r="E25" t="n">
+        <v>44606.25000000012</v>
+      </c>
+      <c r="F25" t="n">
+        <v>27589.95</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5544.199999999999</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24654.10000000002</v>
+      </c>
+      <c r="D26" t="n">
+        <v>44285.34999999998</v>
+      </c>
+      <c r="E26" t="n">
+        <v>46403.40000000013</v>
+      </c>
+      <c r="F26" t="n">
+        <v>28694.75000000002</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5831.55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25732.10000000002</v>
+      </c>
+      <c r="D27" t="n">
+        <v>46056.69999999997</v>
+      </c>
+      <c r="E27" t="n">
+        <v>48168.35000000015</v>
+      </c>
+      <c r="F27" t="n">
+        <v>29912.00000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5933.900000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26778.00000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>47877.84999999995</v>
+      </c>
+      <c r="E28" t="n">
+        <v>50008.00000000014</v>
+      </c>
+      <c r="F28" t="n">
+        <v>31139.20000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5894.700000000002</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27868.75000000002</v>
+      </c>
+      <c r="D29" t="n">
+        <v>49595.44999999993</v>
+      </c>
+      <c r="E29" t="n">
+        <v>51839.25000000012</v>
+      </c>
+      <c r="F29" t="n">
+        <v>32394.3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5705.949999999997</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28893.80000000003</v>
+      </c>
+      <c r="D30" t="n">
+        <v>51300.79999999993</v>
+      </c>
+      <c r="E30" t="n">
+        <v>53557.65000000012</v>
+      </c>
+      <c r="F30" t="n">
+        <v>33651.45000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6128.499999999997</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30019.40000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>53050.09999999991</v>
+      </c>
+      <c r="E31" t="n">
+        <v>55469.05000000013</v>
+      </c>
+      <c r="F31" t="n">
+        <v>34993.64999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6290.299999999998</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31295.65</v>
+      </c>
+      <c r="D32" t="n">
+        <v>54909.49999999991</v>
+      </c>
+      <c r="E32" t="n">
+        <v>57376.85000000016</v>
+      </c>
+      <c r="F32" t="n">
+        <v>36240.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6010.649999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32369.8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>56643.5999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>59289.85000000016</v>
+      </c>
+      <c r="F33" t="n">
+        <v>37529.90000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6104.85</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33519.30000000003</v>
+      </c>
+      <c r="D34" t="n">
+        <v>58411.04999999992</v>
+      </c>
+      <c r="E34" t="n">
+        <v>61219.70000000016</v>
+      </c>
+      <c r="F34" t="n">
+        <v>38787.95000000003</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6104.999999999996</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34684.65</v>
+      </c>
+      <c r="D35" t="n">
+        <v>60246.29999999992</v>
+      </c>
+      <c r="E35" t="n">
+        <v>63035.35000000016</v>
+      </c>
+      <c r="F35" t="n">
+        <v>40076.70000000003</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6253.950000000002</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35811.40000000002</v>
+      </c>
+      <c r="D36" t="n">
+        <v>62108.09999999994</v>
+      </c>
+      <c r="E36" t="n">
+        <v>64983.50000000017</v>
+      </c>
+      <c r="F36" t="n">
+        <v>41393.95</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6033.950000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>36992.95000000003</v>
+      </c>
+      <c r="D37" t="n">
+        <v>63834.49999999992</v>
+      </c>
+      <c r="E37" t="n">
+        <v>66902.50000000016</v>
+      </c>
+      <c r="F37" t="n">
+        <v>42600.94999999998</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6230.950000000003</v>
+      </c>
+      <c r="C38" t="n">
+        <v>38134.15000000005</v>
+      </c>
+      <c r="D38" t="n">
+        <v>65737.99999999999</v>
+      </c>
+      <c r="E38" t="n">
+        <v>68841.15000000014</v>
+      </c>
+      <c r="F38" t="n">
+        <v>43848.55000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6129.100000000002</v>
+      </c>
+      <c r="C39" t="n">
+        <v>39408.25000000001</v>
+      </c>
+      <c r="D39" t="n">
+        <v>67369.69999999997</v>
+      </c>
+      <c r="E39" t="n">
+        <v>70764.05000000009</v>
+      </c>
+      <c r="F39" t="n">
+        <v>45148.95000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5851.099999999999</v>
+      </c>
+      <c r="C40" t="n">
+        <v>40470.00000000002</v>
+      </c>
+      <c r="D40" t="n">
+        <v>69018.34999999999</v>
+      </c>
+      <c r="E40" t="n">
+        <v>72617.00000000006</v>
+      </c>
+      <c r="F40" t="n">
+        <v>46436.70000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5524.550000000006</v>
+      </c>
+      <c r="C41" t="n">
+        <v>41293.95000000002</v>
+      </c>
+      <c r="D41" t="n">
+        <v>70674.3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>74426.45000000004</v>
+      </c>
+      <c r="F41" t="n">
+        <v>47671.90000000002</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6359.900000000001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42493.05000000003</v>
+      </c>
+      <c r="D42" t="n">
+        <v>72486.74999999997</v>
+      </c>
+      <c r="E42" t="n">
+        <v>76428.15000000002</v>
+      </c>
+      <c r="F42" t="n">
+        <v>49018.54999999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6129.150000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>43758.55000000003</v>
+      </c>
+      <c r="D43" t="n">
+        <v>74211.54999999997</v>
+      </c>
+      <c r="E43" t="n">
+        <v>78389.65000000004</v>
+      </c>
+      <c r="F43" t="n">
+        <v>50195.9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5879.599999999998</v>
+      </c>
+      <c r="C44" t="n">
+        <v>44793.25</v>
+      </c>
+      <c r="D44" t="n">
+        <v>76016.39999999995</v>
+      </c>
+      <c r="E44" t="n">
+        <v>80267.80000000005</v>
+      </c>
+      <c r="F44" t="n">
+        <v>51357.79999999998</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6139.449999999993</v>
+      </c>
+      <c r="C45" t="n">
+        <v>45957.90000000002</v>
+      </c>
+      <c r="D45" t="n">
+        <v>77762.39999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>82181.55000000008</v>
+      </c>
+      <c r="F45" t="n">
+        <v>52672.84999999996</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6057.399999999997</v>
+      </c>
+      <c r="C46" t="n">
+        <v>47198.24999999999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79533.74999999996</v>
+      </c>
+      <c r="E46" t="n">
+        <v>84062.30000000002</v>
+      </c>
+      <c r="F46" t="n">
+        <v>53837.79999999998</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6184.250000000004</v>
+      </c>
+      <c r="C47" t="n">
+        <v>48348.75</v>
+      </c>
+      <c r="D47" t="n">
+        <v>81432.39999999997</v>
+      </c>
+      <c r="E47" t="n">
+        <v>85972.80000000002</v>
+      </c>
+      <c r="F47" t="n">
+        <v>55062.39999999998</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6062.749999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>49507.15</v>
+      </c>
+      <c r="D48" t="n">
+        <v>83310.95</v>
+      </c>
+      <c r="E48" t="n">
+        <v>87792.20000000007</v>
+      </c>
+      <c r="F48" t="n">
+        <v>56268.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6060.200000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>50526.04999999997</v>
+      </c>
+      <c r="D49" t="n">
+        <v>85120.34999999999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>89699.70000000007</v>
+      </c>
+      <c r="F49" t="n">
+        <v>57593.20000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/my_work/data1/YearMeanER56778_昆明.xlsx
+++ b/my_work/data1/YearMeanER56778_昆明.xlsx
@@ -470,19 +470,19 @@
         <v>1966</v>
       </c>
       <c r="B2" t="n">
-        <v>5633.95</v>
+        <v>15.43547945205479</v>
       </c>
       <c r="C2" t="n">
-        <v>1032.15</v>
+        <v>11.46833333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>1669.8</v>
+        <v>18.34945054945055</v>
       </c>
       <c r="E2" t="n">
-        <v>1736.75</v>
+        <v>18.87771739130435</v>
       </c>
       <c r="F2" t="n">
-        <v>1195.25</v>
+        <v>12.99184782608696</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>1970</v>
       </c>
       <c r="B3" t="n">
-        <v>5448.999999999996</v>
+        <v>14.92876712328766</v>
       </c>
       <c r="C3" t="n">
-        <v>2879.3</v>
+        <v>20.65131481481482</v>
       </c>
       <c r="D3" t="n">
-        <v>5498.300000000001</v>
+        <v>42.27307088515879</v>
       </c>
       <c r="E3" t="n">
-        <v>5320.899999999996</v>
+        <v>39.16334475425329</v>
       </c>
       <c r="F3" t="n">
-        <v>3383.350000000002</v>
+        <v>23.924911389414</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>1971</v>
       </c>
       <c r="B4" t="n">
-        <v>5249.000000000003</v>
+        <v>14.38082191780823</v>
       </c>
       <c r="C4" t="n">
-        <v>3722.35</v>
+        <v>9.596681275720165</v>
       </c>
       <c r="D4" t="n">
-        <v>7151.299999999999</v>
+        <v>18.62937440533141</v>
       </c>
       <c r="E4" t="n">
-        <v>7077.699999999995</v>
+        <v>19.52134070385058</v>
       </c>
       <c r="F4" t="n">
-        <v>4379.500000000004</v>
+        <v>11.08777077597189</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>1972</v>
       </c>
       <c r="B5" t="n">
-        <v>5485.750000000004</v>
+        <v>14.98838797814209</v>
       </c>
       <c r="C5" t="n">
-        <v>4636.150000000002</v>
+        <v>10.14721627775516</v>
       </c>
       <c r="D5" t="n">
-        <v>8781.349999999997</v>
+        <v>18.11735576269595</v>
       </c>
       <c r="E5" t="n">
-        <v>8863.349999999991</v>
+        <v>19.6214276163462</v>
       </c>
       <c r="F5" t="n">
-        <v>5535.750000000005</v>
+        <v>12.68845403017361</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>1973</v>
       </c>
       <c r="B6" t="n">
-        <v>5630.499999999997</v>
+        <v>15.51101928374655</v>
       </c>
       <c r="C6" t="n">
-        <v>5615.600000000003</v>
+        <v>11.24542291224722</v>
       </c>
       <c r="D6" t="n">
-        <v>10538.55</v>
+        <v>19.50898193145821</v>
       </c>
       <c r="E6" t="n">
-        <v>10660.8</v>
+        <v>19.7507763871342</v>
       </c>
       <c r="F6" t="n">
-        <v>6632.150000000005</v>
+        <v>12.05530928293667</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>1974</v>
       </c>
       <c r="B7" t="n">
-        <v>5429.999999999998</v>
+        <v>14.91758241758241</v>
       </c>
       <c r="C7" t="n">
-        <v>6485.350000000003</v>
+        <v>9.788838032358305</v>
       </c>
       <c r="D7" t="n">
-        <v>12134</v>
+        <v>17.94398868812731</v>
       </c>
       <c r="E7" t="n">
-        <v>12406.2</v>
+        <v>19.18642148246885</v>
       </c>
       <c r="F7" t="n">
-        <v>7851.550000000006</v>
+        <v>13.38538379655366</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>1975</v>
       </c>
       <c r="B8" t="n">
-        <v>5503.649999999998</v>
+        <v>15.20345303867403</v>
       </c>
       <c r="C8" t="n">
-        <v>7480.400000000002</v>
+        <v>11.29032402283548</v>
       </c>
       <c r="D8" t="n">
-        <v>13858.50000000001</v>
+        <v>19.14773613942997</v>
       </c>
       <c r="E8" t="n">
-        <v>14157.05</v>
+        <v>19.66707134980521</v>
       </c>
       <c r="F8" t="n">
-        <v>8884.800000000003</v>
+        <v>11.37647156300602</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>1976</v>
       </c>
       <c r="B9" t="n">
-        <v>5212.700000000001</v>
+        <v>14.64241573033708</v>
       </c>
       <c r="C9" t="n">
-        <v>8381.600000000004</v>
+        <v>10.02736619805314</v>
       </c>
       <c r="D9" t="n">
-        <v>15486.55000000001</v>
+        <v>18.10107402351022</v>
       </c>
       <c r="E9" t="n">
-        <v>15734.1</v>
+        <v>19.47215940670495</v>
       </c>
       <c r="F9" t="n">
-        <v>9991.199999999993</v>
+        <v>12.14974425611963</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>1977</v>
       </c>
       <c r="B10" t="n">
-        <v>5411.299999999997</v>
+        <v>14.90716253443525</v>
       </c>
       <c r="C10" t="n">
-        <v>9270.100000000006</v>
+        <v>9.983637402200593</v>
       </c>
       <c r="D10" t="n">
-        <v>17165.9</v>
+        <v>19.07248397779224</v>
       </c>
       <c r="E10" t="n">
-        <v>17508.79999999999</v>
+        <v>19.50187129789896</v>
       </c>
       <c r="F10" t="n">
-        <v>11059.95</v>
+        <v>11.74891026365347</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>1978</v>
       </c>
       <c r="B11" t="n">
-        <v>5386.200000000003</v>
+        <v>14.75671232876713</v>
       </c>
       <c r="C11" t="n">
-        <v>10157.9</v>
+        <v>9.97537374891334</v>
       </c>
       <c r="D11" t="n">
-        <v>18776.45</v>
+        <v>17.90793938437135</v>
       </c>
       <c r="E11" t="n">
-        <v>19259.90000000001</v>
+        <v>19.24567251410761</v>
       </c>
       <c r="F11" t="n">
-        <v>12196.7</v>
+        <v>12.48368380721362</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +670,19 @@
         <v>1979</v>
       </c>
       <c r="B12" t="n">
-        <v>5530.400000000001</v>
+        <v>15.15178082191781</v>
       </c>
       <c r="C12" t="n">
-        <v>11149.6</v>
+        <v>11.12972637498793</v>
       </c>
       <c r="D12" t="n">
-        <v>20493.35000000001</v>
+        <v>19.06382350971836</v>
       </c>
       <c r="E12" t="n">
-        <v>21083.60000000001</v>
+        <v>20.03201817950118</v>
       </c>
       <c r="F12" t="n">
-        <v>13194.79999999999</v>
+        <v>10.98460525877406</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +690,19 @@
         <v>1980</v>
       </c>
       <c r="B13" t="n">
-        <v>5642.050000000001</v>
+        <v>15.45767123287671</v>
       </c>
       <c r="C13" t="n">
-        <v>12126.45000000001</v>
+        <v>10.97755251527765</v>
       </c>
       <c r="D13" t="n">
-        <v>22192.20000000002</v>
+        <v>18.87817388472218</v>
       </c>
       <c r="E13" t="n">
-        <v>22878.45000000001</v>
+        <v>19.72697845847284</v>
       </c>
       <c r="F13" t="n">
-        <v>14366.29999999999</v>
+        <v>12.85309353542146</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>1981</v>
       </c>
       <c r="B14" t="n">
-        <v>5260.349999999999</v>
+        <v>15.94045454545454</v>
       </c>
       <c r="C14" t="n">
-        <v>13096.35000000001</v>
+        <v>10.89863947239197</v>
       </c>
       <c r="D14" t="n">
-        <v>23838.50000000001</v>
+        <v>18.50197970983024</v>
       </c>
       <c r="E14" t="n">
-        <v>24757.80000000001</v>
+        <v>20.64214107020079</v>
       </c>
       <c r="F14" t="n">
-        <v>15131.09999999998</v>
+        <v>13.40781195750727</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>1982</v>
       </c>
       <c r="B15" t="n">
-        <v>5508.899999999997</v>
+        <v>15.13434065934065</v>
       </c>
       <c r="C15" t="n">
-        <v>14041.40000000001</v>
+        <v>10.62165154969324</v>
       </c>
       <c r="D15" t="n">
-        <v>25480.90000000003</v>
+        <v>18.45446644122034</v>
       </c>
       <c r="E15" t="n">
-        <v>26608.3</v>
+        <v>20.33850153337175</v>
       </c>
       <c r="F15" t="n">
-        <v>16202.04999999998</v>
+        <v>11.78649795605986</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         <v>1983</v>
       </c>
       <c r="B16" t="n">
-        <v>5458.25</v>
+        <v>14.9541095890411</v>
       </c>
       <c r="C16" t="n">
-        <v>14830.80000000001</v>
+        <v>8.889129461663259</v>
       </c>
       <c r="D16" t="n">
-        <v>27204.85000000003</v>
+        <v>19.1473018290244</v>
       </c>
       <c r="E16" t="n">
-        <v>28430.30000000001</v>
+        <v>20.02541849492796</v>
       </c>
       <c r="F16" t="n">
-        <v>17324.94999999997</v>
+        <v>12.33354889082674</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +770,19 @@
         <v>1984</v>
       </c>
       <c r="B17" t="n">
-        <v>5670.199999999998</v>
+        <v>15.49234972677595</v>
       </c>
       <c r="C17" t="n">
-        <v>15849.4</v>
+        <v>11.29108933474355</v>
       </c>
       <c r="D17" t="n">
-        <v>28926.15000000003</v>
+        <v>19.12579452559368</v>
       </c>
       <c r="E17" t="n">
-        <v>30213.65000000003</v>
+        <v>19.60190672277096</v>
       </c>
       <c r="F17" t="n">
-        <v>18471.89999999997</v>
+        <v>12.60090814011768</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
         <v>1985</v>
       </c>
       <c r="B18" t="n">
-        <v>5536.450000000001</v>
+        <v>15.16835616438356</v>
       </c>
       <c r="C18" t="n">
-        <v>16786.7</v>
+        <v>10.53990099260826</v>
       </c>
       <c r="D18" t="n">
-        <v>30597.15000000002</v>
+        <v>18.57281092885268</v>
       </c>
       <c r="E18" t="n">
-        <v>32013.55000000003</v>
+        <v>19.77719463829099</v>
       </c>
       <c r="F18" t="n">
-        <v>19600.14999999996</v>
+        <v>12.40055334934911</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +810,19 @@
         <v>1986</v>
       </c>
       <c r="B19" t="n">
-        <v>5562.8</v>
+        <v>15.24054794520548</v>
       </c>
       <c r="C19" t="n">
-        <v>17727.60000000001</v>
+        <v>10.57155445547343</v>
       </c>
       <c r="D19" t="n">
-        <v>32326.10000000001</v>
+        <v>19.20354737284453</v>
       </c>
       <c r="E19" t="n">
-        <v>33766.80000000005</v>
+        <v>19.27203472432924</v>
       </c>
       <c r="F19" t="n">
-        <v>20739.84999999998</v>
+        <v>12.52283210162336</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +830,19 @@
         <v>1987</v>
       </c>
       <c r="B20" t="n">
-        <v>5718.799999999999</v>
+        <v>15.84155124653739</v>
       </c>
       <c r="C20" t="n">
-        <v>18742.90000000002</v>
+        <v>11.39857282728303</v>
       </c>
       <c r="D20" t="n">
-        <v>34045.35000000002</v>
+        <v>19.9822246824465</v>
       </c>
       <c r="E20" t="n">
-        <v>35578.85000000009</v>
+        <v>19.90567429048184</v>
       </c>
       <c r="F20" t="n">
-        <v>21912.04999999998</v>
+        <v>12.87742208806112</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +850,19 @@
         <v>1988</v>
       </c>
       <c r="B21" t="n">
-        <v>5719.499999999998</v>
+        <v>15.79972375690607</v>
       </c>
       <c r="C21" t="n">
-        <v>19819.20000000004</v>
+        <v>11.95273156953058</v>
       </c>
       <c r="D21" t="n">
-        <v>35813.20000000002</v>
+        <v>19.64650796354337</v>
       </c>
       <c r="E21" t="n">
-        <v>37298.45000000006</v>
+        <v>19.76710993511911</v>
       </c>
       <c r="F21" t="n">
-        <v>23067.79999999999</v>
+        <v>12.70247197921806</v>
       </c>
     </row>
     <row r="22">
@@ -870,19 +870,19 @@
         <v>1989</v>
       </c>
       <c r="B22" t="n">
-        <v>5611.250000000002</v>
+        <v>15.50069060773481</v>
       </c>
       <c r="C22" t="n">
-        <v>20789.80000000002</v>
+        <v>10.91725257299479</v>
       </c>
       <c r="D22" t="n">
-        <v>37541.15</v>
+        <v>19.20435723036861</v>
       </c>
       <c r="E22" t="n">
-        <v>39107.40000000007</v>
+        <v>20.09579241686944</v>
       </c>
       <c r="F22" t="n">
-        <v>24171.54999999999</v>
+        <v>12.40502746643575</v>
       </c>
     </row>
     <row r="23">
@@ -890,19 +890,19 @@
         <v>1990</v>
       </c>
       <c r="B23" t="n">
-        <v>5599.000000000001</v>
+        <v>15.33972602739726</v>
       </c>
       <c r="C23" t="n">
-        <v>21737.10000000003</v>
+        <v>10.64685836192217</v>
       </c>
       <c r="D23" t="n">
-        <v>39139</v>
+        <v>17.76982810143263</v>
       </c>
       <c r="E23" t="n">
-        <v>40945.85000000009</v>
+        <v>20.20158470018336</v>
       </c>
       <c r="F23" t="n">
-        <v>25386.94999999999</v>
+        <v>13.34570682028734</v>
       </c>
     </row>
     <row r="24">
@@ -910,19 +910,19 @@
         <v>1991</v>
       </c>
       <c r="B24" t="n">
-        <v>5770.049999999997</v>
+        <v>15.80835616438355</v>
       </c>
       <c r="C24" t="n">
-        <v>22790.45000000004</v>
+        <v>11.82218731513247</v>
       </c>
       <c r="D24" t="n">
-        <v>40869.05</v>
+        <v>19.20681129781794</v>
       </c>
       <c r="E24" t="n">
-        <v>42762.50000000011</v>
+        <v>19.96577809456721</v>
       </c>
       <c r="F24" t="n">
-        <v>26556.95</v>
+        <v>12.86245333500312</v>
       </c>
     </row>
     <row r="25">
@@ -930,19 +930,19 @@
         <v>1992</v>
       </c>
       <c r="B25" t="n">
-        <v>5514.449999999999</v>
+        <v>15.10808219178082</v>
       </c>
       <c r="C25" t="n">
-        <v>23676.40000000003</v>
+        <v>9.865628432034422</v>
       </c>
       <c r="D25" t="n">
-        <v>42620.79999999997</v>
+        <v>19.46106386041558</v>
       </c>
       <c r="E25" t="n">
-        <v>44606.25000000012</v>
+        <v>20.25778019668008</v>
       </c>
       <c r="F25" t="n">
-        <v>27589.95</v>
+        <v>11.49299399269234</v>
       </c>
     </row>
     <row r="26">
@@ -950,19 +950,19 @@
         <v>1993</v>
       </c>
       <c r="B26" t="n">
-        <v>5544.199999999999</v>
+        <v>15.75056818181818</v>
       </c>
       <c r="C26" t="n">
-        <v>24654.10000000002</v>
+        <v>11.22233668672767</v>
       </c>
       <c r="D26" t="n">
-        <v>44285.34999999998</v>
+        <v>19.58152399837693</v>
       </c>
       <c r="E26" t="n">
-        <v>46403.40000000013</v>
+        <v>20.65236113859864</v>
       </c>
       <c r="F26" t="n">
-        <v>28694.75000000002</v>
+        <v>12.40325548880769</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +970,19 @@
         <v>1994</v>
       </c>
       <c r="B27" t="n">
-        <v>5831.55</v>
+        <v>16.33487394957983</v>
       </c>
       <c r="C27" t="n">
-        <v>25732.10000000002</v>
+        <v>12.23845322119918</v>
       </c>
       <c r="D27" t="n">
-        <v>46056.69999999997</v>
+        <v>20.12282611234132</v>
       </c>
       <c r="E27" t="n">
-        <v>48168.35000000015</v>
+        <v>20.5241650705586</v>
       </c>
       <c r="F27" t="n">
-        <v>29912.00000000001</v>
+        <v>13.36579625531313</v>
       </c>
     </row>
     <row r="28">
@@ -990,19 +990,19 @@
         <v>1995</v>
       </c>
       <c r="B28" t="n">
-        <v>5933.900000000001</v>
+        <v>16.25726027397261</v>
       </c>
       <c r="C28" t="n">
-        <v>26778.00000000001</v>
+        <v>11.75709392467999</v>
       </c>
       <c r="D28" t="n">
-        <v>47877.84999999995</v>
+        <v>20.23376731991584</v>
       </c>
       <c r="E28" t="n">
-        <v>50008.00000000014</v>
+        <v>20.21928440294085</v>
       </c>
       <c r="F28" t="n">
-        <v>31139.20000000001</v>
+        <v>13.48441082886209</v>
       </c>
     </row>
     <row r="29">
@@ -1010,19 +1010,19 @@
         <v>1996</v>
       </c>
       <c r="B29" t="n">
-        <v>5894.700000000002</v>
+        <v>16.23884297520662</v>
       </c>
       <c r="C29" t="n">
-        <v>27868.75000000002</v>
+        <v>12.11546257060087</v>
       </c>
       <c r="D29" t="n">
-        <v>49595.44999999993</v>
+        <v>19.52622210471815</v>
       </c>
       <c r="E29" t="n">
-        <v>51839.25000000012</v>
+        <v>20.34581631212023</v>
       </c>
       <c r="F29" t="n">
-        <v>32394.3</v>
+        <v>13.78896098727024</v>
       </c>
     </row>
     <row r="30">
@@ -1030,19 +1030,19 @@
         <v>1997</v>
       </c>
       <c r="B30" t="n">
-        <v>5705.949999999997</v>
+        <v>15.80595567867035</v>
       </c>
       <c r="C30" t="n">
-        <v>28893.80000000003</v>
+        <v>11.65354452326518</v>
       </c>
       <c r="D30" t="n">
-        <v>51300.79999999993</v>
+        <v>18.95468375939251</v>
       </c>
       <c r="E30" t="n">
-        <v>53557.65000000012</v>
+        <v>19.31939795902356</v>
       </c>
       <c r="F30" t="n">
-        <v>33651.45000000001</v>
+        <v>13.96636220865132</v>
       </c>
     </row>
     <row r="31">
@@ -1050,19 +1050,19 @@
         <v>1998</v>
       </c>
       <c r="B31" t="n">
-        <v>6128.499999999997</v>
+        <v>17.11871508379888</v>
       </c>
       <c r="C31" t="n">
-        <v>30019.40000000001</v>
+        <v>13.0718798221065</v>
       </c>
       <c r="D31" t="n">
-        <v>53050.09999999991</v>
+        <v>20.32476647999301</v>
       </c>
       <c r="E31" t="n">
-        <v>55469.05000000013</v>
+        <v>20.98608041259808</v>
       </c>
       <c r="F31" t="n">
-        <v>34993.64999999999</v>
+        <v>14.74093871965926</v>
       </c>
     </row>
     <row r="32">
@@ -1070,19 +1070,19 @@
         <v>1999</v>
       </c>
       <c r="B32" t="n">
-        <v>6290.299999999998</v>
+        <v>17.42465373961218</v>
       </c>
       <c r="C32" t="n">
-        <v>31295.65</v>
+        <v>14.65138499797848</v>
       </c>
       <c r="D32" t="n">
-        <v>54909.49999999991</v>
+        <v>20.65631611516476</v>
       </c>
       <c r="E32" t="n">
-        <v>57376.85000000016</v>
+        <v>20.96506609144129</v>
       </c>
       <c r="F32" t="n">
-        <v>36240.5</v>
+        <v>14.0176770968851</v>
       </c>
     </row>
     <row r="33">
@@ -1090,19 +1090,19 @@
         <v>2000</v>
       </c>
       <c r="B33" t="n">
-        <v>6010.649999999999</v>
+        <v>16.60400552486188</v>
       </c>
       <c r="C33" t="n">
-        <v>32369.8</v>
+        <v>12.37274301134067</v>
       </c>
       <c r="D33" t="n">
-        <v>56643.5999999999</v>
+        <v>19.49729240127961</v>
       </c>
       <c r="E33" t="n">
-        <v>59289.85000000016</v>
+        <v>21.02135941403741</v>
       </c>
       <c r="F33" t="n">
-        <v>37529.90000000001</v>
+        <v>14.16758344670528</v>
       </c>
     </row>
     <row r="34">
@@ -1110,19 +1110,19 @@
         <v>2001</v>
       </c>
       <c r="B34" t="n">
-        <v>6104.85</v>
+        <v>16.81776859504132</v>
       </c>
       <c r="C34" t="n">
-        <v>33519.30000000003</v>
+        <v>13.20309935240159</v>
       </c>
       <c r="D34" t="n">
-        <v>58411.04999999992</v>
+        <v>19.63678343298109</v>
       </c>
       <c r="E34" t="n">
-        <v>61219.70000000016</v>
+        <v>21.20512347189171</v>
       </c>
       <c r="F34" t="n">
-        <v>38787.95000000003</v>
+        <v>13.82845199398592</v>
       </c>
     </row>
     <row r="35">
@@ -1130,19 +1130,19 @@
         <v>2002</v>
       </c>
       <c r="B35" t="n">
-        <v>6104.999999999996</v>
+        <v>16.81818181818181</v>
       </c>
       <c r="C35" t="n">
-        <v>34684.65</v>
+        <v>13.39264885627729</v>
       </c>
       <c r="D35" t="n">
-        <v>60246.29999999992</v>
+        <v>20.38337124651628</v>
       </c>
       <c r="E35" t="n">
-        <v>63035.35000000016</v>
+        <v>19.96581655947709</v>
       </c>
       <c r="F35" t="n">
-        <v>40076.70000000003</v>
+        <v>14.15846143471724</v>
       </c>
     </row>
     <row r="36">
@@ -1150,19 +1150,19 @@
         <v>2003</v>
       </c>
       <c r="B36" t="n">
-        <v>6253.950000000002</v>
+        <v>17.1341095890411</v>
       </c>
       <c r="C36" t="n">
-        <v>35811.40000000002</v>
+        <v>12.66825165395864</v>
       </c>
       <c r="D36" t="n">
-        <v>62108.09999999994</v>
+        <v>20.68333374996172</v>
       </c>
       <c r="E36" t="n">
-        <v>64983.50000000017</v>
+        <v>21.39256322347257</v>
       </c>
       <c r="F36" t="n">
-        <v>41393.95</v>
+        <v>14.47183110255128</v>
       </c>
     </row>
     <row r="37">
@@ -1170,19 +1170,19 @@
         <v>2004</v>
       </c>
       <c r="B37" t="n">
-        <v>6033.950000000001</v>
+        <v>16.48620218579235</v>
       </c>
       <c r="C37" t="n">
-        <v>36992.95000000003</v>
+        <v>13.12327749070284</v>
       </c>
       <c r="D37" t="n">
-        <v>63834.49999999992</v>
+        <v>19.19871795329629</v>
       </c>
       <c r="E37" t="n">
-        <v>66902.50000000016</v>
+        <v>21.09122351329862</v>
       </c>
       <c r="F37" t="n">
-        <v>42600.94999999998</v>
+        <v>13.27686772937556</v>
       </c>
     </row>
     <row r="38">
@@ -1190,19 +1190,19 @@
         <v>2005</v>
       </c>
       <c r="B38" t="n">
-        <v>6230.950000000003</v>
+        <v>17.65141643059491</v>
       </c>
       <c r="C38" t="n">
-        <v>38134.15000000005</v>
+        <v>13.42236369175236</v>
       </c>
       <c r="D38" t="n">
-        <v>65737.99999999999</v>
+        <v>21.36331908836996</v>
       </c>
       <c r="E38" t="n">
-        <v>68841.15000000014</v>
+        <v>21.30153503818802</v>
       </c>
       <c r="F38" t="n">
-        <v>43848.55000000001</v>
+        <v>14.83384550269853</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         <v>2006</v>
       </c>
       <c r="B39" t="n">
-        <v>6129.100000000002</v>
+        <v>17.12039106145252</v>
       </c>
       <c r="C39" t="n">
-        <v>39408.25000000001</v>
+        <v>14.30580404101947</v>
       </c>
       <c r="D39" t="n">
-        <v>67369.69999999997</v>
+        <v>19.6793252272425</v>
       </c>
       <c r="E39" t="n">
-        <v>70764.05000000009</v>
+        <v>21.13262538084987</v>
       </c>
       <c r="F39" t="n">
-        <v>45148.95000000001</v>
+        <v>14.29602005981194</v>
       </c>
     </row>
     <row r="40">
@@ -1230,19 +1230,19 @@
         <v>2007</v>
       </c>
       <c r="B40" t="n">
-        <v>5851.099999999999</v>
+        <v>16.43567415730337</v>
       </c>
       <c r="C40" t="n">
-        <v>40470.00000000002</v>
+        <v>12.65948004754141</v>
       </c>
       <c r="D40" t="n">
-        <v>69018.34999999999</v>
+        <v>19.17619914054302</v>
       </c>
       <c r="E40" t="n">
-        <v>72617.00000000006</v>
+        <v>20.37046331935707</v>
       </c>
       <c r="F40" t="n">
-        <v>46436.70000000001</v>
+        <v>14.15267413108491</v>
       </c>
     </row>
     <row r="41">
@@ -1250,19 +1250,19 @@
         <v>2008</v>
       </c>
       <c r="B41" t="n">
-        <v>5524.550000000006</v>
+        <v>16.59024024024026</v>
       </c>
       <c r="C41" t="n">
-        <v>41293.95000000002</v>
+        <v>12.12477507315278</v>
       </c>
       <c r="D41" t="n">
-        <v>70674.3</v>
+        <v>19.47821161791329</v>
       </c>
       <c r="E41" t="n">
-        <v>74426.45000000004</v>
+        <v>20.79341435590178</v>
       </c>
       <c r="F41" t="n">
-        <v>47671.90000000002</v>
+        <v>13.88169637923427</v>
       </c>
     </row>
     <row r="42">
@@ -1270,19 +1270,19 @@
         <v>2009</v>
       </c>
       <c r="B42" t="n">
-        <v>6359.900000000001</v>
+        <v>17.47225274725275</v>
       </c>
       <c r="C42" t="n">
-        <v>42493.05000000003</v>
+        <v>13.45805305636836</v>
       </c>
       <c r="D42" t="n">
-        <v>72486.74999999997</v>
+        <v>20.35475790686571</v>
       </c>
       <c r="E42" t="n">
-        <v>76428.15000000002</v>
+        <v>21.98362406908589</v>
       </c>
       <c r="F42" t="n">
-        <v>49018.54999999999</v>
+        <v>14.78838800412211</v>
       </c>
     </row>
     <row r="43">
@@ -1290,19 +1290,19 @@
         <v>2010</v>
       </c>
       <c r="B43" t="n">
-        <v>6129.150000000001</v>
+        <v>17.36303116147309</v>
       </c>
       <c r="C43" t="n">
-        <v>43758.55000000003</v>
+        <v>14.21064503395965</v>
       </c>
       <c r="D43" t="n">
-        <v>74211.54999999997</v>
+        <v>21.28237509642518</v>
       </c>
       <c r="E43" t="n">
-        <v>78389.65000000004</v>
+        <v>21.79652334141852</v>
       </c>
       <c r="F43" t="n">
-        <v>50195.9</v>
+        <v>13.24598208893469</v>
       </c>
     </row>
     <row r="44">
@@ -1310,19 +1310,19 @@
         <v>2011</v>
       </c>
       <c r="B44" t="n">
-        <v>5879.599999999998</v>
+        <v>16.28698060941828</v>
       </c>
       <c r="C44" t="n">
-        <v>44793.25</v>
+        <v>11.78551286555011</v>
       </c>
       <c r="D44" t="n">
-        <v>76016.39999999995</v>
+        <v>20.06738873732336</v>
       </c>
       <c r="E44" t="n">
-        <v>80267.80000000005</v>
+        <v>21.11051692601576</v>
       </c>
       <c r="F44" t="n">
-        <v>51357.79999999998</v>
+        <v>12.91369211086741</v>
       </c>
     </row>
     <row r="45">
@@ -1330,19 +1330,19 @@
         <v>2012</v>
       </c>
       <c r="B45" t="n">
-        <v>6139.449999999993</v>
+        <v>17.05402777777776</v>
       </c>
       <c r="C45" t="n">
-        <v>45957.90000000002</v>
+        <v>13.07150569850611</v>
       </c>
       <c r="D45" t="n">
-        <v>77762.39999999999</v>
+        <v>20.53566731089911</v>
       </c>
       <c r="E45" t="n">
-        <v>82181.55000000008</v>
+        <v>21.03109257528279</v>
       </c>
       <c r="F45" t="n">
-        <v>52672.84999999996</v>
+        <v>14.43438795772682</v>
       </c>
     </row>
     <row r="46">
@@ -1350,19 +1350,19 @@
         <v>2013</v>
       </c>
       <c r="B46" t="n">
-        <v>6057.399999999997</v>
+        <v>16.77950138504154</v>
       </c>
       <c r="C46" t="n">
-        <v>47198.24999999999</v>
+        <v>13.92690561887229</v>
       </c>
       <c r="D46" t="n">
-        <v>79533.74999999996</v>
+        <v>20.36233712853295</v>
       </c>
       <c r="E46" t="n">
-        <v>84062.30000000002</v>
+        <v>20.89869332500311</v>
       </c>
       <c r="F46" t="n">
-        <v>53837.79999999998</v>
+        <v>12.81939552127964</v>
       </c>
     </row>
     <row r="47">
@@ -1370,19 +1370,19 @@
         <v>2014</v>
       </c>
       <c r="B47" t="n">
-        <v>6184.250000000004</v>
+        <v>17.17847222222223</v>
       </c>
       <c r="C47" t="n">
-        <v>48348.75</v>
+        <v>12.93807672909858</v>
       </c>
       <c r="D47" t="n">
-        <v>81432.39999999997</v>
+        <v>21.0880476607531</v>
       </c>
       <c r="E47" t="n">
-        <v>85972.80000000002</v>
+        <v>21.45998548138892</v>
       </c>
       <c r="F47" t="n">
-        <v>55062.39999999998</v>
+        <v>13.90358871372224</v>
       </c>
     </row>
     <row r="48">
@@ -1390,19 +1390,19 @@
         <v>2015</v>
       </c>
       <c r="B48" t="n">
-        <v>6062.749999999999</v>
+        <v>16.93505586592179</v>
       </c>
       <c r="C48" t="n">
-        <v>49507.15</v>
+        <v>13.16110198572021</v>
       </c>
       <c r="D48" t="n">
-        <v>83310.95</v>
+        <v>20.87514338088739</v>
       </c>
       <c r="E48" t="n">
-        <v>87792.20000000007</v>
+        <v>20.68382006158864</v>
       </c>
       <c r="F48" t="n">
-        <v>56268.8</v>
+        <v>13.71127627768227</v>
       </c>
     </row>
     <row r="49">
@@ -1410,19 +1410,19 @@
         <v>2016</v>
       </c>
       <c r="B49" t="n">
-        <v>6060.200000000001</v>
+        <v>16.60328767123288</v>
       </c>
       <c r="C49" t="n">
-        <v>50526.04999999997</v>
+        <v>11.46734557761911</v>
       </c>
       <c r="D49" t="n">
-        <v>85120.34999999999</v>
+        <v>20.11291366352623</v>
       </c>
       <c r="E49" t="n">
-        <v>89699.70000000007</v>
+        <v>20.95851978327814</v>
       </c>
       <c r="F49" t="n">
-        <v>57593.20000000003</v>
+        <v>14.54468778562698</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56778_昆明.xlsx
+++ b/my_work/data1/YearMeanER56778_昆明.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,31 @@
           <t>S4</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RHmean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>s1_RH</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>s2_RH</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>s3_RH</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>s4_RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +509,21 @@
       <c r="F2" t="n">
         <v>12.99184782608696</v>
       </c>
+      <c r="G2" t="n">
+        <v>73.62465753424658</v>
+      </c>
+      <c r="H2" t="n">
+        <v>62.72222222222222</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67.98901098901099</v>
+      </c>
+      <c r="J2" t="n">
+        <v>87.06521739130434</v>
+      </c>
+      <c r="K2" t="n">
+        <v>76.42391304347827</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -504,6 +544,21 @@
       <c r="F3" t="n">
         <v>23.924911389414</v>
       </c>
+      <c r="G3" t="n">
+        <v>75.39726027397261</v>
+      </c>
+      <c r="H3" t="n">
+        <v>133.3524691358025</v>
+      </c>
+      <c r="I3" t="n">
+        <v>164.9119671537254</v>
+      </c>
+      <c r="J3" t="n">
+        <v>171.5224480151229</v>
+      </c>
+      <c r="K3" t="n">
+        <v>158.8415642722117</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +579,21 @@
       <c r="F4" t="n">
         <v>11.08777077597189</v>
       </c>
+      <c r="G4" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>71.39280521262003</v>
+      </c>
+      <c r="I4" t="n">
+        <v>74.53749414454643</v>
+      </c>
+      <c r="J4" t="n">
+        <v>88.10350486972959</v>
+      </c>
+      <c r="K4" t="n">
+        <v>79.06349526382839</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -544,6 +614,21 @@
       <c r="F5" t="n">
         <v>12.68845403017361</v>
       </c>
+      <c r="G5" t="n">
+        <v>75.73770491803279</v>
+      </c>
+      <c r="H5" t="n">
+        <v>69.16915170563318</v>
+      </c>
+      <c r="I5" t="n">
+        <v>71.51140103455545</v>
+      </c>
+      <c r="J5" t="n">
+        <v>84.82721200945358</v>
+      </c>
+      <c r="K5" t="n">
+        <v>80.7289510354764</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -564,6 +649,21 @@
       <c r="F6" t="n">
         <v>12.05530928293667</v>
       </c>
+      <c r="G6" t="n">
+        <v>75.5702479338843</v>
+      </c>
+      <c r="H6" t="n">
+        <v>65.24055854210947</v>
+      </c>
+      <c r="I6" t="n">
+        <v>72.74188352785225</v>
+      </c>
+      <c r="J6" t="n">
+        <v>85.19377404358102</v>
+      </c>
+      <c r="K6" t="n">
+        <v>81.95357555473345</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -584,6 +684,21 @@
       <c r="F7" t="n">
         <v>13.38538379655366</v>
       </c>
+      <c r="G7" t="n">
+        <v>75.86538461538461</v>
+      </c>
+      <c r="H7" t="n">
+        <v>65.84711731713455</v>
+      </c>
+      <c r="I7" t="n">
+        <v>75.59713203919836</v>
+      </c>
+      <c r="J7" t="n">
+        <v>86.86080189177805</v>
+      </c>
+      <c r="K7" t="n">
+        <v>78.24949538646449</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -604,6 +719,21 @@
       <c r="F8" t="n">
         <v>11.37647156300602</v>
       </c>
+      <c r="G8" t="n">
+        <v>72.29558011049724</v>
+      </c>
+      <c r="H8" t="n">
+        <v>63.43648446423747</v>
+      </c>
+      <c r="I8" t="n">
+        <v>67.42414430812306</v>
+      </c>
+      <c r="J8" t="n">
+        <v>83.36512002101976</v>
+      </c>
+      <c r="K8" t="n">
+        <v>78.18749451507027</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -624,6 +754,21 @@
       <c r="F9" t="n">
         <v>12.14974425611963</v>
       </c>
+      <c r="G9" t="n">
+        <v>73.52247191011236</v>
+      </c>
+      <c r="H9" t="n">
+        <v>67.32347785125536</v>
+      </c>
+      <c r="I9" t="n">
+        <v>70.81784773964971</v>
+      </c>
+      <c r="J9" t="n">
+        <v>84.52884292708561</v>
+      </c>
+      <c r="K9" t="n">
+        <v>75.6976901577725</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -644,6 +789,21 @@
       <c r="F10" t="n">
         <v>11.74891026365347</v>
       </c>
+      <c r="G10" t="n">
+        <v>73.2534435261708</v>
+      </c>
+      <c r="H10" t="n">
+        <v>66.12581642056951</v>
+      </c>
+      <c r="I10" t="n">
+        <v>66.43615559258033</v>
+      </c>
+      <c r="J10" t="n">
+        <v>84.08183524920746</v>
+      </c>
+      <c r="K10" t="n">
+        <v>79.23584445823666</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -664,6 +824,21 @@
       <c r="F11" t="n">
         <v>12.48368380721362</v>
       </c>
+      <c r="G11" t="n">
+        <v>72.8986301369863</v>
+      </c>
+      <c r="H11" t="n">
+        <v>64.24584240467298</v>
+      </c>
+      <c r="I11" t="n">
+        <v>74.04874896255583</v>
+      </c>
+      <c r="J11" t="n">
+        <v>83.22915038314356</v>
+      </c>
+      <c r="K11" t="n">
+        <v>73.11125917889387</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -684,6 +859,21 @@
       <c r="F12" t="n">
         <v>10.98460525877406</v>
       </c>
+      <c r="G12" t="n">
+        <v>69.95890410958904</v>
+      </c>
+      <c r="H12" t="n">
+        <v>54.02495380449636</v>
+      </c>
+      <c r="I12" t="n">
+        <v>66.44009614244567</v>
+      </c>
+      <c r="J12" t="n">
+        <v>85.23075163459939</v>
+      </c>
+      <c r="K12" t="n">
+        <v>76.95773107803144</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -704,6 +894,21 @@
       <c r="F13" t="n">
         <v>12.85309353542146</v>
       </c>
+      <c r="G13" t="n">
+        <v>70.75342465753425</v>
+      </c>
+      <c r="H13" t="n">
+        <v>57.90027726449441</v>
+      </c>
+      <c r="I13" t="n">
+        <v>66.64219885870818</v>
+      </c>
+      <c r="J13" t="n">
+        <v>84.43729077863695</v>
+      </c>
+      <c r="K13" t="n">
+        <v>76.78214925084816</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -724,6 +929,21 @@
       <c r="F14" t="n">
         <v>13.40781195750727</v>
       </c>
+      <c r="G14" t="n">
+        <v>73.06060606060606</v>
+      </c>
+      <c r="H14" t="n">
+        <v>63.37666974738327</v>
+      </c>
+      <c r="I14" t="n">
+        <v>71.30713554287453</v>
+      </c>
+      <c r="J14" t="n">
+        <v>83.54823142150691</v>
+      </c>
+      <c r="K14" t="n">
+        <v>79.0996922284629</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -744,6 +964,21 @@
       <c r="F15" t="n">
         <v>11.78649795605986</v>
       </c>
+      <c r="G15" t="n">
+        <v>72.67307692307692</v>
+      </c>
+      <c r="H15" t="n">
+        <v>63.74862966385982</v>
+      </c>
+      <c r="I15" t="n">
+        <v>68.65896817269861</v>
+      </c>
+      <c r="J15" t="n">
+        <v>83.33204599371203</v>
+      </c>
+      <c r="K15" t="n">
+        <v>77.90325752422243</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -764,6 +999,21 @@
       <c r="F16" t="n">
         <v>12.33354889082674</v>
       </c>
+      <c r="G16" t="n">
+        <v>74.0958904109589</v>
+      </c>
+      <c r="H16" t="n">
+        <v>68.84165144070955</v>
+      </c>
+      <c r="I16" t="n">
+        <v>64.9193293205791</v>
+      </c>
+      <c r="J16" t="n">
+        <v>85.32969615210557</v>
+      </c>
+      <c r="K16" t="n">
+        <v>80.27068758178503</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -784,6 +1034,21 @@
       <c r="F17" t="n">
         <v>12.60090814011768</v>
       </c>
+      <c r="G17" t="n">
+        <v>71.39890710382514</v>
+      </c>
+      <c r="H17" t="n">
+        <v>62.00924891693086</v>
+      </c>
+      <c r="I17" t="n">
+        <v>68.99911350901735</v>
+      </c>
+      <c r="J17" t="n">
+        <v>83.41662713208811</v>
+      </c>
+      <c r="K17" t="n">
+        <v>74.29642051719331</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -804,6 +1069,21 @@
       <c r="F18" t="n">
         <v>12.40055334934911</v>
       </c>
+      <c r="G18" t="n">
+        <v>73.92328767123287</v>
+      </c>
+      <c r="H18" t="n">
+        <v>62.47788054352146</v>
+      </c>
+      <c r="I18" t="n">
+        <v>75.2527375110881</v>
+      </c>
+      <c r="J18" t="n">
+        <v>84.70018072969661</v>
+      </c>
+      <c r="K18" t="n">
+        <v>76.16626544040427</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -824,6 +1104,21 @@
       <c r="F19" t="n">
         <v>12.52283210162336</v>
       </c>
+      <c r="G19" t="n">
+        <v>73.31780821917808</v>
+      </c>
+      <c r="H19" t="n">
+        <v>61.30530978381691</v>
+      </c>
+      <c r="I19" t="n">
+        <v>71.66211799462734</v>
+      </c>
+      <c r="J19" t="n">
+        <v>85.14891500793148</v>
+      </c>
+      <c r="K19" t="n">
+        <v>78.12137245043918</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -844,6 +1139,21 @@
       <c r="F20" t="n">
         <v>12.87742208806112</v>
       </c>
+      <c r="G20" t="n">
+        <v>71.3213296398892</v>
+      </c>
+      <c r="H20" t="n">
+        <v>62.61450344204241</v>
+      </c>
+      <c r="I20" t="n">
+        <v>63.36393239074284</v>
+      </c>
+      <c r="J20" t="n">
+        <v>82.9472708153036</v>
+      </c>
+      <c r="K20" t="n">
+        <v>78.95784100489608</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -864,6 +1174,21 @@
       <c r="F21" t="n">
         <v>12.70247197921806</v>
       </c>
+      <c r="G21" t="n">
+        <v>73.2292817679558</v>
+      </c>
+      <c r="H21" t="n">
+        <v>61.35840113672574</v>
+      </c>
+      <c r="I21" t="n">
+        <v>68.89410914715101</v>
+      </c>
+      <c r="J21" t="n">
+        <v>85.23803716835572</v>
+      </c>
+      <c r="K21" t="n">
+        <v>80.9017156630967</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -884,6 +1209,21 @@
       <c r="F22" t="n">
         <v>12.40502746643575</v>
       </c>
+      <c r="G22" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>65.11509334596361</v>
+      </c>
+      <c r="I22" t="n">
+        <v>67.04279240821046</v>
+      </c>
+      <c r="J22" t="n">
+        <v>82.71690150734457</v>
+      </c>
+      <c r="K22" t="n">
+        <v>78.36557461847885</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -904,6 +1244,21 @@
       <c r="F23" t="n">
         <v>13.34570682028734</v>
       </c>
+      <c r="G23" t="n">
+        <v>74.82465753424657</v>
+      </c>
+      <c r="H23" t="n">
+        <v>67.66794548162181</v>
+      </c>
+      <c r="I23" t="n">
+        <v>73.6268438726177</v>
+      </c>
+      <c r="J23" t="n">
+        <v>82.79040110334071</v>
+      </c>
+      <c r="K23" t="n">
+        <v>78.23223450672259</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -924,6 +1279,21 @@
       <c r="F24" t="n">
         <v>12.86245333500312</v>
       </c>
+      <c r="G24" t="n">
+        <v>73.96164383561644</v>
+      </c>
+      <c r="H24" t="n">
+        <v>63.09631050535135</v>
+      </c>
+      <c r="I24" t="n">
+        <v>68.94095432827052</v>
+      </c>
+      <c r="J24" t="n">
+        <v>86.01946088155805</v>
+      </c>
+      <c r="K24" t="n">
+        <v>80.78513298376872</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -944,6 +1314,21 @@
       <c r="F25" t="n">
         <v>11.49299399269234</v>
       </c>
+      <c r="G25" t="n">
+        <v>71.63561643835617</v>
+      </c>
+      <c r="H25" t="n">
+        <v>68.74831110445442</v>
+      </c>
+      <c r="I25" t="n">
+        <v>64.99935114646452</v>
+      </c>
+      <c r="J25" t="n">
+        <v>80.13064631392999</v>
+      </c>
+      <c r="K25" t="n">
+        <v>75.85478168114031</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -964,6 +1349,21 @@
       <c r="F26" t="n">
         <v>12.40325548880769</v>
       </c>
+      <c r="G26" t="n">
+        <v>72.68181818181819</v>
+      </c>
+      <c r="H26" t="n">
+        <v>65.40623080800516</v>
+      </c>
+      <c r="I26" t="n">
+        <v>66.66278315286587</v>
+      </c>
+      <c r="J26" t="n">
+        <v>83.03557552629466</v>
+      </c>
+      <c r="K26" t="n">
+        <v>78.64283090756823</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -984,6 +1384,21 @@
       <c r="F27" t="n">
         <v>13.36579625531313</v>
       </c>
+      <c r="G27" t="n">
+        <v>70.71428571428571</v>
+      </c>
+      <c r="H27" t="n">
+        <v>60.83602506525848</v>
+      </c>
+      <c r="I27" t="n">
+        <v>68.13104250733556</v>
+      </c>
+      <c r="J27" t="n">
+        <v>80.10385718995741</v>
+      </c>
+      <c r="K27" t="n">
+        <v>77.0830742489953</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1004,6 +1419,21 @@
       <c r="F28" t="n">
         <v>13.48441082886209</v>
       </c>
+      <c r="G28" t="n">
+        <v>71.04383561643836</v>
+      </c>
+      <c r="H28" t="n">
+        <v>63.2537336118362</v>
+      </c>
+      <c r="I28" t="n">
+        <v>63.50693453304764</v>
+      </c>
+      <c r="J28" t="n">
+        <v>82.42504192597779</v>
+      </c>
+      <c r="K28" t="n">
+        <v>77.84872906792386</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1024,6 +1454,21 @@
       <c r="F29" t="n">
         <v>13.78896098727024</v>
       </c>
+      <c r="G29" t="n">
+        <v>70.66115702479338</v>
+      </c>
+      <c r="H29" t="n">
+        <v>62.17861245727293</v>
+      </c>
+      <c r="I29" t="n">
+        <v>67.3652464554275</v>
+      </c>
+      <c r="J29" t="n">
+        <v>77.99368177940634</v>
+      </c>
+      <c r="K29" t="n">
+        <v>78.10705140291222</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1044,6 +1489,21 @@
       <c r="F30" t="n">
         <v>13.96636220865132</v>
       </c>
+      <c r="G30" t="n">
+        <v>69.42105263157895</v>
+      </c>
+      <c r="H30" t="n">
+        <v>63.65369227480082</v>
+      </c>
+      <c r="I30" t="n">
+        <v>64.31170600500469</v>
+      </c>
+      <c r="J30" t="n">
+        <v>79.19992979754896</v>
+      </c>
+      <c r="K30" t="n">
+        <v>73.63853902640564</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1064,6 +1524,21 @@
       <c r="F31" t="n">
         <v>14.74093871965926</v>
       </c>
+      <c r="G31" t="n">
+        <v>67.38268156424581</v>
+      </c>
+      <c r="H31" t="n">
+        <v>55.98452519856093</v>
+      </c>
+      <c r="I31" t="n">
+        <v>66.96910006902304</v>
+      </c>
+      <c r="J31" t="n">
+        <v>77.69782532388641</v>
+      </c>
+      <c r="K31" t="n">
+        <v>71.28954933724354</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1084,6 +1559,21 @@
       <c r="F32" t="n">
         <v>14.0176770968851</v>
       </c>
+      <c r="G32" t="n">
+        <v>69.39058171745152</v>
+      </c>
+      <c r="H32" t="n">
+        <v>57.51118778634728</v>
+      </c>
+      <c r="I32" t="n">
+        <v>66.70295714361565</v>
+      </c>
+      <c r="J32" t="n">
+        <v>79.96410679699876</v>
+      </c>
+      <c r="K32" t="n">
+        <v>75.93655054819159</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1104,6 +1594,21 @@
       <c r="F33" t="n">
         <v>14.16758344670528</v>
       </c>
+      <c r="G33" t="n">
+        <v>70.31491712707182</v>
+      </c>
+      <c r="H33" t="n">
+        <v>62.01717258848122</v>
+      </c>
+      <c r="I33" t="n">
+        <v>70.65225507937352</v>
+      </c>
+      <c r="J33" t="n">
+        <v>77.13004463909782</v>
+      </c>
+      <c r="K33" t="n">
+        <v>74.15148424508904</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1124,6 +1629,21 @@
       <c r="F34" t="n">
         <v>13.82845199398592</v>
       </c>
+      <c r="G34" t="n">
+        <v>68.97520661157024</v>
+      </c>
+      <c r="H34" t="n">
+        <v>60.04564968850547</v>
+      </c>
+      <c r="I34" t="n">
+        <v>65.52365115471839</v>
+      </c>
+      <c r="J34" t="n">
+        <v>77.52315265912063</v>
+      </c>
+      <c r="K34" t="n">
+        <v>75.46903787222922</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1144,6 +1664,21 @@
       <c r="F35" t="n">
         <v>14.15846143471724</v>
       </c>
+      <c r="G35" t="n">
+        <v>67.90082644628099</v>
+      </c>
+      <c r="H35" t="n">
+        <v>61.27324601918756</v>
+      </c>
+      <c r="I35" t="n">
+        <v>64.07168847422767</v>
+      </c>
+      <c r="J35" t="n">
+        <v>76.50568644194696</v>
+      </c>
+      <c r="K35" t="n">
+        <v>72.45075041165467</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1164,6 +1699,21 @@
       <c r="F36" t="n">
         <v>14.47183110255128</v>
       </c>
+      <c r="G36" t="n">
+        <v>67.36438356164383</v>
+      </c>
+      <c r="H36" t="n">
+        <v>61.06970273354653</v>
+      </c>
+      <c r="I36" t="n">
+        <v>61.77001855466185</v>
+      </c>
+      <c r="J36" t="n">
+        <v>75.71201833089073</v>
+      </c>
+      <c r="K36" t="n">
+        <v>73.6896820696919</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1184,6 +1734,21 @@
       <c r="F37" t="n">
         <v>13.27686772937556</v>
       </c>
+      <c r="G37" t="n">
+        <v>66.05737704918033</v>
+      </c>
+      <c r="H37" t="n">
+        <v>56.53922750256644</v>
+      </c>
+      <c r="I37" t="n">
+        <v>67.54692328082047</v>
+      </c>
+      <c r="J37" t="n">
+        <v>74.17078280794446</v>
+      </c>
+      <c r="K37" t="n">
+        <v>68.84445306597492</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1204,6 +1769,21 @@
       <c r="F38" t="n">
         <v>14.83384550269853</v>
       </c>
+      <c r="G38" t="n">
+        <v>62.19830028328612</v>
+      </c>
+      <c r="H38" t="n">
+        <v>52.33185148258798</v>
+      </c>
+      <c r="I38" t="n">
+        <v>54.38385470312024</v>
+      </c>
+      <c r="J38" t="n">
+        <v>73.21924763921679</v>
+      </c>
+      <c r="K38" t="n">
+        <v>71.66875827136441</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1224,6 +1804,21 @@
       <c r="F39" t="n">
         <v>14.29602005981194</v>
       </c>
+      <c r="G39" t="n">
+        <v>70.10893854748603</v>
+      </c>
+      <c r="H39" t="n">
+        <v>57.72590946091764</v>
+      </c>
+      <c r="I39" t="n">
+        <v>70.51647446075143</v>
+      </c>
+      <c r="J39" t="n">
+        <v>79.38281790912193</v>
+      </c>
+      <c r="K39" t="n">
+        <v>75.31161693773221</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1244,6 +1839,21 @@
       <c r="F40" t="n">
         <v>14.15267413108491</v>
       </c>
+      <c r="G40" t="n">
+        <v>72.47191011235955</v>
+      </c>
+      <c r="H40" t="n">
+        <v>59.22030481718727</v>
+      </c>
+      <c r="I40" t="n">
+        <v>72.27030430414658</v>
+      </c>
+      <c r="J40" t="n">
+        <v>84.72155236857741</v>
+      </c>
+      <c r="K40" t="n">
+        <v>75.73164801019274</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1264,6 +1874,21 @@
       <c r="F41" t="n">
         <v>13.88169637923427</v>
       </c>
+      <c r="G41" t="n">
+        <v>70.77177177177177</v>
+      </c>
+      <c r="H41" t="n">
+        <v>62.27855514227807</v>
+      </c>
+      <c r="I41" t="n">
+        <v>67.06128260818775</v>
+      </c>
+      <c r="J41" t="n">
+        <v>79.14456309509747</v>
+      </c>
+      <c r="K41" t="n">
+        <v>75.88590720011325</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1284,6 +1909,21 @@
       <c r="F42" t="n">
         <v>14.78838800412211</v>
       </c>
+      <c r="G42" t="n">
+        <v>65.68406593406593</v>
+      </c>
+      <c r="H42" t="n">
+        <v>56.51420616824754</v>
+      </c>
+      <c r="I42" t="n">
+        <v>66.37845869564653</v>
+      </c>
+      <c r="J42" t="n">
+        <v>75.79504959885976</v>
+      </c>
+      <c r="K42" t="n">
+        <v>66.95528160000123</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1304,6 +1944,21 @@
       <c r="F43" t="n">
         <v>13.24598208893469</v>
       </c>
+      <c r="G43" t="n">
+        <v>65.86968838526913</v>
+      </c>
+      <c r="H43" t="n">
+        <v>49.90571340186941</v>
+      </c>
+      <c r="I43" t="n">
+        <v>60.38266413043471</v>
+      </c>
+      <c r="J43" t="n">
+        <v>76.58016538020725</v>
+      </c>
+      <c r="K43" t="n">
+        <v>78.95505868444447</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1324,6 +1979,21 @@
       <c r="F44" t="n">
         <v>12.91369211086741</v>
       </c>
+      <c r="G44" t="n">
+        <v>71.08587257617728</v>
+      </c>
+      <c r="H44" t="n">
+        <v>63.63939003822325</v>
+      </c>
+      <c r="I44" t="n">
+        <v>67.41079850692786</v>
+      </c>
+      <c r="J44" t="n">
+        <v>77.12866850422452</v>
+      </c>
+      <c r="K44" t="n">
+        <v>78.98851712840049</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1344,6 +2014,21 @@
       <c r="F45" t="n">
         <v>14.43438795772682</v>
       </c>
+      <c r="G45" t="n">
+        <v>66.55555555555556</v>
+      </c>
+      <c r="H45" t="n">
+        <v>53.84043766709136</v>
+      </c>
+      <c r="I45" t="n">
+        <v>64.05128835473171</v>
+      </c>
+      <c r="J45" t="n">
+        <v>80.71878987504593</v>
+      </c>
+      <c r="K45" t="n">
+        <v>70.29335344704783</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1364,6 +2049,21 @@
       <c r="F46" t="n">
         <v>12.81939552127964</v>
       </c>
+      <c r="G46" t="n">
+        <v>67.78116343490305</v>
+      </c>
+      <c r="H46" t="n">
+        <v>54.5982270851899</v>
+      </c>
+      <c r="I46" t="n">
+        <v>62.21649191312195</v>
+      </c>
+      <c r="J46" t="n">
+        <v>79.64526142719831</v>
+      </c>
+      <c r="K46" t="n">
+        <v>77.18797123312008</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1384,6 +2084,21 @@
       <c r="F47" t="n">
         <v>13.90358871372224</v>
       </c>
+      <c r="G47" t="n">
+        <v>65.49444444444444</v>
+      </c>
+      <c r="H47" t="n">
+        <v>55.12886918983544</v>
+      </c>
+      <c r="I47" t="n">
+        <v>58.32106035069365</v>
+      </c>
+      <c r="J47" t="n">
+        <v>77.71828068252442</v>
+      </c>
+      <c r="K47" t="n">
+        <v>74.02458394643955</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1404,6 +2119,21 @@
       <c r="F48" t="n">
         <v>13.71127627768227</v>
       </c>
+      <c r="G48" t="n">
+        <v>69.73743016759776</v>
+      </c>
+      <c r="H48" t="n">
+        <v>58.31605470999815</v>
+      </c>
+      <c r="I48" t="n">
+        <v>63.91561604780983</v>
+      </c>
+      <c r="J48" t="n">
+        <v>81.78335146834297</v>
+      </c>
+      <c r="K48" t="n">
+        <v>78.04522004434202</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1423,6 +2153,21 @@
       </c>
       <c r="F49" t="n">
         <v>14.54468778562698</v>
+      </c>
+      <c r="G49" t="n">
+        <v>73.1972602739726</v>
+      </c>
+      <c r="H49" t="n">
+        <v>64.24795616344441</v>
+      </c>
+      <c r="I49" t="n">
+        <v>67.99907270382208</v>
+      </c>
+      <c r="J49" t="n">
+        <v>82.45416686378633</v>
+      </c>
+      <c r="K49" t="n">
+        <v>80.90266543526458</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56778_昆明.xlsx
+++ b/my_work/data1/YearMeanER56778_昆明.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,1681 +492,1646 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="B2" t="n">
-        <v>15.43547945205479</v>
+        <v>14.92876712328766</v>
       </c>
       <c r="C2" t="n">
-        <v>11.46833333333333</v>
+        <v>20.52388888888889</v>
       </c>
       <c r="D2" t="n">
-        <v>18.34945054945055</v>
+        <v>42.07142857142857</v>
       </c>
       <c r="E2" t="n">
-        <v>18.87771739130435</v>
+        <v>38.95815217391303</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99184782608696</v>
+        <v>23.78369565217393</v>
       </c>
       <c r="G2" t="n">
-        <v>73.62465753424658</v>
+        <v>75.39726027397261</v>
       </c>
       <c r="H2" t="n">
-        <v>62.72222222222222</v>
+        <v>132.6555555555556</v>
       </c>
       <c r="I2" t="n">
-        <v>67.98901098901099</v>
+        <v>164.1648351648352</v>
       </c>
       <c r="J2" t="n">
-        <v>87.06521739130434</v>
+        <v>170.5760869565217</v>
       </c>
       <c r="K2" t="n">
-        <v>76.42391304347827</v>
+        <v>158.0108695652174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B3" t="n">
-        <v>14.92876712328766</v>
+        <v>14.38082191780823</v>
       </c>
       <c r="C3" t="n">
-        <v>20.65131481481482</v>
+        <v>9.595265432098767</v>
       </c>
       <c r="D3" t="n">
-        <v>42.27307088515879</v>
+        <v>18.62715855572998</v>
       </c>
       <c r="E3" t="n">
-        <v>39.16334475425329</v>
+        <v>19.51911034971644</v>
       </c>
       <c r="F3" t="n">
-        <v>23.924911389414</v>
+        <v>11.08623582230624</v>
       </c>
       <c r="G3" t="n">
-        <v>75.39726027397261</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>133.3524691358025</v>
+        <v>71.38506172839506</v>
       </c>
       <c r="I3" t="n">
-        <v>164.9119671537254</v>
+        <v>74.52928390291027</v>
       </c>
       <c r="J3" t="n">
-        <v>171.5224480151229</v>
+        <v>88.09321833648393</v>
       </c>
       <c r="K3" t="n">
-        <v>158.8415642722117</v>
+        <v>79.05446597353497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B4" t="n">
-        <v>14.38082191780823</v>
+        <v>14.98838797814209</v>
       </c>
       <c r="C4" t="n">
-        <v>9.596681275720165</v>
+        <v>10.14720071903405</v>
       </c>
       <c r="D4" t="n">
-        <v>18.62937440533141</v>
+        <v>18.11733141270033</v>
       </c>
       <c r="E4" t="n">
-        <v>19.52134070385058</v>
+        <v>19.62140337336648</v>
       </c>
       <c r="F4" t="n">
-        <v>11.08777077597189</v>
+        <v>12.68843734589463</v>
       </c>
       <c r="G4" t="n">
-        <v>76.59999999999999</v>
+        <v>75.73770491803279</v>
       </c>
       <c r="H4" t="n">
-        <v>71.39280521262003</v>
+        <v>69.16906661239994</v>
       </c>
       <c r="I4" t="n">
-        <v>74.53749414454643</v>
+        <v>71.51131081211989</v>
       </c>
       <c r="J4" t="n">
-        <v>88.10350486972959</v>
+        <v>84.82710019930961</v>
       </c>
       <c r="K4" t="n">
-        <v>79.06349526382839</v>
+        <v>80.72885289101669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B5" t="n">
-        <v>14.98838797814209</v>
+        <v>15.51101928374655</v>
       </c>
       <c r="C5" t="n">
-        <v>10.14721627775516</v>
+        <v>11.24542273544357</v>
       </c>
       <c r="D5" t="n">
-        <v>18.11735576269595</v>
+        <v>19.50898166387584</v>
       </c>
       <c r="E5" t="n">
-        <v>19.6214276163462</v>
+        <v>19.75077612362355</v>
       </c>
       <c r="F5" t="n">
-        <v>12.68845403017361</v>
+        <v>12.05530910158582</v>
       </c>
       <c r="G5" t="n">
-        <v>75.73770491803279</v>
+        <v>75.5702479338843</v>
       </c>
       <c r="H5" t="n">
-        <v>69.16915170563318</v>
+        <v>65.2405575751409</v>
       </c>
       <c r="I5" t="n">
-        <v>71.51140103455545</v>
+        <v>72.74188253639693</v>
       </c>
       <c r="J5" t="n">
-        <v>84.82721200945358</v>
+        <v>85.19377282825337</v>
       </c>
       <c r="K5" t="n">
-        <v>80.7289510354764</v>
+        <v>81.95357448794583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B6" t="n">
-        <v>15.51101928374655</v>
+        <v>14.91758241758241</v>
       </c>
       <c r="C6" t="n">
-        <v>11.24542291224722</v>
+        <v>9.788838030393821</v>
       </c>
       <c r="D6" t="n">
-        <v>19.50898193145821</v>
+        <v>17.94398868515417</v>
       </c>
       <c r="E6" t="n">
-        <v>19.7507763871342</v>
+        <v>19.1864214796046</v>
       </c>
       <c r="F6" t="n">
-        <v>12.05530928293667</v>
+        <v>13.38538379458246</v>
       </c>
       <c r="G6" t="n">
-        <v>75.5702479338843</v>
+        <v>75.86538461538461</v>
       </c>
       <c r="H6" t="n">
-        <v>65.24055854210947</v>
+        <v>65.84711730639046</v>
       </c>
       <c r="I6" t="n">
-        <v>72.74188352785225</v>
+        <v>75.59713202818219</v>
       </c>
       <c r="J6" t="n">
-        <v>85.19377404358102</v>
+        <v>86.86080187856797</v>
       </c>
       <c r="K6" t="n">
-        <v>81.95357555473345</v>
+        <v>78.24949537486897</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B7" t="n">
-        <v>14.91758241758241</v>
+        <v>15.20345303867403</v>
       </c>
       <c r="C7" t="n">
-        <v>9.788838032358305</v>
+        <v>11.29032402281341</v>
       </c>
       <c r="D7" t="n">
-        <v>17.94398868812731</v>
+        <v>19.1477361393973</v>
       </c>
       <c r="E7" t="n">
-        <v>19.18642148246885</v>
+        <v>19.66707134977339</v>
       </c>
       <c r="F7" t="n">
-        <v>13.38538379655366</v>
+        <v>11.37647156298459</v>
       </c>
       <c r="G7" t="n">
-        <v>75.86538461538461</v>
+        <v>72.29558011049724</v>
       </c>
       <c r="H7" t="n">
-        <v>65.84711731713455</v>
+        <v>63.43648446411674</v>
       </c>
       <c r="I7" t="n">
-        <v>75.59713203919836</v>
+        <v>67.424144308002</v>
       </c>
       <c r="J7" t="n">
-        <v>86.86080189177805</v>
+        <v>83.36512002087298</v>
       </c>
       <c r="K7" t="n">
-        <v>78.24949538646449</v>
+        <v>78.18749451494423</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B8" t="n">
-        <v>15.20345303867403</v>
+        <v>14.64241573033708</v>
       </c>
       <c r="C8" t="n">
-        <v>11.29032402283548</v>
+        <v>10.02736619805289</v>
       </c>
       <c r="D8" t="n">
-        <v>19.14773613942997</v>
+        <v>18.10107402350986</v>
       </c>
       <c r="E8" t="n">
-        <v>19.66707134980521</v>
+        <v>19.47215940670456</v>
       </c>
       <c r="F8" t="n">
-        <v>11.37647156300602</v>
+        <v>12.1497442561194</v>
       </c>
       <c r="G8" t="n">
-        <v>72.29558011049724</v>
+        <v>73.52247191011236</v>
       </c>
       <c r="H8" t="n">
-        <v>63.43648446423747</v>
+        <v>67.32347785125403</v>
       </c>
       <c r="I8" t="n">
-        <v>67.42414430812306</v>
+        <v>70.81784773964837</v>
       </c>
       <c r="J8" t="n">
-        <v>83.36512002101976</v>
+        <v>84.52884292708382</v>
       </c>
       <c r="K8" t="n">
-        <v>78.18749451507027</v>
+        <v>75.69769015777113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B9" t="n">
-        <v>14.64241573033708</v>
+        <v>14.90716253443525</v>
       </c>
       <c r="C9" t="n">
-        <v>10.02736619805314</v>
+        <v>9.983637402200589</v>
       </c>
       <c r="D9" t="n">
-        <v>18.10107402351022</v>
+        <v>19.07248397779224</v>
       </c>
       <c r="E9" t="n">
-        <v>19.47215940670495</v>
+        <v>19.50187129789896</v>
       </c>
       <c r="F9" t="n">
-        <v>12.14974425611963</v>
+        <v>11.74891026365347</v>
       </c>
       <c r="G9" t="n">
-        <v>73.52247191011236</v>
+        <v>73.2534435261708</v>
       </c>
       <c r="H9" t="n">
-        <v>67.32347785125536</v>
+        <v>66.12581642056949</v>
       </c>
       <c r="I9" t="n">
-        <v>70.81784773964971</v>
+        <v>66.43615559258032</v>
       </c>
       <c r="J9" t="n">
-        <v>84.52884292708561</v>
+        <v>84.08183524920743</v>
       </c>
       <c r="K9" t="n">
-        <v>75.6976901577725</v>
+        <v>79.23584445823664</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B10" t="n">
-        <v>14.90716253443525</v>
+        <v>14.75671232876713</v>
       </c>
       <c r="C10" t="n">
-        <v>9.983637402200593</v>
+        <v>9.97537374891334</v>
       </c>
       <c r="D10" t="n">
-        <v>19.07248397779224</v>
+        <v>17.90793938437135</v>
       </c>
       <c r="E10" t="n">
-        <v>19.50187129789896</v>
+        <v>19.24567251410761</v>
       </c>
       <c r="F10" t="n">
-        <v>11.74891026365347</v>
+        <v>12.48368380721362</v>
       </c>
       <c r="G10" t="n">
-        <v>73.2534435261708</v>
+        <v>72.8986301369863</v>
       </c>
       <c r="H10" t="n">
-        <v>66.12581642056951</v>
+        <v>64.24584240467298</v>
       </c>
       <c r="I10" t="n">
-        <v>66.43615559258033</v>
+        <v>74.04874896255583</v>
       </c>
       <c r="J10" t="n">
-        <v>84.08183524920746</v>
+        <v>83.22915038314356</v>
       </c>
       <c r="K10" t="n">
-        <v>79.23584445823666</v>
+        <v>73.11125917889387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B11" t="n">
-        <v>14.75671232876713</v>
+        <v>15.15178082191781</v>
       </c>
       <c r="C11" t="n">
-        <v>9.97537374891334</v>
+        <v>11.12972637498793</v>
       </c>
       <c r="D11" t="n">
-        <v>17.90793938437135</v>
+        <v>19.06382350971836</v>
       </c>
       <c r="E11" t="n">
-        <v>19.24567251410761</v>
+        <v>20.03201817950118</v>
       </c>
       <c r="F11" t="n">
-        <v>12.48368380721362</v>
+        <v>10.98460525877406</v>
       </c>
       <c r="G11" t="n">
-        <v>72.8986301369863</v>
+        <v>69.95890410958904</v>
       </c>
       <c r="H11" t="n">
-        <v>64.24584240467298</v>
+        <v>54.02495380449636</v>
       </c>
       <c r="I11" t="n">
-        <v>74.04874896255583</v>
+        <v>66.44009614244567</v>
       </c>
       <c r="J11" t="n">
-        <v>83.22915038314356</v>
+        <v>85.23075163459939</v>
       </c>
       <c r="K11" t="n">
-        <v>73.11125917889387</v>
+        <v>76.95773107803144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B12" t="n">
-        <v>15.15178082191781</v>
+        <v>15.45767123287671</v>
       </c>
       <c r="C12" t="n">
-        <v>11.12972637498793</v>
+        <v>10.97755251527765</v>
       </c>
       <c r="D12" t="n">
-        <v>19.06382350971836</v>
+        <v>18.87817388472218</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03201817950118</v>
+        <v>19.72697845847284</v>
       </c>
       <c r="F12" t="n">
-        <v>10.98460525877406</v>
+        <v>12.85309353542146</v>
       </c>
       <c r="G12" t="n">
-        <v>69.95890410958904</v>
+        <v>70.75342465753425</v>
       </c>
       <c r="H12" t="n">
-        <v>54.02495380449636</v>
+        <v>57.90027726449441</v>
       </c>
       <c r="I12" t="n">
-        <v>66.44009614244567</v>
+        <v>66.64219885870818</v>
       </c>
       <c r="J12" t="n">
-        <v>85.23075163459939</v>
+        <v>84.43729077863695</v>
       </c>
       <c r="K12" t="n">
-        <v>76.95773107803144</v>
+        <v>76.78214925084816</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B13" t="n">
-        <v>15.45767123287671</v>
+        <v>15.94045454545454</v>
       </c>
       <c r="C13" t="n">
-        <v>10.97755251527765</v>
+        <v>10.89863947239197</v>
       </c>
       <c r="D13" t="n">
-        <v>18.87817388472218</v>
+        <v>18.50197970983024</v>
       </c>
       <c r="E13" t="n">
-        <v>19.72697845847284</v>
+        <v>20.64214107020079</v>
       </c>
       <c r="F13" t="n">
-        <v>12.85309353542146</v>
+        <v>13.40781195750727</v>
       </c>
       <c r="G13" t="n">
-        <v>70.75342465753425</v>
+        <v>73.06060606060606</v>
       </c>
       <c r="H13" t="n">
-        <v>57.90027726449441</v>
+        <v>63.37666974738327</v>
       </c>
       <c r="I13" t="n">
-        <v>66.64219885870818</v>
+        <v>71.30713554287453</v>
       </c>
       <c r="J13" t="n">
-        <v>84.43729077863695</v>
+        <v>83.54823142150691</v>
       </c>
       <c r="K13" t="n">
-        <v>76.78214925084816</v>
+        <v>79.0996922284629</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B14" t="n">
-        <v>15.94045454545454</v>
+        <v>15.13434065934065</v>
       </c>
       <c r="C14" t="n">
-        <v>10.89863947239197</v>
+        <v>10.62165154969324</v>
       </c>
       <c r="D14" t="n">
-        <v>18.50197970983024</v>
+        <v>18.45446644122034</v>
       </c>
       <c r="E14" t="n">
-        <v>20.64214107020079</v>
+        <v>20.33850153337175</v>
       </c>
       <c r="F14" t="n">
-        <v>13.40781195750727</v>
+        <v>11.78649795605986</v>
       </c>
       <c r="G14" t="n">
-        <v>73.06060606060606</v>
+        <v>72.67307692307692</v>
       </c>
       <c r="H14" t="n">
-        <v>63.37666974738327</v>
+        <v>63.74862966385982</v>
       </c>
       <c r="I14" t="n">
-        <v>71.30713554287453</v>
+        <v>68.65896817269861</v>
       </c>
       <c r="J14" t="n">
-        <v>83.54823142150691</v>
+        <v>83.33204599371203</v>
       </c>
       <c r="K14" t="n">
-        <v>79.0996922284629</v>
+        <v>77.90325752422243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B15" t="n">
-        <v>15.13434065934065</v>
+        <v>14.9541095890411</v>
       </c>
       <c r="C15" t="n">
-        <v>10.62165154969324</v>
+        <v>8.889129461663259</v>
       </c>
       <c r="D15" t="n">
-        <v>18.45446644122034</v>
+        <v>19.1473018290244</v>
       </c>
       <c r="E15" t="n">
-        <v>20.33850153337175</v>
+        <v>20.02541849492796</v>
       </c>
       <c r="F15" t="n">
-        <v>11.78649795605986</v>
+        <v>12.33354889082674</v>
       </c>
       <c r="G15" t="n">
-        <v>72.67307692307692</v>
+        <v>74.0958904109589</v>
       </c>
       <c r="H15" t="n">
-        <v>63.74862966385982</v>
+        <v>68.84165144070955</v>
       </c>
       <c r="I15" t="n">
-        <v>68.65896817269861</v>
+        <v>64.9193293205791</v>
       </c>
       <c r="J15" t="n">
-        <v>83.33204599371203</v>
+        <v>85.32969615210557</v>
       </c>
       <c r="K15" t="n">
-        <v>77.90325752422243</v>
+        <v>80.27068758178503</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B16" t="n">
-        <v>14.9541095890411</v>
+        <v>15.49234972677595</v>
       </c>
       <c r="C16" t="n">
-        <v>8.889129461663259</v>
+        <v>11.29108933474355</v>
       </c>
       <c r="D16" t="n">
-        <v>19.1473018290244</v>
+        <v>19.12579452559368</v>
       </c>
       <c r="E16" t="n">
-        <v>20.02541849492796</v>
+        <v>19.60190672277096</v>
       </c>
       <c r="F16" t="n">
-        <v>12.33354889082674</v>
+        <v>12.60090814011768</v>
       </c>
       <c r="G16" t="n">
-        <v>74.0958904109589</v>
+        <v>71.39890710382514</v>
       </c>
       <c r="H16" t="n">
-        <v>68.84165144070955</v>
+        <v>62.00924891693086</v>
       </c>
       <c r="I16" t="n">
-        <v>64.9193293205791</v>
+        <v>68.99911350901735</v>
       </c>
       <c r="J16" t="n">
-        <v>85.32969615210557</v>
+        <v>83.41662713208811</v>
       </c>
       <c r="K16" t="n">
-        <v>80.27068758178503</v>
+        <v>74.29642051719331</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B17" t="n">
-        <v>15.49234972677595</v>
+        <v>15.16835616438356</v>
       </c>
       <c r="C17" t="n">
-        <v>11.29108933474355</v>
+        <v>10.53990099260826</v>
       </c>
       <c r="D17" t="n">
-        <v>19.12579452559368</v>
+        <v>18.57281092885268</v>
       </c>
       <c r="E17" t="n">
-        <v>19.60190672277096</v>
+        <v>19.77719463829099</v>
       </c>
       <c r="F17" t="n">
-        <v>12.60090814011768</v>
+        <v>12.40055334934911</v>
       </c>
       <c r="G17" t="n">
-        <v>71.39890710382514</v>
+        <v>73.92328767123287</v>
       </c>
       <c r="H17" t="n">
-        <v>62.00924891693086</v>
+        <v>62.47788054352146</v>
       </c>
       <c r="I17" t="n">
-        <v>68.99911350901735</v>
+        <v>75.2527375110881</v>
       </c>
       <c r="J17" t="n">
-        <v>83.41662713208811</v>
+        <v>84.70018072969661</v>
       </c>
       <c r="K17" t="n">
-        <v>74.29642051719331</v>
+        <v>76.16626544040427</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B18" t="n">
-        <v>15.16835616438356</v>
+        <v>15.24054794520548</v>
       </c>
       <c r="C18" t="n">
-        <v>10.53990099260826</v>
+        <v>10.57155445547343</v>
       </c>
       <c r="D18" t="n">
-        <v>18.57281092885268</v>
+        <v>19.20354737284453</v>
       </c>
       <c r="E18" t="n">
-        <v>19.77719463829099</v>
+        <v>19.27203472432924</v>
       </c>
       <c r="F18" t="n">
-        <v>12.40055334934911</v>
+        <v>12.52283210162336</v>
       </c>
       <c r="G18" t="n">
-        <v>73.92328767123287</v>
+        <v>73.31780821917808</v>
       </c>
       <c r="H18" t="n">
-        <v>62.47788054352146</v>
+        <v>61.30530978381691</v>
       </c>
       <c r="I18" t="n">
-        <v>75.2527375110881</v>
+        <v>71.66211799462734</v>
       </c>
       <c r="J18" t="n">
-        <v>84.70018072969661</v>
+        <v>85.14891500793148</v>
       </c>
       <c r="K18" t="n">
-        <v>76.16626544040427</v>
+        <v>78.12137245043918</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B19" t="n">
-        <v>15.24054794520548</v>
+        <v>15.84155124653739</v>
       </c>
       <c r="C19" t="n">
-        <v>10.57155445547343</v>
+        <v>11.39857282728303</v>
       </c>
       <c r="D19" t="n">
-        <v>19.20354737284453</v>
+        <v>19.9822246824465</v>
       </c>
       <c r="E19" t="n">
-        <v>19.27203472432924</v>
+        <v>19.90567429048184</v>
       </c>
       <c r="F19" t="n">
-        <v>12.52283210162336</v>
+        <v>12.87742208806112</v>
       </c>
       <c r="G19" t="n">
-        <v>73.31780821917808</v>
+        <v>71.3213296398892</v>
       </c>
       <c r="H19" t="n">
-        <v>61.30530978381691</v>
+        <v>62.61450344204241</v>
       </c>
       <c r="I19" t="n">
-        <v>71.66211799462734</v>
+        <v>63.36393239074284</v>
       </c>
       <c r="J19" t="n">
-        <v>85.14891500793148</v>
+        <v>82.9472708153036</v>
       </c>
       <c r="K19" t="n">
-        <v>78.12137245043918</v>
+        <v>78.95784100489608</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B20" t="n">
-        <v>15.84155124653739</v>
+        <v>15.79972375690607</v>
       </c>
       <c r="C20" t="n">
-        <v>11.39857282728303</v>
+        <v>11.95273156953058</v>
       </c>
       <c r="D20" t="n">
-        <v>19.9822246824465</v>
+        <v>19.64650796354337</v>
       </c>
       <c r="E20" t="n">
-        <v>19.90567429048184</v>
+        <v>19.76710993511911</v>
       </c>
       <c r="F20" t="n">
-        <v>12.87742208806112</v>
+        <v>12.70247197921806</v>
       </c>
       <c r="G20" t="n">
-        <v>71.3213296398892</v>
+        <v>73.2292817679558</v>
       </c>
       <c r="H20" t="n">
-        <v>62.61450344204241</v>
+        <v>61.35840113672574</v>
       </c>
       <c r="I20" t="n">
-        <v>63.36393239074284</v>
+        <v>68.89410914715101</v>
       </c>
       <c r="J20" t="n">
-        <v>82.9472708153036</v>
+        <v>85.23803716835572</v>
       </c>
       <c r="K20" t="n">
-        <v>78.95784100489608</v>
+        <v>80.9017156630967</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B21" t="n">
-        <v>15.79972375690607</v>
+        <v>15.50069060773481</v>
       </c>
       <c r="C21" t="n">
-        <v>11.95273156953058</v>
+        <v>10.91725257299479</v>
       </c>
       <c r="D21" t="n">
-        <v>19.64650796354337</v>
+        <v>19.20435723036861</v>
       </c>
       <c r="E21" t="n">
-        <v>19.76710993511911</v>
+        <v>20.09579241686944</v>
       </c>
       <c r="F21" t="n">
-        <v>12.70247197921806</v>
+        <v>12.40502746643575</v>
       </c>
       <c r="G21" t="n">
-        <v>73.2292817679558</v>
+        <v>72.5</v>
       </c>
       <c r="H21" t="n">
-        <v>61.35840113672574</v>
+        <v>65.11509334596361</v>
       </c>
       <c r="I21" t="n">
-        <v>68.89410914715101</v>
+        <v>67.04279240821046</v>
       </c>
       <c r="J21" t="n">
-        <v>85.23803716835572</v>
+        <v>82.71690150734457</v>
       </c>
       <c r="K21" t="n">
-        <v>80.9017156630967</v>
+        <v>78.36557461847885</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B22" t="n">
-        <v>15.50069060773481</v>
+        <v>15.33972602739726</v>
       </c>
       <c r="C22" t="n">
-        <v>10.91725257299479</v>
+        <v>10.64685836192217</v>
       </c>
       <c r="D22" t="n">
-        <v>19.20435723036861</v>
+        <v>17.76982810143263</v>
       </c>
       <c r="E22" t="n">
-        <v>20.09579241686944</v>
+        <v>20.20158470018336</v>
       </c>
       <c r="F22" t="n">
-        <v>12.40502746643575</v>
+        <v>13.34570682028734</v>
       </c>
       <c r="G22" t="n">
-        <v>72.5</v>
+        <v>74.82465753424657</v>
       </c>
       <c r="H22" t="n">
-        <v>65.11509334596361</v>
+        <v>67.66794548162181</v>
       </c>
       <c r="I22" t="n">
-        <v>67.04279240821046</v>
+        <v>73.6268438726177</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71690150734457</v>
+        <v>82.79040110334071</v>
       </c>
       <c r="K22" t="n">
-        <v>78.36557461847885</v>
+        <v>78.23223450672259</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B23" t="n">
-        <v>15.33972602739726</v>
+        <v>15.80835616438355</v>
       </c>
       <c r="C23" t="n">
-        <v>10.64685836192217</v>
+        <v>11.82218731513247</v>
       </c>
       <c r="D23" t="n">
-        <v>17.76982810143263</v>
+        <v>19.20681129781794</v>
       </c>
       <c r="E23" t="n">
-        <v>20.20158470018336</v>
+        <v>19.96577809456721</v>
       </c>
       <c r="F23" t="n">
-        <v>13.34570682028734</v>
+        <v>12.86245333500312</v>
       </c>
       <c r="G23" t="n">
-        <v>74.82465753424657</v>
+        <v>73.96164383561644</v>
       </c>
       <c r="H23" t="n">
-        <v>67.66794548162181</v>
+        <v>63.09631050535135</v>
       </c>
       <c r="I23" t="n">
-        <v>73.6268438726177</v>
+        <v>68.94095432827052</v>
       </c>
       <c r="J23" t="n">
-        <v>82.79040110334071</v>
+        <v>86.01946088155805</v>
       </c>
       <c r="K23" t="n">
-        <v>78.23223450672259</v>
+        <v>80.78513298376872</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B24" t="n">
-        <v>15.80835616438355</v>
+        <v>15.10808219178082</v>
       </c>
       <c r="C24" t="n">
-        <v>11.82218731513247</v>
+        <v>9.865628432034422</v>
       </c>
       <c r="D24" t="n">
-        <v>19.20681129781794</v>
+        <v>19.46106386041558</v>
       </c>
       <c r="E24" t="n">
-        <v>19.96577809456721</v>
+        <v>20.25778019668008</v>
       </c>
       <c r="F24" t="n">
-        <v>12.86245333500312</v>
+        <v>11.49299399269234</v>
       </c>
       <c r="G24" t="n">
-        <v>73.96164383561644</v>
+        <v>71.63561643835617</v>
       </c>
       <c r="H24" t="n">
-        <v>63.09631050535135</v>
+        <v>68.74831110445442</v>
       </c>
       <c r="I24" t="n">
-        <v>68.94095432827052</v>
+        <v>64.99935114646452</v>
       </c>
       <c r="J24" t="n">
-        <v>86.01946088155805</v>
+        <v>80.13064631392999</v>
       </c>
       <c r="K24" t="n">
-        <v>80.78513298376872</v>
+        <v>75.85478168114031</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B25" t="n">
-        <v>15.10808219178082</v>
+        <v>15.75056818181818</v>
       </c>
       <c r="C25" t="n">
-        <v>9.865628432034422</v>
+        <v>11.22233668672767</v>
       </c>
       <c r="D25" t="n">
-        <v>19.46106386041558</v>
+        <v>19.58152399837693</v>
       </c>
       <c r="E25" t="n">
-        <v>20.25778019668008</v>
+        <v>20.65236113859864</v>
       </c>
       <c r="F25" t="n">
-        <v>11.49299399269234</v>
+        <v>12.40325548880769</v>
       </c>
       <c r="G25" t="n">
-        <v>71.63561643835617</v>
+        <v>72.68181818181819</v>
       </c>
       <c r="H25" t="n">
-        <v>68.74831110445442</v>
+        <v>65.40623080800516</v>
       </c>
       <c r="I25" t="n">
-        <v>64.99935114646452</v>
+        <v>66.66278315286587</v>
       </c>
       <c r="J25" t="n">
-        <v>80.13064631392999</v>
+        <v>83.03557552629466</v>
       </c>
       <c r="K25" t="n">
-        <v>75.85478168114031</v>
+        <v>78.64283090756823</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B26" t="n">
-        <v>15.75056818181818</v>
+        <v>16.33487394957983</v>
       </c>
       <c r="C26" t="n">
-        <v>11.22233668672767</v>
+        <v>12.23845322119918</v>
       </c>
       <c r="D26" t="n">
-        <v>19.58152399837693</v>
+        <v>20.12282611234132</v>
       </c>
       <c r="E26" t="n">
-        <v>20.65236113859864</v>
+        <v>20.5241650705586</v>
       </c>
       <c r="F26" t="n">
-        <v>12.40325548880769</v>
+        <v>13.36579625531313</v>
       </c>
       <c r="G26" t="n">
-        <v>72.68181818181819</v>
+        <v>70.71428571428571</v>
       </c>
       <c r="H26" t="n">
-        <v>65.40623080800516</v>
+        <v>60.83602506525848</v>
       </c>
       <c r="I26" t="n">
-        <v>66.66278315286587</v>
+        <v>68.13104250733556</v>
       </c>
       <c r="J26" t="n">
-        <v>83.03557552629466</v>
+        <v>80.10385718995741</v>
       </c>
       <c r="K26" t="n">
-        <v>78.64283090756823</v>
+        <v>77.0830742489953</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B27" t="n">
-        <v>16.33487394957983</v>
+        <v>16.25726027397261</v>
       </c>
       <c r="C27" t="n">
-        <v>12.23845322119918</v>
+        <v>11.75709392467999</v>
       </c>
       <c r="D27" t="n">
-        <v>20.12282611234132</v>
+        <v>20.23376731991584</v>
       </c>
       <c r="E27" t="n">
-        <v>20.5241650705586</v>
+        <v>20.21928440294085</v>
       </c>
       <c r="F27" t="n">
-        <v>13.36579625531313</v>
+        <v>13.48441082886209</v>
       </c>
       <c r="G27" t="n">
-        <v>70.71428571428571</v>
+        <v>71.04383561643836</v>
       </c>
       <c r="H27" t="n">
-        <v>60.83602506525848</v>
+        <v>63.2537336118362</v>
       </c>
       <c r="I27" t="n">
-        <v>68.13104250733556</v>
+        <v>63.50693453304764</v>
       </c>
       <c r="J27" t="n">
-        <v>80.10385718995741</v>
+        <v>82.42504192597779</v>
       </c>
       <c r="K27" t="n">
-        <v>77.0830742489953</v>
+        <v>77.84872906792386</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B28" t="n">
-        <v>16.25726027397261</v>
+        <v>16.23884297520662</v>
       </c>
       <c r="C28" t="n">
-        <v>11.75709392467999</v>
+        <v>12.11546257060087</v>
       </c>
       <c r="D28" t="n">
-        <v>20.23376731991584</v>
+        <v>19.52622210471815</v>
       </c>
       <c r="E28" t="n">
-        <v>20.21928440294085</v>
+        <v>20.34581631212023</v>
       </c>
       <c r="F28" t="n">
-        <v>13.48441082886209</v>
+        <v>13.78896098727024</v>
       </c>
       <c r="G28" t="n">
-        <v>71.04383561643836</v>
+        <v>70.66115702479338</v>
       </c>
       <c r="H28" t="n">
-        <v>63.2537336118362</v>
+        <v>62.17861245727293</v>
       </c>
       <c r="I28" t="n">
-        <v>63.50693453304764</v>
+        <v>67.3652464554275</v>
       </c>
       <c r="J28" t="n">
-        <v>82.42504192597779</v>
+        <v>77.99368177940634</v>
       </c>
       <c r="K28" t="n">
-        <v>77.84872906792386</v>
+        <v>78.10705140291222</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B29" t="n">
-        <v>16.23884297520662</v>
+        <v>15.80595567867035</v>
       </c>
       <c r="C29" t="n">
-        <v>12.11546257060087</v>
+        <v>11.65354452326518</v>
       </c>
       <c r="D29" t="n">
-        <v>19.52622210471815</v>
+        <v>18.95468375939251</v>
       </c>
       <c r="E29" t="n">
-        <v>20.34581631212023</v>
+        <v>19.31939795902356</v>
       </c>
       <c r="F29" t="n">
-        <v>13.78896098727024</v>
+        <v>13.96636220865132</v>
       </c>
       <c r="G29" t="n">
-        <v>70.66115702479338</v>
+        <v>69.42105263157895</v>
       </c>
       <c r="H29" t="n">
-        <v>62.17861245727293</v>
+        <v>63.65369227480082</v>
       </c>
       <c r="I29" t="n">
-        <v>67.3652464554275</v>
+        <v>64.31170600500469</v>
       </c>
       <c r="J29" t="n">
-        <v>77.99368177940634</v>
+        <v>79.19992979754896</v>
       </c>
       <c r="K29" t="n">
-        <v>78.10705140291222</v>
+        <v>73.63853902640564</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B30" t="n">
-        <v>15.80595567867035</v>
+        <v>17.11871508379888</v>
       </c>
       <c r="C30" t="n">
-        <v>11.65354452326518</v>
+        <v>13.0718798221065</v>
       </c>
       <c r="D30" t="n">
-        <v>18.95468375939251</v>
+        <v>20.32476647999301</v>
       </c>
       <c r="E30" t="n">
-        <v>19.31939795902356</v>
+        <v>20.98608041259808</v>
       </c>
       <c r="F30" t="n">
-        <v>13.96636220865132</v>
+        <v>14.74093871965926</v>
       </c>
       <c r="G30" t="n">
-        <v>69.42105263157895</v>
+        <v>67.38268156424581</v>
       </c>
       <c r="H30" t="n">
-        <v>63.65369227480082</v>
+        <v>55.98452519856093</v>
       </c>
       <c r="I30" t="n">
-        <v>64.31170600500469</v>
+        <v>66.96910006902304</v>
       </c>
       <c r="J30" t="n">
-        <v>79.19992979754896</v>
+        <v>77.69782532388641</v>
       </c>
       <c r="K30" t="n">
-        <v>73.63853902640564</v>
+        <v>71.28954933724354</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B31" t="n">
-        <v>17.11871508379888</v>
+        <v>17.42465373961218</v>
       </c>
       <c r="C31" t="n">
-        <v>13.0718798221065</v>
+        <v>14.65138499797848</v>
       </c>
       <c r="D31" t="n">
-        <v>20.32476647999301</v>
+        <v>20.65631611516476</v>
       </c>
       <c r="E31" t="n">
-        <v>20.98608041259808</v>
+        <v>20.96506609144129</v>
       </c>
       <c r="F31" t="n">
-        <v>14.74093871965926</v>
+        <v>14.0176770968851</v>
       </c>
       <c r="G31" t="n">
-        <v>67.38268156424581</v>
+        <v>69.39058171745152</v>
       </c>
       <c r="H31" t="n">
-        <v>55.98452519856093</v>
+        <v>57.51118778634728</v>
       </c>
       <c r="I31" t="n">
-        <v>66.96910006902304</v>
+        <v>66.70295714361565</v>
       </c>
       <c r="J31" t="n">
-        <v>77.69782532388641</v>
+        <v>79.96410679699876</v>
       </c>
       <c r="K31" t="n">
-        <v>71.28954933724354</v>
+        <v>75.93655054819159</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B32" t="n">
-        <v>17.42465373961218</v>
+        <v>16.60400552486188</v>
       </c>
       <c r="C32" t="n">
-        <v>14.65138499797848</v>
+        <v>12.37274301134067</v>
       </c>
       <c r="D32" t="n">
-        <v>20.65631611516476</v>
+        <v>19.49729240127961</v>
       </c>
       <c r="E32" t="n">
-        <v>20.96506609144129</v>
+        <v>21.02135941403741</v>
       </c>
       <c r="F32" t="n">
-        <v>14.0176770968851</v>
+        <v>14.16758344670528</v>
       </c>
       <c r="G32" t="n">
-        <v>69.39058171745152</v>
+        <v>70.31491712707182</v>
       </c>
       <c r="H32" t="n">
-        <v>57.51118778634728</v>
+        <v>62.01717258848122</v>
       </c>
       <c r="I32" t="n">
-        <v>66.70295714361565</v>
+        <v>70.65225507937352</v>
       </c>
       <c r="J32" t="n">
-        <v>79.96410679699876</v>
+        <v>77.13004463909782</v>
       </c>
       <c r="K32" t="n">
-        <v>75.93655054819159</v>
+        <v>74.15148424508904</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B33" t="n">
-        <v>16.60400552486188</v>
+        <v>16.81776859504132</v>
       </c>
       <c r="C33" t="n">
-        <v>12.37274301134067</v>
+        <v>13.20309935240159</v>
       </c>
       <c r="D33" t="n">
-        <v>19.49729240127961</v>
+        <v>19.63678343298109</v>
       </c>
       <c r="E33" t="n">
-        <v>21.02135941403741</v>
+        <v>21.20512347189171</v>
       </c>
       <c r="F33" t="n">
-        <v>14.16758344670528</v>
+        <v>13.82845199398592</v>
       </c>
       <c r="G33" t="n">
-        <v>70.31491712707182</v>
+        <v>68.97520661157024</v>
       </c>
       <c r="H33" t="n">
-        <v>62.01717258848122</v>
+        <v>60.04564968850547</v>
       </c>
       <c r="I33" t="n">
-        <v>70.65225507937352</v>
+        <v>65.52365115471839</v>
       </c>
       <c r="J33" t="n">
-        <v>77.13004463909782</v>
+        <v>77.52315265912063</v>
       </c>
       <c r="K33" t="n">
-        <v>74.15148424508904</v>
+        <v>75.46903787222922</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B34" t="n">
-        <v>16.81776859504132</v>
+        <v>16.81818181818181</v>
       </c>
       <c r="C34" t="n">
-        <v>13.20309935240159</v>
+        <v>13.39264885627729</v>
       </c>
       <c r="D34" t="n">
-        <v>19.63678343298109</v>
+        <v>20.38337124651628</v>
       </c>
       <c r="E34" t="n">
-        <v>21.20512347189171</v>
+        <v>19.96581655947709</v>
       </c>
       <c r="F34" t="n">
-        <v>13.82845199398592</v>
+        <v>14.15846143471724</v>
       </c>
       <c r="G34" t="n">
-        <v>68.97520661157024</v>
+        <v>67.90082644628099</v>
       </c>
       <c r="H34" t="n">
-        <v>60.04564968850547</v>
+        <v>61.27324601918756</v>
       </c>
       <c r="I34" t="n">
-        <v>65.52365115471839</v>
+        <v>64.07168847422767</v>
       </c>
       <c r="J34" t="n">
-        <v>77.52315265912063</v>
+        <v>76.50568644194696</v>
       </c>
       <c r="K34" t="n">
-        <v>75.46903787222922</v>
+        <v>72.45075041165467</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B35" t="n">
-        <v>16.81818181818181</v>
+        <v>17.1341095890411</v>
       </c>
       <c r="C35" t="n">
-        <v>13.39264885627729</v>
+        <v>12.66825165395864</v>
       </c>
       <c r="D35" t="n">
-        <v>20.38337124651628</v>
+        <v>20.68333374996172</v>
       </c>
       <c r="E35" t="n">
-        <v>19.96581655947709</v>
+        <v>21.39256322347257</v>
       </c>
       <c r="F35" t="n">
-        <v>14.15846143471724</v>
+        <v>14.47183110255128</v>
       </c>
       <c r="G35" t="n">
-        <v>67.90082644628099</v>
+        <v>67.36438356164383</v>
       </c>
       <c r="H35" t="n">
-        <v>61.27324601918756</v>
+        <v>61.06970273354653</v>
       </c>
       <c r="I35" t="n">
-        <v>64.07168847422767</v>
+        <v>61.77001855466185</v>
       </c>
       <c r="J35" t="n">
-        <v>76.50568644194696</v>
+        <v>75.71201833089073</v>
       </c>
       <c r="K35" t="n">
-        <v>72.45075041165467</v>
+        <v>73.6896820696919</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B36" t="n">
-        <v>17.1341095890411</v>
+        <v>16.48620218579235</v>
       </c>
       <c r="C36" t="n">
-        <v>12.66825165395864</v>
+        <v>13.12327749070284</v>
       </c>
       <c r="D36" t="n">
-        <v>20.68333374996172</v>
+        <v>19.19871795329629</v>
       </c>
       <c r="E36" t="n">
-        <v>21.39256322347257</v>
+        <v>21.09122351329862</v>
       </c>
       <c r="F36" t="n">
-        <v>14.47183110255128</v>
+        <v>13.27686772937556</v>
       </c>
       <c r="G36" t="n">
-        <v>67.36438356164383</v>
+        <v>66.05737704918033</v>
       </c>
       <c r="H36" t="n">
-        <v>61.06970273354653</v>
+        <v>56.53922750256644</v>
       </c>
       <c r="I36" t="n">
-        <v>61.77001855466185</v>
+        <v>67.54692328082047</v>
       </c>
       <c r="J36" t="n">
-        <v>75.71201833089073</v>
+        <v>74.17078280794446</v>
       </c>
       <c r="K36" t="n">
-        <v>73.6896820696919</v>
+        <v>68.84445306597492</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B37" t="n">
-        <v>16.48620218579235</v>
+        <v>17.65141643059491</v>
       </c>
       <c r="C37" t="n">
-        <v>13.12327749070284</v>
+        <v>13.42236369175236</v>
       </c>
       <c r="D37" t="n">
-        <v>19.19871795329629</v>
+        <v>21.36331908836996</v>
       </c>
       <c r="E37" t="n">
-        <v>21.09122351329862</v>
+        <v>21.30153503818802</v>
       </c>
       <c r="F37" t="n">
-        <v>13.27686772937556</v>
+        <v>14.83384550269853</v>
       </c>
       <c r="G37" t="n">
-        <v>66.05737704918033</v>
+        <v>62.19830028328612</v>
       </c>
       <c r="H37" t="n">
-        <v>56.53922750256644</v>
+        <v>52.33185148258798</v>
       </c>
       <c r="I37" t="n">
-        <v>67.54692328082047</v>
+        <v>54.38385470312024</v>
       </c>
       <c r="J37" t="n">
-        <v>74.17078280794446</v>
+        <v>73.21924763921679</v>
       </c>
       <c r="K37" t="n">
-        <v>68.84445306597492</v>
+        <v>71.66875827136441</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B38" t="n">
-        <v>17.65141643059491</v>
+        <v>17.12039106145252</v>
       </c>
       <c r="C38" t="n">
-        <v>13.42236369175236</v>
+        <v>14.30580404101947</v>
       </c>
       <c r="D38" t="n">
-        <v>21.36331908836996</v>
+        <v>19.6793252272425</v>
       </c>
       <c r="E38" t="n">
-        <v>21.30153503818802</v>
+        <v>21.13262538084987</v>
       </c>
       <c r="F38" t="n">
-        <v>14.83384550269853</v>
+        <v>14.29602005981194</v>
       </c>
       <c r="G38" t="n">
-        <v>62.19830028328612</v>
+        <v>70.10893854748603</v>
       </c>
       <c r="H38" t="n">
-        <v>52.33185148258798</v>
+        <v>57.72590946091764</v>
       </c>
       <c r="I38" t="n">
-        <v>54.38385470312024</v>
+        <v>70.51647446075143</v>
       </c>
       <c r="J38" t="n">
-        <v>73.21924763921679</v>
+        <v>79.38281790912193</v>
       </c>
       <c r="K38" t="n">
-        <v>71.66875827136441</v>
+        <v>75.31161693773221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B39" t="n">
-        <v>17.12039106145252</v>
+        <v>16.43567415730337</v>
       </c>
       <c r="C39" t="n">
-        <v>14.30580404101947</v>
+        <v>12.65948004754141</v>
       </c>
       <c r="D39" t="n">
-        <v>19.6793252272425</v>
+        <v>19.17619914054302</v>
       </c>
       <c r="E39" t="n">
-        <v>21.13262538084987</v>
+        <v>20.37046331935707</v>
       </c>
       <c r="F39" t="n">
-        <v>14.29602005981194</v>
+        <v>14.15267413108491</v>
       </c>
       <c r="G39" t="n">
-        <v>70.10893854748603</v>
+        <v>72.47191011235955</v>
       </c>
       <c r="H39" t="n">
-        <v>57.72590946091764</v>
+        <v>59.22030481718727</v>
       </c>
       <c r="I39" t="n">
-        <v>70.51647446075143</v>
+        <v>72.27030430414658</v>
       </c>
       <c r="J39" t="n">
-        <v>79.38281790912193</v>
+        <v>84.72155236857741</v>
       </c>
       <c r="K39" t="n">
-        <v>75.31161693773221</v>
+        <v>75.73164801019274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B40" t="n">
-        <v>16.43567415730337</v>
+        <v>16.59024024024026</v>
       </c>
       <c r="C40" t="n">
-        <v>12.65948004754141</v>
+        <v>12.12477507315278</v>
       </c>
       <c r="D40" t="n">
-        <v>19.17619914054302</v>
+        <v>19.47821161791329</v>
       </c>
       <c r="E40" t="n">
-        <v>20.37046331935707</v>
+        <v>20.79341435590178</v>
       </c>
       <c r="F40" t="n">
-        <v>14.15267413108491</v>
+        <v>13.88169637923427</v>
       </c>
       <c r="G40" t="n">
-        <v>72.47191011235955</v>
+        <v>70.77177177177177</v>
       </c>
       <c r="H40" t="n">
-        <v>59.22030481718727</v>
+        <v>62.27855514227807</v>
       </c>
       <c r="I40" t="n">
-        <v>72.27030430414658</v>
+        <v>67.06128260818775</v>
       </c>
       <c r="J40" t="n">
-        <v>84.72155236857741</v>
+        <v>79.14456309509747</v>
       </c>
       <c r="K40" t="n">
-        <v>75.73164801019274</v>
+        <v>75.88590720011325</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B41" t="n">
-        <v>16.59024024024026</v>
+        <v>17.47225274725275</v>
       </c>
       <c r="C41" t="n">
-        <v>12.12477507315278</v>
+        <v>13.45805305636836</v>
       </c>
       <c r="D41" t="n">
-        <v>19.47821161791329</v>
+        <v>20.35475790686571</v>
       </c>
       <c r="E41" t="n">
-        <v>20.79341435590178</v>
+        <v>21.98362406908589</v>
       </c>
       <c r="F41" t="n">
-        <v>13.88169637923427</v>
+        <v>14.78838800412211</v>
       </c>
       <c r="G41" t="n">
-        <v>70.77177177177177</v>
+        <v>65.68406593406593</v>
       </c>
       <c r="H41" t="n">
-        <v>62.27855514227807</v>
+        <v>56.51420616824754</v>
       </c>
       <c r="I41" t="n">
-        <v>67.06128260818775</v>
+        <v>66.37845869564653</v>
       </c>
       <c r="J41" t="n">
-        <v>79.14456309509747</v>
+        <v>75.79504959885976</v>
       </c>
       <c r="K41" t="n">
-        <v>75.88590720011325</v>
+        <v>66.95528160000123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B42" t="n">
-        <v>17.47225274725275</v>
+        <v>17.36303116147309</v>
       </c>
       <c r="C42" t="n">
-        <v>13.45805305636836</v>
+        <v>14.21064503395965</v>
       </c>
       <c r="D42" t="n">
-        <v>20.35475790686571</v>
+        <v>21.28237509642518</v>
       </c>
       <c r="E42" t="n">
-        <v>21.98362406908589</v>
+        <v>21.79652334141852</v>
       </c>
       <c r="F42" t="n">
-        <v>14.78838800412211</v>
+        <v>13.24598208893469</v>
       </c>
       <c r="G42" t="n">
-        <v>65.68406593406593</v>
+        <v>65.86968838526913</v>
       </c>
       <c r="H42" t="n">
-        <v>56.51420616824754</v>
+        <v>49.90571340186941</v>
       </c>
       <c r="I42" t="n">
-        <v>66.37845869564653</v>
+        <v>60.38266413043471</v>
       </c>
       <c r="J42" t="n">
-        <v>75.79504959885976</v>
+        <v>76.58016538020725</v>
       </c>
       <c r="K42" t="n">
-        <v>66.95528160000123</v>
+        <v>78.95505868444447</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B43" t="n">
-        <v>17.36303116147309</v>
+        <v>16.28698060941828</v>
       </c>
       <c r="C43" t="n">
-        <v>14.21064503395965</v>
+        <v>11.78551286555011</v>
       </c>
       <c r="D43" t="n">
-        <v>21.28237509642518</v>
+        <v>20.06738873732336</v>
       </c>
       <c r="E43" t="n">
-        <v>21.79652334141852</v>
+        <v>21.11051692601576</v>
       </c>
       <c r="F43" t="n">
-        <v>13.24598208893469</v>
+        <v>12.91369211086741</v>
       </c>
       <c r="G43" t="n">
-        <v>65.86968838526913</v>
+        <v>71.08587257617728</v>
       </c>
       <c r="H43" t="n">
-        <v>49.90571340186941</v>
+        <v>63.63939003822325</v>
       </c>
       <c r="I43" t="n">
-        <v>60.38266413043471</v>
+        <v>67.41079850692786</v>
       </c>
       <c r="J43" t="n">
-        <v>76.58016538020725</v>
+        <v>77.12866850422452</v>
       </c>
       <c r="K43" t="n">
-        <v>78.95505868444447</v>
+        <v>78.98851712840049</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B44" t="n">
-        <v>16.28698060941828</v>
+        <v>17.05402777777776</v>
       </c>
       <c r="C44" t="n">
-        <v>11.78551286555011</v>
+        <v>13.07150569850611</v>
       </c>
       <c r="D44" t="n">
-        <v>20.06738873732336</v>
+        <v>20.53566731089911</v>
       </c>
       <c r="E44" t="n">
-        <v>21.11051692601576</v>
+        <v>21.03109257528279</v>
       </c>
       <c r="F44" t="n">
-        <v>12.91369211086741</v>
+        <v>14.43438795772682</v>
       </c>
       <c r="G44" t="n">
-        <v>71.08587257617728</v>
+        <v>66.55555555555556</v>
       </c>
       <c r="H44" t="n">
-        <v>63.63939003822325</v>
+        <v>53.84043766709136</v>
       </c>
       <c r="I44" t="n">
-        <v>67.41079850692786</v>
+        <v>64.05128835473171</v>
       </c>
       <c r="J44" t="n">
-        <v>77.12866850422452</v>
+        <v>80.71878987504593</v>
       </c>
       <c r="K44" t="n">
-        <v>78.98851712840049</v>
+        <v>70.29335344704783</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B45" t="n">
-        <v>17.05402777777776</v>
+        <v>16.77950138504154</v>
       </c>
       <c r="C45" t="n">
-        <v>13.07150569850611</v>
+        <v>13.92690561887229</v>
       </c>
       <c r="D45" t="n">
-        <v>20.53566731089911</v>
+        <v>20.36233712853295</v>
       </c>
       <c r="E45" t="n">
-        <v>21.03109257528279</v>
+        <v>20.89869332500311</v>
       </c>
       <c r="F45" t="n">
-        <v>14.43438795772682</v>
+        <v>12.81939552127964</v>
       </c>
       <c r="G45" t="n">
-        <v>66.55555555555556</v>
+        <v>67.78116343490305</v>
       </c>
       <c r="H45" t="n">
-        <v>53.84043766709136</v>
+        <v>54.5982270851899</v>
       </c>
       <c r="I45" t="n">
-        <v>64.05128835473171</v>
+        <v>62.21649191312195</v>
       </c>
       <c r="J45" t="n">
-        <v>80.71878987504593</v>
+        <v>79.64526142719831</v>
       </c>
       <c r="K45" t="n">
-        <v>70.29335344704783</v>
+        <v>77.18797123312008</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B46" t="n">
-        <v>16.77950138504154</v>
+        <v>17.17847222222223</v>
       </c>
       <c r="C46" t="n">
-        <v>13.92690561887229</v>
+        <v>12.93807672909858</v>
       </c>
       <c r="D46" t="n">
-        <v>20.36233712853295</v>
+        <v>21.0880476607531</v>
       </c>
       <c r="E46" t="n">
-        <v>20.89869332500311</v>
+        <v>21.45998548138892</v>
       </c>
       <c r="F46" t="n">
-        <v>12.81939552127964</v>
+        <v>13.90358871372224</v>
       </c>
       <c r="G46" t="n">
-        <v>67.78116343490305</v>
+        <v>65.49444444444444</v>
       </c>
       <c r="H46" t="n">
-        <v>54.5982270851899</v>
+        <v>55.12886918983544</v>
       </c>
       <c r="I46" t="n">
-        <v>62.21649191312195</v>
+        <v>58.32106035069365</v>
       </c>
       <c r="J46" t="n">
-        <v>79.64526142719831</v>
+        <v>77.71828068252442</v>
       </c>
       <c r="K46" t="n">
-        <v>77.18797123312008</v>
+        <v>74.02458394643955</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B47" t="n">
-        <v>17.17847222222223</v>
+        <v>16.93505586592179</v>
       </c>
       <c r="C47" t="n">
-        <v>12.93807672909858</v>
+        <v>13.16110198572021</v>
       </c>
       <c r="D47" t="n">
-        <v>21.0880476607531</v>
+        <v>20.87514338088739</v>
       </c>
       <c r="E47" t="n">
-        <v>21.45998548138892</v>
+        <v>20.68382006158864</v>
       </c>
       <c r="F47" t="n">
-        <v>13.90358871372224</v>
+        <v>13.71127627768227</v>
       </c>
       <c r="G47" t="n">
-        <v>65.49444444444444</v>
+        <v>69.73743016759776</v>
       </c>
       <c r="H47" t="n">
-        <v>55.12886918983544</v>
+        <v>58.31605470999815</v>
       </c>
       <c r="I47" t="n">
-        <v>58.32106035069365</v>
+        <v>63.91561604780983</v>
       </c>
       <c r="J47" t="n">
-        <v>77.71828068252442</v>
+        <v>81.78335146834297</v>
       </c>
       <c r="K47" t="n">
-        <v>74.02458394643955</v>
+        <v>78.04522004434202</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B48" t="n">
-        <v>16.93505586592179</v>
+        <v>16.60328767123288</v>
       </c>
       <c r="C48" t="n">
-        <v>13.16110198572021</v>
+        <v>11.46734557761911</v>
       </c>
       <c r="D48" t="n">
-        <v>20.87514338088739</v>
+        <v>20.11291366352623</v>
       </c>
       <c r="E48" t="n">
-        <v>20.68382006158864</v>
+        <v>20.95851978327814</v>
       </c>
       <c r="F48" t="n">
-        <v>13.71127627768227</v>
+        <v>14.54468778562698</v>
       </c>
       <c r="G48" t="n">
-        <v>69.73743016759776</v>
+        <v>73.1972602739726</v>
       </c>
       <c r="H48" t="n">
-        <v>58.31605470999815</v>
+        <v>64.24795616344441</v>
       </c>
       <c r="I48" t="n">
-        <v>63.91561604780983</v>
+        <v>67.99907270382208</v>
       </c>
       <c r="J48" t="n">
-        <v>81.78335146834297</v>
+        <v>82.45416686378633</v>
       </c>
       <c r="K48" t="n">
-        <v>78.04522004434202</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B49" t="n">
-        <v>16.60328767123288</v>
-      </c>
-      <c r="C49" t="n">
-        <v>11.46734557761911</v>
-      </c>
-      <c r="D49" t="n">
-        <v>20.11291366352623</v>
-      </c>
-      <c r="E49" t="n">
-        <v>20.95851978327814</v>
-      </c>
-      <c r="F49" t="n">
-        <v>14.54468778562698</v>
-      </c>
-      <c r="G49" t="n">
-        <v>73.1972602739726</v>
-      </c>
-      <c r="H49" t="n">
-        <v>64.24795616344441</v>
-      </c>
-      <c r="I49" t="n">
-        <v>67.99907270382208</v>
-      </c>
-      <c r="J49" t="n">
-        <v>82.45416686378633</v>
-      </c>
-      <c r="K49" t="n">
         <v>80.90266543526458</v>
       </c>
     </row>

--- a/my_work/data1/YearMeanER56778_昆明.xlsx
+++ b/my_work/data1/YearMeanER56778_昆明.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,41 @@
           <t>s4_RH</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ETOmean</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>s1_ET0</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>s2_ET0</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>s3_ET0</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>s4_ET0</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ET0_PMT_G</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ET0_ET0_PMT_CF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -510,19 +545,40 @@
         <v>23.78369565217393</v>
       </c>
       <c r="G2" t="n">
-        <v>75.39726027397261</v>
+        <v>0.2065678363670482</v>
       </c>
       <c r="H2" t="n">
-        <v>132.6555555555556</v>
+        <v>1.473950617283951</v>
       </c>
       <c r="I2" t="n">
-        <v>164.1648351648352</v>
+        <v>1.804009177635551</v>
       </c>
       <c r="J2" t="n">
-        <v>170.5760869565217</v>
+        <v>1.854087901701323</v>
       </c>
       <c r="K2" t="n">
-        <v>158.0108695652174</v>
+        <v>1.717509451795841</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.893235284592355</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.473950617283951</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.804009177635551</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.854087901701323</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.717509451795841</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>508.155218644398</v>
+      </c>
+      <c r="R2" t="n">
+        <v>525.8995610559623</v>
       </c>
     </row>
     <row r="3">
@@ -545,19 +601,40 @@
         <v>11.08623582230624</v>
       </c>
       <c r="G3" t="n">
-        <v>76.59999999999999</v>
+        <v>0.2098630136986301</v>
       </c>
       <c r="H3" t="n">
-        <v>71.38506172839506</v>
+        <v>0.7769720926688005</v>
       </c>
       <c r="I3" t="n">
-        <v>74.52928390291027</v>
+        <v>0.7993966923291433</v>
       </c>
       <c r="J3" t="n">
-        <v>88.09321833648393</v>
+        <v>0.9376009083059667</v>
       </c>
       <c r="K3" t="n">
-        <v>79.05446597353497</v>
+        <v>0.8408220119862707</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.721058075077996</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7769720926688005</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7993966923291433</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9376009083059667</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.8408220119862707</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>496.667947861336</v>
+      </c>
+      <c r="R3" t="n">
+        <v>511.6934914653829</v>
       </c>
     </row>
     <row r="4">
@@ -580,19 +657,40 @@
         <v>12.68843734589463</v>
       </c>
       <c r="G4" t="n">
-        <v>75.73770491803279</v>
+        <v>0.2069336199946251</v>
       </c>
       <c r="H4" t="n">
-        <v>69.16906661239994</v>
+        <v>0.7515731158184602</v>
       </c>
       <c r="I4" t="n">
-        <v>71.51131081211989</v>
+        <v>0.7769350799048822</v>
       </c>
       <c r="J4" t="n">
-        <v>84.82710019930961</v>
+        <v>0.9117364840392611</v>
       </c>
       <c r="K4" t="n">
-        <v>80.72885289101669</v>
+        <v>0.8682467889900739</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.850259153969188</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7515731158184602</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7769350799048822</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9117364840392611</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.8682467889900739</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>515.6359740685191</v>
+      </c>
+      <c r="R4" t="n">
+        <v>533.4157422107078</v>
       </c>
     </row>
     <row r="5">
@@ -615,19 +713,40 @@
         <v>12.05530910158582</v>
       </c>
       <c r="G5" t="n">
-        <v>75.5702479338843</v>
+        <v>0.2081825011952736</v>
       </c>
       <c r="H5" t="n">
-        <v>65.2405575751409</v>
+        <v>0.7325350688424351</v>
       </c>
       <c r="I5" t="n">
-        <v>72.74188253639693</v>
+        <v>0.7908195791667558</v>
       </c>
       <c r="J5" t="n">
-        <v>85.19377282825337</v>
+        <v>0.9161048838000991</v>
       </c>
       <c r="K5" t="n">
-        <v>81.95357448794583</v>
+        <v>0.881364395887168</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.897196714142599</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7325350688424351</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.7908195791667558</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9161048838000991</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.881364395887168</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>518.3681004403916</v>
+      </c>
+      <c r="R5" t="n">
+        <v>536.5493968493101</v>
       </c>
     </row>
     <row r="6">
@@ -650,19 +769,40 @@
         <v>13.38538379458246</v>
       </c>
       <c r="G6" t="n">
-        <v>75.86538461538461</v>
+        <v>0.2084213863060017</v>
       </c>
       <c r="H6" t="n">
-        <v>65.84711730639046</v>
+        <v>0.7236706833418325</v>
       </c>
       <c r="I6" t="n">
-        <v>75.59713202818219</v>
+        <v>0.8310852863677984</v>
       </c>
       <c r="J6" t="n">
-        <v>86.86080187856797</v>
+        <v>0.9341819594616966</v>
       </c>
       <c r="K6" t="n">
-        <v>78.24949537486897</v>
+        <v>0.8409595184777751</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.629515116733119</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7236706833418325</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8310852863677984</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9341819594616966</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8409595184777751</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>501.6723962187359</v>
+      </c>
+      <c r="R6" t="n">
+        <v>516.5108628487411</v>
       </c>
     </row>
     <row r="7">
@@ -685,19 +825,40 @@
         <v>11.37647156298459</v>
       </c>
       <c r="G7" t="n">
-        <v>72.29558011049724</v>
+        <v>0.199711547266567</v>
       </c>
       <c r="H7" t="n">
-        <v>63.43648446411674</v>
+        <v>0.7045478690422096</v>
       </c>
       <c r="I7" t="n">
-        <v>67.424144308002</v>
+        <v>0.7318960373489153</v>
       </c>
       <c r="J7" t="n">
-        <v>83.36512002087298</v>
+        <v>0.915670886661662</v>
       </c>
       <c r="K7" t="n">
-        <v>78.18749451494423</v>
+        <v>0.8407184498485915</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.010918724733929</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7045478690422096</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.7318960373489153</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.915670886661662</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8407184498485915</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>523.8370431879237</v>
+      </c>
+      <c r="R7" t="n">
+        <v>550.6700908028386</v>
       </c>
     </row>
     <row r="8">
@@ -720,19 +881,40 @@
         <v>12.1497442561194</v>
       </c>
       <c r="G8" t="n">
-        <v>73.52247191011236</v>
+        <v>0.2065237975003156</v>
       </c>
       <c r="H8" t="n">
-        <v>67.32347785125403</v>
+        <v>0.7322430319851518</v>
       </c>
       <c r="I8" t="n">
-        <v>70.81784773964837</v>
+        <v>0.770164460335388</v>
       </c>
       <c r="J8" t="n">
-        <v>84.52884292708382</v>
+        <v>1.018577583415625</v>
       </c>
       <c r="K8" t="n">
-        <v>75.69769015777113</v>
+        <v>0.8136626557714849</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.84693467684017</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7322430319851518</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.770164460335388</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.018577583415625</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.8136626557714849</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>492.8052923271223</v>
+      </c>
+      <c r="R8" t="n">
+        <v>514.4634754223019</v>
       </c>
     </row>
     <row r="9">
@@ -755,19 +937,40 @@
         <v>11.74891026365347</v>
       </c>
       <c r="G9" t="n">
-        <v>73.2534435261708</v>
+        <v>0.2018001199068066</v>
       </c>
       <c r="H9" t="n">
-        <v>66.12581642056949</v>
+        <v>0.726510153460739</v>
       </c>
       <c r="I9" t="n">
-        <v>66.43615559258032</v>
+        <v>0.7376303704658924</v>
       </c>
       <c r="J9" t="n">
-        <v>84.08183524920743</v>
+        <v>0.9040664671057911</v>
       </c>
       <c r="K9" t="n">
-        <v>79.23584445823664</v>
+        <v>0.8524118221474211</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.974798440588558</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.726510153460739</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.7376303704658924</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9040664671057911</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8524118221474211</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>509.7253346771498</v>
+      </c>
+      <c r="R9" t="n">
+        <v>533.9616347008565</v>
       </c>
     </row>
     <row r="10">
@@ -790,19 +993,40 @@
         <v>12.48368380721362</v>
       </c>
       <c r="G10" t="n">
-        <v>72.8986301369863</v>
+        <v>0.1997222743479077</v>
       </c>
       <c r="H10" t="n">
-        <v>64.24584240467298</v>
+        <v>0.7057687049572174</v>
       </c>
       <c r="I10" t="n">
-        <v>74.04874896255583</v>
+        <v>0.8057888697464637</v>
       </c>
       <c r="J10" t="n">
-        <v>83.22915038314356</v>
+        <v>0.8948374369644501</v>
       </c>
       <c r="K10" t="n">
-        <v>73.11125917889387</v>
+        <v>0.7854267972379665</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.986544704706699</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7057687049572174</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.8057888697464637</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8948374369644501</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.7854267972379665</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>514.3165787343795</v>
+      </c>
+      <c r="R10" t="n">
+        <v>536.3741457085616</v>
       </c>
     </row>
     <row r="11">
@@ -825,19 +1049,40 @@
         <v>10.98460525877406</v>
       </c>
       <c r="G11" t="n">
-        <v>69.95890410958904</v>
+        <v>0.1916682304372302</v>
       </c>
       <c r="H11" t="n">
-        <v>54.02495380449636</v>
+        <v>0.5924328109512292</v>
       </c>
       <c r="I11" t="n">
-        <v>66.44009614244567</v>
+        <v>0.7212662466936055</v>
       </c>
       <c r="J11" t="n">
-        <v>85.23075163459939</v>
+        <v>0.916693624460889</v>
       </c>
       <c r="K11" t="n">
-        <v>76.95773107803144</v>
+        <v>0.8279519644136623</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.089158587893166</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5924328109512292</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.7212662466936055</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.916693624460889</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.8279519644136623</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>534.0714598233253</v>
+      </c>
+      <c r="R11" t="n">
+        <v>565.7049198629508</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +1105,40 @@
         <v>12.85309353542146</v>
       </c>
       <c r="G12" t="n">
-        <v>70.75342465753425</v>
+        <v>0.1938449990617377</v>
       </c>
       <c r="H12" t="n">
-        <v>57.90027726449441</v>
+        <v>0.6367398065198705</v>
       </c>
       <c r="I12" t="n">
-        <v>66.64219885870818</v>
+        <v>0.7243957573054817</v>
       </c>
       <c r="J12" t="n">
-        <v>84.43729077863695</v>
+        <v>0.9078351481125309</v>
       </c>
       <c r="K12" t="n">
-        <v>76.78214925084816</v>
+        <v>0.8255940396933381</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.071423144663903</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6367398065198705</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.7243957573054817</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.9078351481125309</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8255940396933381</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>531.6106641083687</v>
+      </c>
+      <c r="R12" t="n">
+        <v>560.7020547487222</v>
       </c>
     </row>
     <row r="13">
@@ -895,19 +1161,40 @@
         <v>13.40781195750727</v>
       </c>
       <c r="G13" t="n">
-        <v>73.06060606060606</v>
+        <v>0.2213957759412305</v>
       </c>
       <c r="H13" t="n">
-        <v>63.37666974738327</v>
+        <v>0.6971156468896937</v>
       </c>
       <c r="I13" t="n">
-        <v>71.30713554287453</v>
+        <v>0.78416350564905</v>
       </c>
       <c r="J13" t="n">
-        <v>83.54823142150691</v>
+        <v>0.8982641582169321</v>
       </c>
       <c r="K13" t="n">
-        <v>79.0996922284629</v>
+        <v>1.341208559464832</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.136567469150359</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.6971156468896937</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.78416350564905</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8982641582169321</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.341208559464832</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>489.6780129853667</v>
+      </c>
+      <c r="R13" t="n">
+        <v>511.5148569204181</v>
       </c>
     </row>
     <row r="14">
@@ -930,19 +1217,40 @@
         <v>11.78649795605986</v>
       </c>
       <c r="G14" t="n">
-        <v>72.67307692307692</v>
+        <v>0.1996513102282333</v>
       </c>
       <c r="H14" t="n">
-        <v>63.74862966385982</v>
+        <v>0.7005798908206037</v>
       </c>
       <c r="I14" t="n">
-        <v>68.65896817269861</v>
+        <v>0.7541708843834134</v>
       </c>
       <c r="J14" t="n">
-        <v>83.33204599371203</v>
+        <v>0.8960182259166135</v>
       </c>
       <c r="K14" t="n">
-        <v>77.90325752422243</v>
+        <v>0.8375875718997478</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.145182769400197</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.7005798908206037</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7541708843834134</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8960182259166135</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.8375875718997478</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>520.7485932610407</v>
+      </c>
+      <c r="R14" t="n">
+        <v>545.6740668453567</v>
       </c>
     </row>
     <row r="15">
@@ -965,19 +1273,40 @@
         <v>12.33354889082674</v>
       </c>
       <c r="G15" t="n">
-        <v>74.0958904109589</v>
+        <v>0.2030024394820792</v>
       </c>
       <c r="H15" t="n">
-        <v>68.84165144070955</v>
+        <v>0.7571235283815827</v>
       </c>
       <c r="I15" t="n">
-        <v>64.9193293205791</v>
+        <v>0.7051991511755082</v>
       </c>
       <c r="J15" t="n">
-        <v>85.32969615210557</v>
+        <v>0.9177570910002264</v>
       </c>
       <c r="K15" t="n">
-        <v>80.27068758178503</v>
+        <v>0.863402361480612</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.002036162946791</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7571235283815827</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.7051991511755082</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9177570910002264</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.863402361480612</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>513.788190079883</v>
+      </c>
+      <c r="R15" t="n">
+        <v>536.9001639532277</v>
       </c>
     </row>
     <row r="16">
@@ -1000,19 +1329,40 @@
         <v>12.60090814011768</v>
       </c>
       <c r="G16" t="n">
-        <v>71.39890710382514</v>
+        <v>0.1950789811579922</v>
       </c>
       <c r="H16" t="n">
-        <v>62.00924891693086</v>
+        <v>0.6731985416650623</v>
       </c>
       <c r="I16" t="n">
-        <v>68.99911350901735</v>
+        <v>0.750477623372923</v>
       </c>
       <c r="J16" t="n">
-        <v>83.41662713208811</v>
+        <v>0.8967294136449668</v>
       </c>
       <c r="K16" t="n">
-        <v>74.29642051719331</v>
+        <v>0.7981880201277742</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.216667036688087</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6731985416650623</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.750477623372923</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8967294136449668</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.7981880201277742</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>532.2714195636136</v>
+      </c>
+      <c r="R16" t="n">
+        <v>560.0612303036011</v>
       </c>
     </row>
     <row r="17">
@@ -1035,19 +1385,40 @@
         <v>12.40055334934911</v>
       </c>
       <c r="G17" t="n">
-        <v>73.92328767123287</v>
+        <v>0.2025295552636517</v>
       </c>
       <c r="H17" t="n">
-        <v>62.47788054352146</v>
+        <v>0.686626320807613</v>
       </c>
       <c r="I17" t="n">
-        <v>75.2527375110881</v>
+        <v>0.8187115659489642</v>
       </c>
       <c r="J17" t="n">
-        <v>84.70018072969661</v>
+        <v>0.9109046230403645</v>
       </c>
       <c r="K17" t="n">
-        <v>76.16626544040427</v>
+        <v>0.8192105609664613</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.015747026757872</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.686626320807613</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8187115659489642</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.9109046230403645</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.8192105609664613</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>508.3974792720724</v>
+      </c>
+      <c r="R17" t="n">
+        <v>527.3794282299015</v>
       </c>
     </row>
     <row r="18">
@@ -1070,19 +1441,40 @@
         <v>12.52283210162336</v>
       </c>
       <c r="G18" t="n">
-        <v>73.31780821917808</v>
+        <v>0.200870707449803</v>
       </c>
       <c r="H18" t="n">
-        <v>61.30530978381691</v>
+        <v>0.673541558805038</v>
       </c>
       <c r="I18" t="n">
-        <v>71.66211799462734</v>
+        <v>0.7785072710501085</v>
       </c>
       <c r="J18" t="n">
-        <v>85.14891500793148</v>
+        <v>0.9156321957257846</v>
       </c>
       <c r="K18" t="n">
-        <v>78.12137245043918</v>
+        <v>0.8402432904727041</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.036411652312183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.673541558805038</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.7785072710501085</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.9156321957257846</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8402432904727041</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>514.9061942636956</v>
+      </c>
+      <c r="R18" t="n">
+        <v>538.0248648410367</v>
       </c>
     </row>
     <row r="19">
@@ -1105,19 +1497,40 @@
         <v>12.87742208806112</v>
       </c>
       <c r="G19" t="n">
-        <v>71.3213296398892</v>
+        <v>0.1975660100827956</v>
       </c>
       <c r="H19" t="n">
-        <v>62.61450344204241</v>
+        <v>0.6882313014270129</v>
       </c>
       <c r="I19" t="n">
-        <v>63.36393239074284</v>
+        <v>0.7189560717758027</v>
       </c>
       <c r="J19" t="n">
-        <v>82.9472708153036</v>
+        <v>0.8916488223293626</v>
       </c>
       <c r="K19" t="n">
-        <v>78.95784100489608</v>
+        <v>0.8491068340371541</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.087452434885947</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6882313014270129</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.7189560717758027</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.8916488223293626</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8491068340371541</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>527.7598024113146</v>
+      </c>
+      <c r="R19" t="n">
+        <v>558.2787098839422</v>
       </c>
     </row>
     <row r="20">
@@ -1140,19 +1553,40 @@
         <v>12.70247197921806</v>
       </c>
       <c r="G20" t="n">
-        <v>73.2292817679558</v>
+        <v>0.2022908336131376</v>
       </c>
       <c r="H20" t="n">
-        <v>61.35840113672574</v>
+        <v>0.6667900291391652</v>
       </c>
       <c r="I20" t="n">
-        <v>68.89410914715101</v>
+        <v>0.7495132177359952</v>
       </c>
       <c r="J20" t="n">
-        <v>85.23803716835572</v>
+        <v>0.9580180331640405</v>
       </c>
       <c r="K20" t="n">
-        <v>80.9017156630967</v>
+        <v>0.8701381269888985</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.847385084388904</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.6667900291391652</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.7495132177359952</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.9580180331640405</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8701381269888985</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>523.2893733855949</v>
+      </c>
+      <c r="R20" t="n">
+        <v>547.7717574555816</v>
       </c>
     </row>
     <row r="21">
@@ -1175,19 +1609,40 @@
         <v>12.40502746643575</v>
       </c>
       <c r="G21" t="n">
-        <v>72.5</v>
+        <v>0.2002762430939226</v>
       </c>
       <c r="H21" t="n">
-        <v>65.11509334596361</v>
+        <v>0.7160082456826099</v>
       </c>
       <c r="I21" t="n">
-        <v>67.04279240821046</v>
+        <v>0.7285049526890153</v>
       </c>
       <c r="J21" t="n">
-        <v>82.71690150734457</v>
+        <v>0.8987994225375153</v>
       </c>
       <c r="K21" t="n">
-        <v>78.36557461847885</v>
+        <v>0.8608481652008628</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.91047048019568</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7160082456826099</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.7285049526890153</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8987994225375153</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8608481652008628</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>518.2952015218084</v>
+      </c>
+      <c r="R21" t="n">
+        <v>543.539329099536</v>
       </c>
     </row>
     <row r="22">
@@ -1210,19 +1665,40 @@
         <v>13.34570682028734</v>
       </c>
       <c r="G22" t="n">
-        <v>74.82465753424657</v>
+        <v>0.2049990617376618</v>
       </c>
       <c r="H22" t="n">
-        <v>67.66794548162181</v>
+        <v>0.7439155565735411</v>
       </c>
       <c r="I22" t="n">
-        <v>73.6268438726177</v>
+        <v>0.8010781916378081</v>
       </c>
       <c r="J22" t="n">
-        <v>82.79040110334071</v>
+        <v>0.890229064203986</v>
       </c>
       <c r="K22" t="n">
-        <v>78.23223450672259</v>
+        <v>0.8411933894335067</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.759353253446401</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7439155565735411</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.8010781916378081</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.890229064203986</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8411933894335067</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>508.7259843515016</v>
+      </c>
+      <c r="R22" t="n">
+        <v>526.859051412701</v>
       </c>
     </row>
     <row r="23">
@@ -1245,19 +1721,40 @@
         <v>12.86245333500312</v>
       </c>
       <c r="G23" t="n">
-        <v>73.96164383561644</v>
+        <v>0.2026346406455245</v>
       </c>
       <c r="H23" t="n">
-        <v>63.09631050535135</v>
+        <v>0.6928078908094536</v>
       </c>
       <c r="I23" t="n">
-        <v>68.94095432827052</v>
+        <v>0.7487985844936165</v>
       </c>
       <c r="J23" t="n">
-        <v>86.01946088155805</v>
+        <v>0.9253178436985118</v>
       </c>
       <c r="K23" t="n">
-        <v>80.78513298376872</v>
+        <v>0.8689557175554623</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.78305739705651</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6928078908094536</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7487985844936165</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.9253178436985118</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8689557175554623</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>518.1269892222775</v>
+      </c>
+      <c r="R23" t="n">
+        <v>541.5102061582664</v>
       </c>
     </row>
     <row r="24">
@@ -1280,19 +1777,40 @@
         <v>11.49299399269234</v>
       </c>
       <c r="G24" t="n">
-        <v>71.63561643835617</v>
+        <v>0.1962619628448114</v>
       </c>
       <c r="H24" t="n">
-        <v>68.74831110445442</v>
+        <v>0.747940201411763</v>
       </c>
       <c r="I24" t="n">
-        <v>64.99935114646452</v>
+        <v>0.7060438109629867</v>
       </c>
       <c r="J24" t="n">
-        <v>80.13064631392999</v>
+        <v>0.8609316301800211</v>
       </c>
       <c r="K24" t="n">
-        <v>75.85478168114031</v>
+        <v>0.8239184827578259</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.926816630005205</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.747940201411763</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.7060438109629867</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.8609316301800211</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8239184827578259</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>520.3427997307368</v>
+      </c>
+      <c r="R24" t="n">
+        <v>549.3263342057101</v>
       </c>
     </row>
     <row r="25">
@@ -1315,19 +1833,40 @@
         <v>12.40325548880769</v>
       </c>
       <c r="G25" t="n">
-        <v>72.68181818181819</v>
+        <v>0.2064824380165289</v>
       </c>
       <c r="H25" t="n">
-        <v>65.40623080800516</v>
+        <v>0.7344715831871658</v>
       </c>
       <c r="I25" t="n">
-        <v>66.66278315286587</v>
+        <v>0.766455657627226</v>
       </c>
       <c r="J25" t="n">
-        <v>83.03557552629466</v>
+        <v>0.9333498103861285</v>
       </c>
       <c r="K25" t="n">
-        <v>78.64283090756823</v>
+        <v>0.8645461627756491</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.026752869840793</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7344715831871658</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.766455657627226</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.9333498103861285</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8645461627756491</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>509.8281502028948</v>
+      </c>
+      <c r="R25" t="n">
+        <v>535.8881797063759</v>
       </c>
     </row>
     <row r="26">
@@ -1350,19 +1889,40 @@
         <v>13.36579625531313</v>
       </c>
       <c r="G26" t="n">
-        <v>70.71428571428571</v>
+        <v>0.198079231692677</v>
       </c>
       <c r="H26" t="n">
-        <v>60.83602506525848</v>
+        <v>0.6753862481483636</v>
       </c>
       <c r="I26" t="n">
-        <v>68.13104250733556</v>
+        <v>0.7571981385756379</v>
       </c>
       <c r="J26" t="n">
-        <v>80.10385718995741</v>
+        <v>0.9098868212194987</v>
       </c>
       <c r="K26" t="n">
-        <v>77.0830742489953</v>
+        <v>0.8286701968528799</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.139178516917617</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6753862481483636</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.7571981385756379</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.9098868212194987</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8286701968528799</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>530.2441737705682</v>
+      </c>
+      <c r="R26" t="n">
+        <v>560.0880503513113</v>
       </c>
     </row>
     <row r="27">
@@ -1385,19 +1945,40 @@
         <v>13.48441082886209</v>
       </c>
       <c r="G27" t="n">
-        <v>71.04383561643836</v>
+        <v>0.1946406455244886</v>
       </c>
       <c r="H27" t="n">
-        <v>63.2537336118362</v>
+        <v>0.6953920229935986</v>
       </c>
       <c r="I27" t="n">
-        <v>63.50693453304764</v>
+        <v>0.689742446339642</v>
       </c>
       <c r="J27" t="n">
-        <v>82.42504192597779</v>
+        <v>0.8865678032633767</v>
       </c>
       <c r="K27" t="n">
-        <v>77.84872906792386</v>
+        <v>0.83717257445615</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.000372595868304</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.6953920229935986</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.689742446339642</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.8865678032633767</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.83717257445615</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>535.3946768813257</v>
+      </c>
+      <c r="R27" t="n">
+        <v>566.9702998749758</v>
       </c>
     </row>
     <row r="28">
@@ -1420,19 +2001,40 @@
         <v>13.78896098727024</v>
       </c>
       <c r="G28" t="n">
-        <v>70.66115702479338</v>
+        <v>0.1946588347790451</v>
       </c>
       <c r="H28" t="n">
-        <v>62.17861245727293</v>
+        <v>0.6757270126824046</v>
       </c>
       <c r="I28" t="n">
-        <v>67.3652464554275</v>
+        <v>0.7489824191953465</v>
       </c>
       <c r="J28" t="n">
-        <v>77.99368177940634</v>
+        <v>0.847226973530161</v>
       </c>
       <c r="K28" t="n">
-        <v>78.10705140291222</v>
+        <v>0.8398909702947136</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.958356187996717</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.6757270126824046</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.7489824191953465</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.847226973530161</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8398909702947136</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>529.1096163226798</v>
+      </c>
+      <c r="R28" t="n">
+        <v>560.1329795600836</v>
       </c>
     </row>
     <row r="29">
@@ -1455,19 +2057,40 @@
         <v>13.96636220865132</v>
       </c>
       <c r="G29" t="n">
-        <v>69.42105263157895</v>
+        <v>0.1923020848520192</v>
       </c>
       <c r="H29" t="n">
-        <v>63.65369227480082</v>
+        <v>0.7074454900912361</v>
       </c>
       <c r="I29" t="n">
-        <v>64.31170600500469</v>
+        <v>0.6986775730490515</v>
       </c>
       <c r="J29" t="n">
-        <v>79.19992979754896</v>
+        <v>0.8704749662930285</v>
       </c>
       <c r="K29" t="n">
-        <v>73.63853902640564</v>
+        <v>0.7998840588057354</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.895395373093099</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.7074454900912361</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.6986775730490515</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.8704749662930285</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.7998840588057354</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>526.9470118434158</v>
+      </c>
+      <c r="R29" t="n">
+        <v>560.4092410113764</v>
       </c>
     </row>
     <row r="30">
@@ -1490,19 +2113,40 @@
         <v>14.74093871965926</v>
       </c>
       <c r="G30" t="n">
-        <v>67.38268156424581</v>
+        <v>0.1882197809057146</v>
       </c>
       <c r="H30" t="n">
-        <v>55.98452519856093</v>
+        <v>0.6351839669031697</v>
       </c>
       <c r="I30" t="n">
-        <v>66.96910006902304</v>
+        <v>0.7613553544157814</v>
       </c>
       <c r="J30" t="n">
-        <v>77.69782532388641</v>
+        <v>0.8352871544147322</v>
       </c>
       <c r="K30" t="n">
-        <v>71.28954933724354</v>
+        <v>0.7662807046383279</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.019522763443339</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6351839669031697</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7613553544157814</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.8352871544147322</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.7662807046383279</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>545.1896487337981</v>
+      </c>
+      <c r="R30" t="n">
+        <v>583.232182243706</v>
       </c>
     </row>
     <row r="31">
@@ -1525,19 +2169,40 @@
         <v>14.0176770968851</v>
       </c>
       <c r="G31" t="n">
-        <v>69.39058171745152</v>
+        <v>0.1922176778876774</v>
       </c>
       <c r="H31" t="n">
-        <v>57.51118778634728</v>
+        <v>0.646388840904817</v>
       </c>
       <c r="I31" t="n">
-        <v>66.70295714361565</v>
+        <v>0.7250043902130681</v>
       </c>
       <c r="J31" t="n">
-        <v>79.96410679699876</v>
+        <v>0.8600939611477333</v>
       </c>
       <c r="K31" t="n">
-        <v>75.93655054819159</v>
+        <v>0.8350328741610664</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.965306335513007</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.646388840904817</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.7250043902130681</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.8600939611477333</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8350328741610664</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>558.4929430152406</v>
+      </c>
+      <c r="R31" t="n">
+        <v>594.6049098313252</v>
       </c>
     </row>
     <row r="32">
@@ -1560,19 +2225,40 @@
         <v>14.16758344670528</v>
       </c>
       <c r="G32" t="n">
-        <v>70.31491712707182</v>
+        <v>0.1942401025609719</v>
       </c>
       <c r="H32" t="n">
-        <v>62.01717258848122</v>
+        <v>0.6973975192201581</v>
       </c>
       <c r="I32" t="n">
-        <v>70.65225507937352</v>
+        <v>0.7768796301716312</v>
       </c>
       <c r="J32" t="n">
-        <v>77.13004463909782</v>
+        <v>0.8290241131806649</v>
       </c>
       <c r="K32" t="n">
-        <v>74.15148424508904</v>
+        <v>0.7971213413131097</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.855943091258437</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.6973975192201581</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.7768796301716312</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.8290241131806649</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.7971213413131097</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>532.5246225656537</v>
+      </c>
+      <c r="R32" t="n">
+        <v>562.6216747150607</v>
       </c>
     </row>
     <row r="33">
@@ -1595,19 +2281,40 @@
         <v>13.82845199398592</v>
       </c>
       <c r="G33" t="n">
-        <v>68.97520661157024</v>
+        <v>0.1900143432825626</v>
       </c>
       <c r="H33" t="n">
-        <v>60.04564968850547</v>
+        <v>0.6744185688945274</v>
       </c>
       <c r="I33" t="n">
-        <v>65.52365115471839</v>
+        <v>0.7116020866598445</v>
       </c>
       <c r="J33" t="n">
-        <v>77.52315265912063</v>
+        <v>0.8336281928300072</v>
       </c>
       <c r="K33" t="n">
-        <v>75.46903787222922</v>
+        <v>0.8116489982681135</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.963270480354276</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.6744185688945274</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7116020866598445</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.8336281928300072</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8116489982681135</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>541.6464580630305</v>
+      </c>
+      <c r="R33" t="n">
+        <v>576.8526784919051</v>
       </c>
     </row>
     <row r="34">
@@ -1630,19 +2337,40 @@
         <v>14.15846143471724</v>
       </c>
       <c r="G34" t="n">
-        <v>67.90082644628099</v>
+        <v>0.187054618309314</v>
       </c>
       <c r="H34" t="n">
-        <v>61.27324601918756</v>
+        <v>0.688620147025942</v>
       </c>
       <c r="I34" t="n">
-        <v>64.07168847422767</v>
+        <v>0.6962578918109721</v>
       </c>
       <c r="J34" t="n">
-        <v>76.50568644194696</v>
+        <v>0.8225228766768466</v>
       </c>
       <c r="K34" t="n">
-        <v>72.45075041165467</v>
+        <v>0.7786875766774891</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.024455852873163</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.688620147025942</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.6962578918109721</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.8225228766768466</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.7786875766774891</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>549.9305110540988</v>
+      </c>
+      <c r="R34" t="n">
+        <v>588.7595040509043</v>
       </c>
     </row>
     <row r="35">
@@ -1665,19 +2393,40 @@
         <v>14.47183110255128</v>
       </c>
       <c r="G35" t="n">
-        <v>67.36438356164383</v>
+        <v>0.1845599549634078</v>
       </c>
       <c r="H35" t="n">
-        <v>61.06970273354653</v>
+        <v>0.6710726691539538</v>
       </c>
       <c r="I35" t="n">
-        <v>61.77001855466185</v>
+        <v>0.6711382994676743</v>
       </c>
       <c r="J35" t="n">
-        <v>75.71201833089073</v>
+        <v>0.8140149483549949</v>
       </c>
       <c r="K35" t="n">
-        <v>73.6896820696919</v>
+        <v>0.7925069337874148</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.146158201063999</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6710726691539538</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.6711382994676743</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8140149483549949</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7925069337874148</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>562.2275532484796</v>
+      </c>
+      <c r="R35" t="n">
+        <v>603.0088047935076</v>
       </c>
     </row>
     <row r="36">
@@ -1700,19 +2449,40 @@
         <v>13.27686772937556</v>
       </c>
       <c r="G36" t="n">
-        <v>66.05737704918033</v>
+        <v>0.1804846367463943</v>
       </c>
       <c r="H36" t="n">
-        <v>56.53922750256644</v>
+        <v>0.6140165526710729</v>
       </c>
       <c r="I36" t="n">
-        <v>67.54692328082047</v>
+        <v>0.7348956814756029</v>
       </c>
       <c r="J36" t="n">
-        <v>74.17078280794446</v>
+        <v>0.7973551529948435</v>
       </c>
       <c r="K36" t="n">
-        <v>68.84445306597492</v>
+        <v>0.7396966572464304</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.082693083932916</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.6140165526710729</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7348956814756029</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7973551529948435</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7396966572464304</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>548.7040828500392</v>
+      </c>
+      <c r="R36" t="n">
+        <v>589.874657683735</v>
       </c>
     </row>
     <row r="37">
@@ -1735,19 +2505,40 @@
         <v>14.83384550269853</v>
       </c>
       <c r="G37" t="n">
-        <v>62.19830028328612</v>
+        <v>0.1761991509441533</v>
       </c>
       <c r="H37" t="n">
-        <v>52.33185148258798</v>
+        <v>0.6009483526977651</v>
       </c>
       <c r="I37" t="n">
-        <v>54.38385470312024</v>
+        <v>0.5960166537878365</v>
       </c>
       <c r="J37" t="n">
-        <v>73.21924763921679</v>
+        <v>0.7871925041532366</v>
       </c>
       <c r="K37" t="n">
-        <v>71.66875827136441</v>
+        <v>0.833735598153252</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.413877279500793</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6009483526977651</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.5960166537878365</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7871925041532366</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.833735598153252</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>568.7559149720189</v>
+      </c>
+      <c r="R37" t="n">
+        <v>622.9868348522239</v>
       </c>
     </row>
     <row r="38">
@@ -1770,19 +2561,40 @@
         <v>14.29602005981194</v>
       </c>
       <c r="G38" t="n">
-        <v>70.10893854748603</v>
+        <v>0.1958350238756593</v>
       </c>
       <c r="H38" t="n">
-        <v>57.72590946091764</v>
+        <v>0.6350124627595923</v>
       </c>
       <c r="I38" t="n">
-        <v>70.51647446075143</v>
+        <v>0.8318588458976457</v>
       </c>
       <c r="J38" t="n">
-        <v>79.38281790912193</v>
+        <v>0.8542990539348007</v>
       </c>
       <c r="K38" t="n">
-        <v>75.31161693773221</v>
+        <v>0.8102355547729386</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.407568951100228</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6350124627595923</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8318588458976457</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.8542990539348007</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8102355547729386</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>541.561020061197</v>
+      </c>
+      <c r="R38" t="n">
+        <v>573.2743434997612</v>
       </c>
     </row>
     <row r="39">
@@ -1805,19 +2617,40 @@
         <v>14.15267413108491</v>
       </c>
       <c r="G39" t="n">
-        <v>72.47191011235955</v>
+        <v>0.2035727812144931</v>
       </c>
       <c r="H39" t="n">
-        <v>59.22030481718727</v>
+        <v>0.6888076141816969</v>
       </c>
       <c r="I39" t="n">
-        <v>72.27030430414658</v>
+        <v>0.8214865713893379</v>
       </c>
       <c r="J39" t="n">
-        <v>84.72155236857741</v>
+        <v>0.9116084946897373</v>
       </c>
       <c r="K39" t="n">
-        <v>75.73164801019274</v>
+        <v>0.8143679389833144</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.0880920945134</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.6888076141816969</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.8214865713893379</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.9116084946897373</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8143679389833144</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>515.3373146209981</v>
+      </c>
+      <c r="R39" t="n">
+        <v>541.0931582076684</v>
       </c>
     </row>
     <row r="40">
@@ -1840,19 +2673,40 @@
         <v>13.88169637923427</v>
       </c>
       <c r="G40" t="n">
-        <v>70.77177177177177</v>
+        <v>0.2125278431584738</v>
       </c>
       <c r="H40" t="n">
-        <v>62.27855514227807</v>
+        <v>0.8902938054220084</v>
       </c>
       <c r="I40" t="n">
-        <v>67.06128260818775</v>
+        <v>0.7701218883952663</v>
       </c>
       <c r="J40" t="n">
-        <v>79.14456309509747</v>
+        <v>0.8885474701052026</v>
       </c>
       <c r="K40" t="n">
-        <v>75.88590720011325</v>
+        <v>0.8339276997455534</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.999433733612971</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8902938054220084</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7701218883952663</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.8885474701052026</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8339276997455534</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>489.4841530010968</v>
+      </c>
+      <c r="R40" t="n">
+        <v>517.0002347456675</v>
       </c>
     </row>
     <row r="41">
@@ -1875,19 +2729,40 @@
         <v>14.78838800412211</v>
       </c>
       <c r="G41" t="n">
-        <v>65.68406593406593</v>
+        <v>0.1804507305880932</v>
       </c>
       <c r="H41" t="n">
-        <v>56.51420616824754</v>
+        <v>0.6203568263957311</v>
       </c>
       <c r="I41" t="n">
-        <v>66.37845869564653</v>
+        <v>0.7293543360356044</v>
       </c>
       <c r="J41" t="n">
-        <v>75.79504959885976</v>
+        <v>0.8146134862322904</v>
       </c>
       <c r="K41" t="n">
-        <v>66.95528160000123</v>
+        <v>0.7189076001535616</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.485668290146038</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.6203568263957311</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.7293543360356044</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.8146134862322904</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.7189076001535616</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>587.6804158070192</v>
+      </c>
+      <c r="R41" t="n">
+        <v>632.339446545573</v>
       </c>
     </row>
     <row r="42">
@@ -1910,19 +2785,40 @@
         <v>13.24598208893469</v>
       </c>
       <c r="G42" t="n">
-        <v>65.86968838526913</v>
+        <v>0.1865996838109607</v>
       </c>
       <c r="H42" t="n">
-        <v>49.90571340186941</v>
+        <v>0.5476074514600489</v>
       </c>
       <c r="I42" t="n">
-        <v>60.38266413043471</v>
+        <v>0.7266105523997674</v>
       </c>
       <c r="J42" t="n">
-        <v>76.58016538020725</v>
+        <v>0.8324857642176346</v>
       </c>
       <c r="K42" t="n">
-        <v>78.95505868444447</v>
+        <v>0.8691010997037227</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.541203516694363</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5476074514600489</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.7266105523997674</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.8324857642176346</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8691010997037227</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>554.8688090128162</v>
+      </c>
+      <c r="R42" t="n">
+        <v>598.551109237612</v>
       </c>
     </row>
     <row r="43">
@@ -1945,19 +2841,40 @@
         <v>12.91369211086741</v>
       </c>
       <c r="G43" t="n">
-        <v>71.08587257617728</v>
+        <v>0.1969137744492445</v>
       </c>
       <c r="H43" t="n">
-        <v>63.63939003822325</v>
+        <v>0.7088180289674865</v>
       </c>
       <c r="I43" t="n">
-        <v>67.41079850692786</v>
+        <v>0.7335740382263494</v>
       </c>
       <c r="J43" t="n">
-        <v>77.12866850422452</v>
+        <v>0.8476336402178046</v>
       </c>
       <c r="K43" t="n">
-        <v>78.98851712840049</v>
+        <v>0.8585761503562014</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.330212509627279</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.7088180289674865</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.7335740382263494</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.8476336402178046</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8585761503562014</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>537.9174659598901</v>
+      </c>
+      <c r="R43" t="n">
+        <v>568.3681911005699</v>
       </c>
     </row>
     <row r="44">
@@ -1980,19 +2897,40 @@
         <v>14.43438795772682</v>
       </c>
       <c r="G44" t="n">
-        <v>66.55555555555556</v>
+        <v>0.1848765432098765</v>
       </c>
       <c r="H44" t="n">
-        <v>53.84043766709136</v>
+        <v>0.5904578787690083</v>
       </c>
       <c r="I44" t="n">
-        <v>64.05128835473171</v>
+        <v>0.7357671138504902</v>
       </c>
       <c r="J44" t="n">
-        <v>80.71878987504593</v>
+        <v>0.8683657412145815</v>
       </c>
       <c r="K44" t="n">
-        <v>70.29335344704783</v>
+        <v>0.7548273365016962</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.587985058411319</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5904578787690083</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.7357671138504902</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.8683657412145815</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.7548273365016962</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>570.0651241003065</v>
+      </c>
+      <c r="R44" t="n">
+        <v>610.2558392868026</v>
       </c>
     </row>
     <row r="45">
@@ -2015,19 +2953,40 @@
         <v>12.81939552127964</v>
       </c>
       <c r="G45" t="n">
-        <v>67.78116343490305</v>
+        <v>0.1877594554983464</v>
       </c>
       <c r="H45" t="n">
-        <v>54.5982270851899</v>
+        <v>0.6000728960344159</v>
       </c>
       <c r="I45" t="n">
-        <v>62.21649191312195</v>
+        <v>0.6988295153814373</v>
       </c>
       <c r="J45" t="n">
-        <v>79.64526142719831</v>
+        <v>0.8655800465814774</v>
       </c>
       <c r="K45" t="n">
-        <v>77.18797123312008</v>
+        <v>0.8307838879178288</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.470224655961801</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6000728960344159</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6988295153814373</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.8655800465814774</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8307838879178288</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>566.9740992878828</v>
+      </c>
+      <c r="R45" t="n">
+        <v>608.3736246469109</v>
       </c>
     </row>
     <row r="46">
@@ -2050,19 +3009,40 @@
         <v>13.90358871372224</v>
       </c>
       <c r="G46" t="n">
-        <v>65.49444444444444</v>
+        <v>0.181929012345679</v>
       </c>
       <c r="H46" t="n">
-        <v>55.12886918983544</v>
+        <v>0.605876552209387</v>
       </c>
       <c r="I46" t="n">
-        <v>58.32106035069365</v>
+        <v>0.6334620009075451</v>
       </c>
       <c r="J46" t="n">
-        <v>77.71828068252442</v>
+        <v>0.8538105654378495</v>
       </c>
       <c r="K46" t="n">
-        <v>74.02458394643955</v>
+        <v>0.8220970564181185</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.648884914448599</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.605876552209387</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.6334620009075451</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.8538105654378495</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8220970564181185</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>583.627158505073</v>
+      </c>
+      <c r="R46" t="n">
+        <v>631.3853079196531</v>
       </c>
     </row>
     <row r="47">
@@ -2085,19 +3065,40 @@
         <v>13.71127627768227</v>
       </c>
       <c r="G47" t="n">
-        <v>69.73743016759776</v>
+        <v>0.1947972909709435</v>
       </c>
       <c r="H47" t="n">
-        <v>58.31605470999815</v>
+        <v>0.6483532226426221</v>
       </c>
       <c r="I47" t="n">
-        <v>63.91561604780983</v>
+        <v>0.6954031472045534</v>
       </c>
       <c r="J47" t="n">
-        <v>81.78335146834297</v>
+        <v>0.9092101768167451</v>
       </c>
       <c r="K47" t="n">
-        <v>78.04522004434202</v>
+        <v>0.8676710133892713</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.431227461040646</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.6483532226426221</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.6954031472045534</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.9092101768167451</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8676710133892713</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>556.2794575746315</v>
+      </c>
+      <c r="R47" t="n">
+        <v>592.4221405086298</v>
       </c>
     </row>
     <row r="48">
@@ -2120,19 +3121,40 @@
         <v>14.54468778562698</v>
       </c>
       <c r="G48" t="n">
-        <v>73.1972602739726</v>
+        <v>0.2005404391067742</v>
       </c>
       <c r="H48" t="n">
-        <v>64.24795616344441</v>
+        <v>0.7067467102744003</v>
       </c>
       <c r="I48" t="n">
-        <v>67.99907270382208</v>
+        <v>0.7396081877970301</v>
       </c>
       <c r="J48" t="n">
-        <v>82.45416686378633</v>
+        <v>0.8866858707675823</v>
       </c>
       <c r="K48" t="n">
-        <v>80.90266543526458</v>
+        <v>0.8702584677473287</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.370641728298785</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.7067467102744003</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.7396081877970301</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.8866858707675823</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8702584677473287</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>541.3487358308245</v>
+      </c>
+      <c r="R48" t="n">
+        <v>566.9563051777283</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56778_昆明.xlsx
+++ b/my_work/data1/YearMeanER56778_昆明.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA3CEFC-135D-4BA3-8874-551B65472349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C32441-037C-4595-B749-4E9E1E1A796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27210" yWindow="3015" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -444,7 +454,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,52 +517,52 @@
         <v>1967</v>
       </c>
       <c r="B2">
-        <v>13.892803931976401</v>
+        <v>14.776679041409576</v>
       </c>
       <c r="C2">
-        <v>25.155502871896601</v>
+        <v>10.035751549719645</v>
       </c>
       <c r="D2">
-        <v>55.269950590493202</v>
+        <v>18.593968467360291</v>
       </c>
       <c r="E2">
-        <v>50.346286312403102</v>
+        <v>19.551718211105804</v>
       </c>
       <c r="F2">
-        <v>30.015750638169301</v>
+        <v>11.862881485639747</v>
       </c>
       <c r="G2">
-        <v>0.207025172462592</v>
+        <v>0.20872880759155565</v>
       </c>
       <c r="H2">
-        <v>1.9460982536321101</v>
+        <v>0.75790358136711533</v>
       </c>
       <c r="I2">
-        <v>2.4207038157828702</v>
+        <v>0.7956314048321862</v>
       </c>
       <c r="J2">
-        <v>2.43279860954833</v>
+        <v>0.92732542118042038</v>
       </c>
       <c r="K2">
-        <v>2.7769488915516698</v>
+        <v>2.7738663977797455</v>
       </c>
       <c r="L2">
-        <v>9.3809052490247407</v>
+        <v>3.8847811190312878</v>
       </c>
       <c r="M2">
-        <v>10.052368868685701</v>
+        <v>2.9791314987805992</v>
       </c>
       <c r="N2">
-        <v>6.5101541912979899</v>
+        <v>2.2114481825349954</v>
       </c>
       <c r="O2">
-        <v>5.4774872032259498</v>
+        <v>2.192885714502931</v>
       </c>
       <c r="P2">
-        <v>1.3274628807576001</v>
+        <v>1.3857309453711226</v>
       </c>
       <c r="Q2">
-        <v>1.36925185267042</v>
+        <v>1.4301920155930414</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -560,52 +570,52 @@
         <v>1968</v>
       </c>
       <c r="B3">
-        <v>14.128236186147401</v>
+        <v>14.819020828756077</v>
       </c>
       <c r="C3">
-        <v>22.4271565545566</v>
+        <v>10.058041383582525</v>
       </c>
       <c r="D3">
-        <v>48.450233803924498</v>
+        <v>18.498641056428298</v>
       </c>
       <c r="E3">
-        <v>44.594302799681302</v>
+        <v>19.565655243557938</v>
       </c>
       <c r="F3">
-        <v>26.657454825351699</v>
+        <v>12.027992657690724</v>
       </c>
       <c r="G3">
-        <v>0.207216632540659</v>
+        <v>0.20836977007216956</v>
       </c>
       <c r="H3">
-        <v>1.72113369141462</v>
+        <v>0.75663748825738431</v>
       </c>
       <c r="I3">
-        <v>2.1145007749998102</v>
+        <v>0.79189213984672546</v>
       </c>
       <c r="J3">
-        <v>2.1488172617512902</v>
+        <v>0.92420763375218851</v>
       </c>
       <c r="K3">
-        <v>2.79105742830586</v>
+        <v>2.7891449490176337</v>
       </c>
       <c r="L3">
-        <v>8.3775625544690193</v>
+        <v>3.8618371906034499</v>
       </c>
       <c r="M3">
-        <v>8.7422099888789297</v>
+        <v>3.0247435032031582</v>
       </c>
       <c r="N3">
-        <v>5.6944283367083104</v>
+        <v>2.2363642271397621</v>
       </c>
       <c r="O3">
-        <v>4.87765321254789</v>
+        <v>2.1935116695727221</v>
       </c>
       <c r="P3">
-        <v>1.3430151815553599</v>
+        <v>1.390353048137619</v>
       </c>
       <c r="Q3">
-        <v>1.38598690010509</v>
+        <v>1.4356376246114317</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -613,52 +623,52 @@
         <v>1969</v>
       </c>
       <c r="B4">
-        <v>14.3636684403185</v>
+        <v>14.957420519754173</v>
       </c>
       <c r="C4">
-        <v>19.698810237216499</v>
+        <v>10.295517653954734</v>
       </c>
       <c r="D4">
-        <v>41.630517017355601</v>
+        <v>18.700709177917808</v>
       </c>
       <c r="E4">
-        <v>38.842319286959501</v>
+        <v>19.602679419571061</v>
       </c>
       <c r="F4">
-        <v>23.299159012534101</v>
+        <v>12.033455946469743</v>
       </c>
       <c r="G4">
-        <v>0.207408092618726</v>
+        <v>0.20833231629679036</v>
       </c>
       <c r="H4">
-        <v>1.49616912919713</v>
+        <v>0.75181700437439447</v>
       </c>
       <c r="I4">
-        <v>1.8082977342167501</v>
+        <v>0.79167762771073158</v>
       </c>
       <c r="J4">
-        <v>1.8648359139542601</v>
+        <v>0.92258708376177068</v>
       </c>
       <c r="K4">
-        <v>2.8051659650600498</v>
+        <v>2.8107553020426268</v>
       </c>
       <c r="L4">
-        <v>7.3742198599132696</v>
+        <v>3.942501374276751</v>
       </c>
       <c r="M4">
-        <v>7.4320511090722103</v>
+        <v>3.0209081595524085</v>
       </c>
       <c r="N4">
-        <v>4.87870248211863</v>
+        <v>2.1903622162883907</v>
       </c>
       <c r="O4">
-        <v>4.2778192218698301</v>
+        <v>2.2359611178264349</v>
       </c>
       <c r="P4">
-        <v>1.35856748235313</v>
+        <v>1.3978846977059032</v>
       </c>
       <c r="Q4">
-        <v>1.4027219475397701</v>
+        <v>1.4441296020854597</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -666,52 +676,52 @@
         <v>1970</v>
       </c>
       <c r="B5">
-        <v>14.92876712328766</v>
+        <v>14.949452899319819</v>
       </c>
       <c r="C5">
-        <v>20.523888888888891</v>
+        <v>10.194181729242551</v>
       </c>
       <c r="D5">
-        <v>42.071428571428569</v>
+        <v>18.549365079365081</v>
       </c>
       <c r="E5">
-        <v>38.958152173913028</v>
+        <v>19.519427831577769</v>
       </c>
       <c r="F5">
-        <v>23.783695652173929</v>
+        <v>12.303841516092287</v>
       </c>
       <c r="G5">
-        <v>0.2065678363670482</v>
+        <v>0.20835013029863261</v>
       </c>
       <c r="H5">
-        <v>1.4739506172839509</v>
+        <v>0.74618774016788203</v>
       </c>
       <c r="I5">
-        <v>1.8040091776355509</v>
+        <v>0.79955915944214495</v>
       </c>
       <c r="J5">
-        <v>1.854087901701323</v>
+        <v>0.92490605890175581</v>
       </c>
       <c r="K5">
-        <v>2.8932352845923548</v>
+        <v>2.7745072649807252</v>
       </c>
       <c r="L5">
-        <v>7.5853649205628004</v>
+        <v>3.8919179235740344</v>
       </c>
       <c r="M5">
-        <v>7.455811670715077</v>
+        <v>2.9128286707031634</v>
       </c>
       <c r="N5">
-        <v>4.7485903329841967</v>
+        <v>2.1524878155600593</v>
       </c>
       <c r="O5">
-        <v>4.4502347745753932</v>
+        <v>2.2811422651824169</v>
       </c>
       <c r="P5">
-        <v>1.392206078477803</v>
+        <v>1.393951931911281</v>
       </c>
       <c r="Q5">
-        <v>1.440820715221814</v>
+        <v>1.4391008590577861</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">

--- a/my_work/data1/YearMeanER56778_昆明.xlsx
+++ b/my_work/data1/YearMeanER56778_昆明.xlsx
@@ -593,16 +593,16 @@
         <v>1.440820715221814</v>
       </c>
       <c r="R2" t="n">
-        <v>7.5853649205628</v>
+        <v>522.0119913159717</v>
       </c>
       <c r="S2" t="n">
-        <v>7.455811670715077</v>
+        <v>792.5553545906587</v>
       </c>
       <c r="T2" t="n">
-        <v>4.748590332984197</v>
+        <v>536.1362684343677</v>
       </c>
       <c r="U2" t="n">
-        <v>4.450234774575393</v>
+        <v>365.7274820699139</v>
       </c>
     </row>
     <row r="3">
@@ -658,16 +658,16 @@
         <v>1.401899976617488</v>
       </c>
       <c r="R3" t="n">
-        <v>3.842867987670916</v>
+        <v>767.9468567708893</v>
       </c>
       <c r="S3" t="n">
-        <v>2.958045661663667</v>
+        <v>1108.88392994328</v>
       </c>
       <c r="T3" t="n">
-        <v>2.266578471151769</v>
+        <v>792.4949225665902</v>
       </c>
       <c r="U3" t="n">
-        <v>2.060927805430151</v>
+        <v>540.2915845336204</v>
       </c>
     </row>
     <row r="4">
@@ -723,16 +723,16 @@
         <v>1.457420060684994</v>
       </c>
       <c r="R4" t="n">
-        <v>3.770061476892098</v>
+        <v>1013.858328145038</v>
       </c>
       <c r="S4" t="n">
-        <v>3.207191520893393</v>
+        <v>1439.646269016435</v>
       </c>
       <c r="T4" t="n">
-        <v>2.33602840555883</v>
+        <v>1065.720700737062</v>
       </c>
       <c r="U4" t="n">
-        <v>2.196015489851886</v>
+        <v>733.5868462685697</v>
       </c>
     </row>
     <row r="5">
@@ -788,16 +788,16 @@
         <v>1.478097511981571</v>
       </c>
       <c r="R5" t="n">
-        <v>4.265158108969956</v>
+        <v>1284.616334851344</v>
       </c>
       <c r="S5" t="n">
-        <v>3.00556678494941</v>
+        <v>1806.364474839773</v>
       </c>
       <c r="T5" t="n">
-        <v>2.006354172882905</v>
+        <v>1326.381770269841</v>
       </c>
       <c r="U5" t="n">
-        <v>2.405758910841286</v>
+        <v>887.1319714399075</v>
       </c>
     </row>
     <row r="6">
@@ -853,16 +853,16 @@
         <v>1.418985886947091</v>
       </c>
       <c r="R6" t="n">
-        <v>3.689584120763168</v>
+        <v>1551.497722790772</v>
       </c>
       <c r="S6" t="n">
-        <v>2.480510715306183</v>
+        <v>2105.374309173068</v>
       </c>
       <c r="T6" t="n">
-        <v>2.000990212646734</v>
+        <v>1536.040528025221</v>
       </c>
       <c r="U6" t="n">
-        <v>2.461866854606346</v>
+        <v>1068.725493902661</v>
       </c>
     </row>
     <row r="7">
@@ -918,16 +918,16 @@
         <v>1.521188096140438</v>
       </c>
       <c r="R7" t="n">
-        <v>4.38266810716637</v>
+        <v>1846.000280027809</v>
       </c>
       <c r="S7" t="n">
-        <v>3.034399107098806</v>
+        <v>2463.198170663232</v>
       </c>
       <c r="T7" t="n">
-        <v>2.255569841540872</v>
+        <v>1803.059768299502</v>
       </c>
       <c r="U7" t="n">
-        <v>2.443478996039015</v>
+        <v>1239.33241325486</v>
       </c>
     </row>
     <row r="8">
@@ -983,16 +983,16 @@
         <v>1.445122121972758</v>
       </c>
       <c r="R8" t="n">
-        <v>3.897871913627537</v>
+        <v>2113.053787032288</v>
       </c>
       <c r="S8" t="n">
-        <v>2.943402078874588</v>
+        <v>2790.104221176903</v>
       </c>
       <c r="T8" t="n">
-        <v>2.286788027816193</v>
+        <v>2022.662227530464</v>
       </c>
       <c r="U8" t="n">
-        <v>2.39081279070573</v>
+        <v>1439.279141460847</v>
       </c>
     </row>
     <row r="9">
@@ -1048,16 +1048,16 @@
         <v>1.470968690635968</v>
       </c>
       <c r="R9" t="n">
-        <v>4.141874274714453</v>
+        <v>2366.340954997891</v>
       </c>
       <c r="S9" t="n">
-        <v>3.392629733794646</v>
+        <v>3180.82796981122</v>
       </c>
       <c r="T9" t="n">
-        <v>2.198506670741581</v>
+        <v>2279.777831217054</v>
       </c>
       <c r="U9" t="n">
-        <v>2.293510905264205</v>
+        <v>1618.004455107983</v>
       </c>
     </row>
     <row r="10">
@@ -1113,16 +1113,16 @@
         <v>1.469518207420717</v>
       </c>
       <c r="R10" t="n">
-        <v>3.981078442713972</v>
+        <v>2648.650517348195</v>
       </c>
       <c r="S10" t="n">
-        <v>3.225881654632404</v>
+        <v>3493.254337801135</v>
       </c>
       <c r="T10" t="n">
-        <v>2.430852205582101</v>
+        <v>2560.313201943753</v>
       </c>
       <c r="U10" t="n">
-        <v>2.420749545984684</v>
+        <v>1832.821971259007</v>
       </c>
     </row>
     <row r="11">
@@ -1178,16 +1178,16 @@
         <v>1.549876492775208</v>
       </c>
       <c r="R11" t="n">
-        <v>4.475314574425746</v>
+        <v>2971.129930124751</v>
       </c>
       <c r="S11" t="n">
-        <v>3.042796048490024</v>
+        <v>3861.695844213661</v>
       </c>
       <c r="T11" t="n">
-        <v>2.180432058075003</v>
+        <v>2817.702823203152</v>
       </c>
       <c r="U11" t="n">
-        <v>2.772399464853804</v>
+        <v>2012.054315391533</v>
       </c>
     </row>
     <row r="12">
@@ -1243,16 +1243,16 @@
         <v>1.536170013010198</v>
       </c>
       <c r="R12" t="n">
-        <v>4.470744974036283</v>
+        <v>3278.812487845896</v>
       </c>
       <c r="S12" t="n">
-        <v>3.00044050833241</v>
+        <v>4226.055226296832</v>
       </c>
       <c r="T12" t="n">
-        <v>2.294693454306098</v>
+        <v>3070.541708649218</v>
       </c>
       <c r="U12" t="n">
-        <v>2.637491346982164</v>
+        <v>2208.242937943475</v>
       </c>
     </row>
     <row r="13">
@@ -1308,16 +1308,16 @@
         <v>1.550045020970964</v>
       </c>
       <c r="R13" t="n">
-        <v>3.974866120882359</v>
+        <v>3561.303068937316</v>
       </c>
       <c r="S13" t="n">
-        <v>3.108097263688167</v>
+        <v>4548.512686244808</v>
       </c>
       <c r="T13" t="n">
-        <v>3.127694082312253</v>
+        <v>3368.176814055816</v>
       </c>
       <c r="U13" t="n">
-        <v>2.430506172356071</v>
+        <v>2340.727056317101</v>
       </c>
     </row>
     <row r="14">
@@ -1373,16 +1373,16 @@
         <v>1.499104579245486</v>
       </c>
       <c r="R14" t="n">
-        <v>4.534446781090333</v>
+        <v>3844.858037978882</v>
       </c>
       <c r="S14" t="n">
-        <v>3.496356930067051</v>
+        <v>4924.025390877606</v>
       </c>
       <c r="T14" t="n">
-        <v>2.444273402297976</v>
+        <v>3664.999600460022</v>
       </c>
       <c r="U14" t="n">
-        <v>2.21912475105981</v>
+        <v>2529.68312430021</v>
       </c>
     </row>
     <row r="15">
@@ -1438,16 +1438,16 @@
         <v>1.470959353296514</v>
       </c>
       <c r="R15" t="n">
-        <v>4.44853838519175</v>
+        <v>4078.131873698326</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3195019343893</v>
+        <v>5339.488951081758</v>
       </c>
       <c r="T15" t="n">
-        <v>2.240288014488601</v>
+        <v>3936.879774317202</v>
       </c>
       <c r="U15" t="n">
-        <v>2.110127584668611</v>
+        <v>2704.808753995011</v>
       </c>
     </row>
     <row r="16">
@@ -1503,16 +1503,16 @@
         <v>1.530221940720222</v>
       </c>
       <c r="R16" t="n">
-        <v>4.412778107427881</v>
+        <v>4386.761046012277</v>
       </c>
       <c r="S16" t="n">
-        <v>3.299559506042197</v>
+        <v>5705.030985603497</v>
       </c>
       <c r="T16" t="n">
-        <v>2.549751505356926</v>
+        <v>4223.882637886013</v>
       </c>
       <c r="U16" t="n">
-        <v>2.72369388922913</v>
+        <v>2920.934819018342</v>
       </c>
     </row>
     <row r="17">
@@ -1568,16 +1568,16 @@
         <v>1.444875145835346</v>
       </c>
       <c r="R17" t="n">
-        <v>3.850508006593552</v>
+        <v>4665.084288700304</v>
       </c>
       <c r="S17" t="n">
-        <v>3.198046795721279</v>
+        <v>6041.685666938388</v>
       </c>
       <c r="T17" t="n">
-        <v>2.437328580893933</v>
+        <v>4499.083602384544</v>
       </c>
       <c r="U17" t="n">
-        <v>2.705216723337409</v>
+        <v>3131.503595263512</v>
       </c>
     </row>
     <row r="18">
@@ -1633,16 +1633,16 @@
         <v>1.474040725591881</v>
       </c>
       <c r="R18" t="n">
-        <v>4.253592109920029</v>
+        <v>4959.921014487771</v>
       </c>
       <c r="S18" t="n">
-        <v>3.173973768603536</v>
+        <v>6415.692858250843</v>
       </c>
       <c r="T18" t="n">
-        <v>2.27738441001336</v>
+        <v>4746.976667435614</v>
       </c>
       <c r="U18" t="n">
-        <v>2.554481234056781</v>
+        <v>3323.056866206471</v>
       </c>
     </row>
     <row r="19">
@@ -1698,16 +1698,16 @@
         <v>1.546478420731142</v>
       </c>
       <c r="R19" t="n">
-        <v>4.853074926745231</v>
+        <v>5242.99515861348</v>
       </c>
       <c r="S19" t="n">
-        <v>3.048941940254625</v>
+        <v>6820.092757907608</v>
       </c>
       <c r="T19" t="n">
-        <v>2.387737534587099</v>
+        <v>4979.655881538166</v>
       </c>
       <c r="U19" t="n">
-        <v>2.163954009622497</v>
+        <v>3517.473937315267</v>
       </c>
     </row>
     <row r="20">
@@ -1763,16 +1763,16 @@
         <v>1.513181650429783</v>
       </c>
       <c r="R20" t="n">
-        <v>4.092865972522167</v>
+        <v>5536.957851610074</v>
       </c>
       <c r="S20" t="n">
-        <v>3.24165393529475</v>
+        <v>7179.100642451751</v>
       </c>
       <c r="T20" t="n">
-        <v>1.81326396044427</v>
+        <v>5207.272215924529</v>
       </c>
       <c r="U20" t="n">
-        <v>2.377921678918545</v>
+        <v>3667.640425936954</v>
       </c>
     </row>
     <row r="21">
@@ -1828,16 +1828,16 @@
         <v>1.501489859390983</v>
       </c>
       <c r="R21" t="n">
-        <v>3.817842131043756</v>
+        <v>5787.004910596112</v>
       </c>
       <c r="S21" t="n">
-        <v>3.313730353450996</v>
+        <v>7534.442299726899</v>
       </c>
       <c r="T21" t="n">
-        <v>2.310756225184141</v>
+        <v>5486.707231816186</v>
       </c>
       <c r="U21" t="n">
-        <v>2.284876929922587</v>
+        <v>3836.407007614941</v>
       </c>
     </row>
     <row r="22">
@@ -1893,16 +1893,16 @@
         <v>1.443449455925208</v>
       </c>
       <c r="R22" t="n">
-        <v>3.47715209958562</v>
+        <v>6024.753520453059</v>
       </c>
       <c r="S22" t="n">
-        <v>3.155284302080586</v>
+        <v>7833.420960392539</v>
       </c>
       <c r="T22" t="n">
-        <v>2.305077823450588</v>
+        <v>5777.09117292784</v>
       </c>
       <c r="U22" t="n">
-        <v>2.210499025113817</v>
+        <v>4016.459733488646</v>
       </c>
     </row>
     <row r="23">
@@ -1958,16 +1958,16 @@
         <v>1.483589605913059</v>
       </c>
       <c r="R23" t="n">
-        <v>4.236004951467484</v>
+        <v>6291.021438474563</v>
       </c>
       <c r="S23" t="n">
-        <v>2.816482462649164</v>
+        <v>8185.088917656726</v>
       </c>
       <c r="T23" t="n">
-        <v>1.941947619266901</v>
+        <v>6007.230608555655</v>
       </c>
       <c r="U23" t="n">
-        <v>2.237976530264851</v>
+        <v>4184.200372500767</v>
       </c>
     </row>
     <row r="24">
@@ -2023,16 +2023,16 @@
         <v>1.50500365535811</v>
       </c>
       <c r="R24" t="n">
-        <v>4.041610016330296</v>
+        <v>6506.801621936074</v>
       </c>
       <c r="S24" t="n">
-        <v>3.480486459781584</v>
+        <v>8562.084183576999</v>
       </c>
       <c r="T24" t="n">
-        <v>2.393129092695137</v>
+        <v>6304.157067887893</v>
       </c>
       <c r="U24" t="n">
-        <v>1.89127458649112</v>
+        <v>4362.786533738655</v>
       </c>
     </row>
     <row r="25">
@@ -2088,16 +2088,16 @@
         <v>1.522409601438568</v>
       </c>
       <c r="R25" t="n">
-        <v>4.400752257372299</v>
+        <v>6756.976609137413</v>
       </c>
       <c r="S25" t="n">
-        <v>3.628724813389271</v>
+        <v>8937.173812048284</v>
       </c>
       <c r="T25" t="n">
-        <v>2.207810411497992</v>
+        <v>6575.969804450444</v>
       </c>
       <c r="U25" t="n">
-        <v>2.011262487026409</v>
+        <v>4531.126191687439</v>
       </c>
     </row>
     <row r="26">
@@ -2153,16 +2153,16 @@
         <v>1.568874090619919</v>
       </c>
       <c r="R26" t="n">
-        <v>4.243256484023187</v>
+        <v>7025.530906979325</v>
       </c>
       <c r="S26" t="n">
-        <v>3.46912352293909</v>
+        <v>9304.80911555077</v>
       </c>
       <c r="T26" t="n">
-        <v>2.452922397283273</v>
+        <v>6866.185191138079</v>
       </c>
       <c r="U26" t="n">
-        <v>2.539466430318097</v>
+        <v>4725.407934194997</v>
       </c>
     </row>
     <row r="27">
@@ -2218,16 +2218,16 @@
         <v>1.553343287328701</v>
       </c>
       <c r="R27" t="n">
-        <v>4.395406017968677</v>
+        <v>7279.789321084108</v>
       </c>
       <c r="S27" t="n">
-        <v>3.314749422656661</v>
+        <v>9695.298137600777</v>
       </c>
       <c r="T27" t="n">
-        <v>2.319178736216708</v>
+        <v>7136.626800702871</v>
       </c>
       <c r="U27" t="n">
-        <v>2.082902231036035</v>
+        <v>4905.354885967351</v>
       </c>
     </row>
     <row r="28">
@@ -2283,16 +2283,16 @@
         <v>1.54306605939417</v>
       </c>
       <c r="R28" t="n">
-        <v>4.211405967957698</v>
+        <v>7541.316557751674</v>
       </c>
       <c r="S28" t="n">
-        <v>3.244716570642197</v>
+        <v>10050.37434019963</v>
       </c>
       <c r="T28" t="n">
-        <v>2.385708420400365</v>
+        <v>7419.974650165967</v>
       </c>
       <c r="U28" t="n">
-        <v>2.138465069776045</v>
+        <v>5079.286893480647</v>
       </c>
     </row>
     <row r="29">
@@ -2348,16 +2348,16 @@
         <v>1.552380169006583</v>
       </c>
       <c r="R29" t="n">
-        <v>4.035156888178252</v>
+        <v>7768.021225893163</v>
       </c>
       <c r="S29" t="n">
-        <v>3.147977502072685</v>
+        <v>10416.67350229073</v>
       </c>
       <c r="T29" t="n">
-        <v>2.452188133594195</v>
+        <v>7670.953132790819</v>
       </c>
       <c r="U29" t="n">
-        <v>2.032053491941973</v>
+        <v>5280.542310309816</v>
       </c>
     </row>
     <row r="30">
@@ -2413,16 +2413,16 @@
         <v>1.629140173865101</v>
       </c>
       <c r="R30" t="n">
-        <v>4.40548679457876</v>
+        <v>8049.429971690073</v>
       </c>
       <c r="S30" t="n">
-        <v>2.794314193879875</v>
+        <v>10766.59312449071</v>
       </c>
       <c r="T30" t="n">
-        <v>2.612667327972823</v>
+        <v>7928.495214336193</v>
       </c>
       <c r="U30" t="n">
-        <v>2.442065794511849</v>
+        <v>5472.661010080257</v>
       </c>
     </row>
     <row r="31">
@@ -2478,16 +2478,16 @@
         <v>1.647105013383172</v>
       </c>
       <c r="R31" t="n">
-        <v>4.045195600168034</v>
+        <v>8331.487771672133</v>
       </c>
       <c r="S31" t="n">
-        <v>3.15212482881243</v>
+        <v>11114.63352684482</v>
       </c>
       <c r="T31" t="n">
-        <v>2.524149142702665</v>
+        <v>8193.725972787734</v>
       </c>
       <c r="U31" t="n">
-        <v>2.243731983203</v>
+        <v>5647.807636412744</v>
       </c>
     </row>
     <row r="32">
@@ -2543,16 +2543,16 @@
         <v>1.554203521312322</v>
       </c>
       <c r="R32" t="n">
-        <v>3.568221828459346</v>
+        <v>8572.822043929216</v>
       </c>
       <c r="S32" t="n">
-        <v>3.117688513222972</v>
+        <v>11419.85668535827</v>
       </c>
       <c r="T32" t="n">
-        <v>2.599688096770405</v>
+        <v>8483.027015074777</v>
       </c>
       <c r="U32" t="n">
-        <v>2.256484749339796</v>
+        <v>5845.800562390715</v>
       </c>
     </row>
     <row r="33">
@@ -2608,16 +2608,16 @@
         <v>1.589125836065854</v>
       </c>
       <c r="R33" t="n">
-        <v>3.936971175049368</v>
+        <v>8827.857067462715</v>
       </c>
       <c r="S33" t="n">
-        <v>3.47935401380701</v>
+        <v>11768.28370240532</v>
       </c>
       <c r="T33" t="n">
-        <v>2.178971462869227</v>
+        <v>8781.326161100964</v>
       </c>
       <c r="U33" t="n">
-        <v>2.347965307505767</v>
+        <v>6019.706560152579</v>
       </c>
     </row>
     <row r="34">
@@ -2673,16 +2673,16 @@
         <v>1.621927008404695</v>
       </c>
       <c r="R34" t="n">
-        <v>4.054846012585505</v>
+        <v>9081.896510924071</v>
       </c>
       <c r="S34" t="n">
-        <v>3.30911550891293</v>
+        <v>12145.64697330588</v>
       </c>
       <c r="T34" t="n">
-        <v>2.562469956523747</v>
+        <v>9046.09392685573</v>
       </c>
       <c r="U34" t="n">
-        <v>2.302902250620484</v>
+        <v>6221.413554628864</v>
       </c>
     </row>
     <row r="35">
@@ -2738,16 +2738,16 @@
         <v>1.652078917242487</v>
       </c>
       <c r="R35" t="n">
-        <v>4.419959494946829</v>
+        <v>9345.822032745526</v>
       </c>
       <c r="S35" t="n">
-        <v>3.506043096087648</v>
+        <v>12521.57930764186</v>
       </c>
       <c r="T35" t="n">
-        <v>2.534517311863486</v>
+        <v>9356.479869298861</v>
       </c>
       <c r="U35" t="n">
-        <v>2.23048625958061</v>
+        <v>6419.517499416673</v>
       </c>
     </row>
     <row r="36">
@@ -2803,16 +2803,16 @@
         <v>1.611679392578511</v>
       </c>
       <c r="R36" t="n">
-        <v>4.035407873404624</v>
+        <v>9622.268264616741</v>
       </c>
       <c r="S36" t="n">
-        <v>3.541354248105173</v>
+        <v>12865.14753092286</v>
       </c>
       <c r="T36" t="n">
-        <v>2.539505274707289</v>
+        <v>9667.030763926177</v>
       </c>
       <c r="U36" t="n">
-        <v>2.338456919831431</v>
+        <v>6617.217818356588</v>
       </c>
     </row>
     <row r="37">
@@ -2868,16 +2868,16 @@
         <v>1.764835226210266</v>
       </c>
       <c r="R37" t="n">
-        <v>4.593280113204976</v>
+        <v>9903.992790480734</v>
       </c>
       <c r="S37" t="n">
-        <v>3.562155208735069</v>
+        <v>13292.58248068792</v>
       </c>
       <c r="T37" t="n">
-        <v>2.674100210514557</v>
+        <v>9966.571375071586</v>
       </c>
       <c r="U37" t="n">
-        <v>2.879397347003223</v>
+        <v>6813.616411245898</v>
       </c>
     </row>
     <row r="38">
@@ -2933,16 +2933,16 @@
         <v>1.601324981842909</v>
       </c>
       <c r="R38" t="n">
-        <v>4.490286548076601</v>
+        <v>10245.48951873351</v>
       </c>
       <c r="S38" t="n">
-        <v>3.734090827103218</v>
+        <v>13626.90971808741</v>
       </c>
       <c r="T38" t="n">
-        <v>2.765676751809064</v>
+        <v>10289.3935569327</v>
       </c>
       <c r="U38" t="n">
-        <v>2.852570225318982</v>
+        <v>7034.879948226393</v>
       </c>
     </row>
     <row r="39">
@@ -2998,16 +2998,16 @@
         <v>1.519924601706934</v>
       </c>
       <c r="R39" t="n">
-        <v>4.299648532501719</v>
+        <v>10534.50440964836</v>
       </c>
       <c r="S39" t="n">
-        <v>3.420457344830068</v>
+        <v>13967.79095064989</v>
       </c>
       <c r="T39" t="n">
-        <v>2.328176629178069</v>
+        <v>10556.57847480434</v>
       </c>
       <c r="U39" t="n">
-        <v>2.441282152660966</v>
+        <v>7237.159692524213</v>
       </c>
     </row>
     <row r="40">
@@ -3063,16 +3063,16 @@
         <v>1.552553257494497</v>
       </c>
       <c r="R40" t="n">
-        <v>4.089380829040554</v>
+        <v>10740.26259004914</v>
       </c>
       <c r="S40" t="n">
-        <v>3.202302308579235</v>
+        <v>14298.43674318684</v>
       </c>
       <c r="T40" t="n">
-        <v>2.592299779384836</v>
+        <v>10829.04230895992</v>
       </c>
       <c r="U40" t="n">
-        <v>2.36576648981336</v>
+        <v>7427.103318724025</v>
       </c>
     </row>
     <row r="41">
@@ -3128,16 +3128,16 @@
         <v>1.737196281718607</v>
       </c>
       <c r="R41" t="n">
-        <v>4.353325240691877</v>
+        <v>11045.58648665997</v>
       </c>
       <c r="S41" t="n">
-        <v>3.694305049414727</v>
+        <v>14667.85698930075</v>
       </c>
       <c r="T41" t="n">
-        <v>3.220112707656956</v>
+        <v>11166.27322298841</v>
       </c>
       <c r="U41" t="n">
-        <v>2.799712101934182</v>
+        <v>7683.911519583929</v>
       </c>
     </row>
     <row r="42">
@@ -3193,16 +3193,16 @@
         <v>1.695612207471989</v>
       </c>
       <c r="R42" t="n">
-        <v>5.222418810820076</v>
+        <v>11408.15700374905</v>
       </c>
       <c r="S42" t="n">
-        <v>3.620995100139577</v>
+        <v>15063.37032778139</v>
       </c>
       <c r="T42" t="n">
-        <v>2.395112176818367</v>
+        <v>11475.22840072351</v>
       </c>
       <c r="U42" t="n">
-        <v>3.181624154206902</v>
+        <v>7866.917327672206</v>
       </c>
     </row>
     <row r="43">
@@ -3258,16 +3258,16 @@
         <v>1.574427122162243</v>
       </c>
       <c r="R43" t="n">
-        <v>4.21861708206145</v>
+        <v>11695.89283170146</v>
       </c>
       <c r="S43" t="n">
-        <v>4.061147599149359</v>
+        <v>15459.98517303895</v>
       </c>
       <c r="T43" t="n">
-        <v>2.545867236656284</v>
+        <v>11801.26869400735</v>
       </c>
       <c r="U43" t="n">
-        <v>2.610870551491896</v>
+        <v>8058.733077153846</v>
       </c>
     </row>
     <row r="44">
@@ -3323,16 +3323,16 @@
         <v>1.695155109130007</v>
       </c>
       <c r="R44" t="n">
-        <v>4.836739462283505</v>
+        <v>12046.13105062305</v>
       </c>
       <c r="S44" t="n">
-        <v>3.539023613304059</v>
+        <v>15859.08881874825</v>
       </c>
       <c r="T44" t="n">
-        <v>2.83815487744526</v>
+        <v>12090.78920590748</v>
       </c>
       <c r="U44" t="n">
-        <v>3.280685117903997</v>
+        <v>8311.545321650889</v>
       </c>
     </row>
     <row r="45">
@@ -3388,16 +3388,16 @@
         <v>1.685245497636872</v>
       </c>
       <c r="R45" t="n">
-        <v>4.789459720130209</v>
+        <v>12388.2461666879</v>
       </c>
       <c r="S45" t="n">
-        <v>3.838912634230881</v>
+        <v>16272.92475917591</v>
       </c>
       <c r="T45" t="n">
-        <v>2.572389788920724</v>
+        <v>12390.41005848395</v>
       </c>
       <c r="U45" t="n">
-        <v>2.861725203052913</v>
+        <v>8508.724513384139</v>
       </c>
     </row>
     <row r="46">
@@ -3453,16 +3453,16 @@
         <v>1.753848077554592</v>
       </c>
       <c r="R46" t="n">
-        <v>5.23374443949097</v>
+        <v>12722.54695420595</v>
       </c>
       <c r="S46" t="n">
-        <v>3.706349249509994</v>
+        <v>16719.49302196991</v>
       </c>
       <c r="T46" t="n">
-        <v>2.868105317682525</v>
+        <v>12709.4431469305</v>
       </c>
       <c r="U46" t="n">
-        <v>2.891810939651164</v>
+        <v>8722.420943827041</v>
       </c>
     </row>
     <row r="47">
@@ -3518,16 +3518,16 @@
         <v>1.654810448348128</v>
       </c>
       <c r="R47" t="n">
-        <v>5.012916900216726</v>
+        <v>13043.32396628545</v>
       </c>
       <c r="S47" t="n">
-        <v>3.59491522976748</v>
+        <v>17152.76636356131</v>
       </c>
       <c r="T47" t="n">
-        <v>2.662901522875869</v>
+        <v>12974.59931912076</v>
       </c>
       <c r="U47" t="n">
-        <v>2.55497119161854</v>
+        <v>8931.593849018402</v>
       </c>
     </row>
     <row r="48">
@@ -3583,16 +3583,16 @@
         <v>1.553304945692406</v>
       </c>
       <c r="R48" t="n">
-        <v>4.794451873594411</v>
+        <v>13323.01425771925</v>
       </c>
       <c r="S48" t="n">
-        <v>3.906018982997029</v>
+        <v>17566.45605853419</v>
       </c>
       <c r="T48" t="n">
-        <v>2.621751678294621</v>
+        <v>13298.92640647233</v>
       </c>
       <c r="U48" t="n">
-        <v>2.27874682380347</v>
+        <v>9144.171006089195</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56778_昆明.xlsx
+++ b/my_work/data1/YearMeanER56778_昆明.xlsx
@@ -593,16 +593,16 @@
         <v>1.440820715221814</v>
       </c>
       <c r="R2" t="n">
-        <v>522.0119913159717</v>
+        <v>5.800133236844131</v>
       </c>
       <c r="S2" t="n">
-        <v>792.5553545906587</v>
+        <v>8.709399500996248</v>
       </c>
       <c r="T2" t="n">
-        <v>536.1362684343677</v>
+        <v>5.827568135156171</v>
       </c>
       <c r="U2" t="n">
-        <v>365.7274820699139</v>
+        <v>3.975298718151238</v>
       </c>
     </row>
     <row r="3">
@@ -658,16 +658,16 @@
         <v>1.401899976617488</v>
       </c>
       <c r="R3" t="n">
-        <v>767.9468567708893</v>
+        <v>2.797055541019573</v>
       </c>
       <c r="S3" t="n">
-        <v>1108.88392994328</v>
+        <v>3.571845877512294</v>
       </c>
       <c r="T3" t="n">
-        <v>792.4949225665902</v>
+        <v>2.849850242036727</v>
       </c>
       <c r="U3" t="n">
-        <v>540.2915845336204</v>
+        <v>1.940645665020189</v>
       </c>
     </row>
     <row r="4">
@@ -723,16 +723,16 @@
         <v>1.457420060684994</v>
       </c>
       <c r="R4" t="n">
-        <v>1013.858328145038</v>
+        <v>2.733060735331517</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.646269016435</v>
+        <v>3.674002032424911</v>
       </c>
       <c r="T4" t="n">
-        <v>1065.720700737062</v>
+        <v>3.000822047962046</v>
       </c>
       <c r="U4" t="n">
-        <v>733.5868462685697</v>
+        <v>2.122129428260537</v>
       </c>
     </row>
     <row r="5">
@@ -788,16 +788,16 @@
         <v>1.478097511981571</v>
       </c>
       <c r="R5" t="n">
-        <v>1284.616334851344</v>
+        <v>3.107853039109521</v>
       </c>
       <c r="S5" t="n">
-        <v>1806.364474839773</v>
+        <v>4.070244042371016</v>
       </c>
       <c r="T5" t="n">
-        <v>1326.381770269841</v>
+        <v>2.865890125877635</v>
       </c>
       <c r="U5" t="n">
-        <v>887.1319714399075</v>
+        <v>1.692035376082597</v>
       </c>
     </row>
     <row r="6">
@@ -853,16 +853,16 @@
         <v>1.418985886947091</v>
       </c>
       <c r="R6" t="n">
-        <v>1551.497722790772</v>
+        <v>2.999880455317093</v>
       </c>
       <c r="S6" t="n">
-        <v>2105.374309173068</v>
+        <v>3.367556426396268</v>
       </c>
       <c r="T6" t="n">
-        <v>1536.040528025221</v>
+        <v>2.310050520448452</v>
       </c>
       <c r="U6" t="n">
-        <v>1068.725493902661</v>
+        <v>1.992234324335167</v>
       </c>
     </row>
     <row r="7">
@@ -918,16 +918,16 @@
         <v>1.521188096140438</v>
       </c>
       <c r="R7" t="n">
-        <v>1846.000280027809</v>
+        <v>3.342724019015216</v>
       </c>
       <c r="S7" t="n">
-        <v>2463.198170663232</v>
+        <v>3.96913646062157</v>
       </c>
       <c r="T7" t="n">
-        <v>1803.059768299502</v>
+        <v>2.992547675496983</v>
       </c>
       <c r="U7" t="n">
-        <v>1239.33241325486</v>
+        <v>1.876077757353642</v>
       </c>
     </row>
     <row r="8">
@@ -983,16 +983,16 @@
         <v>1.445122121972758</v>
       </c>
       <c r="R8" t="n">
-        <v>2113.053787032288</v>
+        <v>2.971387154104336</v>
       </c>
       <c r="S8" t="n">
-        <v>2790.104221176903</v>
+        <v>3.635991065651554</v>
       </c>
       <c r="T8" t="n">
-        <v>2022.662227530464</v>
+        <v>2.714573254956835</v>
       </c>
       <c r="U8" t="n">
-        <v>1439.279141460847</v>
+        <v>2.193726151775441</v>
       </c>
     </row>
     <row r="9">
@@ -1048,16 +1048,16 @@
         <v>1.470968690635968</v>
       </c>
       <c r="R9" t="n">
-        <v>2366.340954997891</v>
+        <v>2.847317279107877</v>
       </c>
       <c r="S9" t="n">
-        <v>3180.82796981122</v>
+        <v>4.431008311235601</v>
       </c>
       <c r="T9" t="n">
-        <v>2279.777831217054</v>
+        <v>2.82424105371245</v>
       </c>
       <c r="U9" t="n">
-        <v>1618.004455107983</v>
+        <v>1.966511302162082</v>
       </c>
     </row>
     <row r="10">
@@ -1113,16 +1113,16 @@
         <v>1.469518207420717</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.650517348195</v>
+        <v>3.168409773660148</v>
       </c>
       <c r="S10" t="n">
-        <v>3493.254337801135</v>
+        <v>3.481949190122523</v>
       </c>
       <c r="T10" t="n">
-        <v>2560.313201943753</v>
+        <v>3.079995780221885</v>
       </c>
       <c r="U10" t="n">
-        <v>1832.821971259007</v>
+        <v>2.356348124491153</v>
       </c>
     </row>
     <row r="11">
@@ -1178,16 +1178,16 @@
         <v>1.549876492775208</v>
       </c>
       <c r="R11" t="n">
-        <v>2971.129930124751</v>
+        <v>3.61830913944683</v>
       </c>
       <c r="S11" t="n">
-        <v>3861.695844213661</v>
+        <v>4.087070940688434</v>
       </c>
       <c r="T11" t="n">
-        <v>2817.702823203152</v>
+        <v>2.831191489561112</v>
       </c>
       <c r="U11" t="n">
-        <v>2012.054315391533</v>
+        <v>1.973790133228441</v>
       </c>
     </row>
     <row r="12">
@@ -1243,16 +1243,16 @@
         <v>1.536170013010198</v>
       </c>
       <c r="R12" t="n">
-        <v>3278.812487845896</v>
+        <v>3.458898520673241</v>
       </c>
       <c r="S12" t="n">
-        <v>4226.055226296832</v>
+        <v>4.048862121141314</v>
       </c>
       <c r="T12" t="n">
-        <v>3070.541708649218</v>
+        <v>2.779022575387245</v>
       </c>
       <c r="U12" t="n">
-        <v>2208.242937943475</v>
+        <v>2.153939268317084</v>
       </c>
     </row>
     <row r="13">
@@ -1308,16 +1308,16 @@
         <v>1.550045020970964</v>
       </c>
       <c r="R13" t="n">
-        <v>3561.303068937316</v>
+        <v>3.177216440134357</v>
       </c>
       <c r="S13" t="n">
-        <v>4548.512686244808</v>
+        <v>3.627848022990203</v>
       </c>
       <c r="T13" t="n">
-        <v>3368.176814055816</v>
+        <v>3.265370956325916</v>
       </c>
       <c r="U13" t="n">
-        <v>2340.727056317101</v>
+        <v>2.321345821412811</v>
       </c>
     </row>
     <row r="14">
@@ -1373,16 +1373,16 @@
         <v>1.499104579245486</v>
       </c>
       <c r="R14" t="n">
-        <v>3844.858037978882</v>
+        <v>3.185913172018899</v>
       </c>
       <c r="S14" t="n">
-        <v>4924.025390877606</v>
+        <v>4.212672807286475</v>
       </c>
       <c r="T14" t="n">
-        <v>3664.999600460022</v>
+        <v>3.261827797397081</v>
       </c>
       <c r="U14" t="n">
-        <v>2529.68312430021</v>
+        <v>2.079102323962176</v>
       </c>
     </row>
     <row r="15">
@@ -1438,16 +1438,16 @@
         <v>1.470959353296514</v>
       </c>
       <c r="R15" t="n">
-        <v>4078.131873698326</v>
+        <v>2.627330543238471</v>
       </c>
       <c r="S15" t="n">
-        <v>5339.488951081758</v>
+        <v>4.611826736389441</v>
       </c>
       <c r="T15" t="n">
-        <v>3936.879774317202</v>
+        <v>2.990673931028028</v>
       </c>
       <c r="U15" t="n">
-        <v>2704.808753995011</v>
+        <v>1.926138391508301</v>
       </c>
     </row>
     <row r="16">
@@ -1503,16 +1503,16 @@
         <v>1.530221940720222</v>
       </c>
       <c r="R16" t="n">
-        <v>4386.761046012277</v>
+        <v>3.420401130298816</v>
       </c>
       <c r="S16" t="n">
-        <v>5705.030985603497</v>
+        <v>4.067624848990416</v>
       </c>
       <c r="T16" t="n">
-        <v>4223.882637886013</v>
+        <v>3.152103668476555</v>
       </c>
       <c r="U16" t="n">
-        <v>2920.934819018342</v>
+        <v>2.37013264581349</v>
       </c>
     </row>
     <row r="17">
@@ -1568,16 +1568,16 @@
         <v>1.444875145835346</v>
       </c>
       <c r="R17" t="n">
-        <v>4665.084288700304</v>
+        <v>3.130484931314717</v>
       </c>
       <c r="S17" t="n">
-        <v>6041.685666938388</v>
+        <v>3.744201166855842</v>
       </c>
       <c r="T17" t="n">
-        <v>4499.083602384544</v>
+        <v>3.02557682790228</v>
       </c>
       <c r="U17" t="n">
-        <v>3131.503595263512</v>
+        <v>2.314553357510722</v>
       </c>
     </row>
     <row r="18">
@@ -1633,16 +1633,16 @@
         <v>1.474040725591881</v>
       </c>
       <c r="R18" t="n">
-        <v>4959.921014487771</v>
+        <v>3.31074678576424</v>
       </c>
       <c r="S18" t="n">
-        <v>6415.692858250843</v>
+        <v>4.151114203069333</v>
       </c>
       <c r="T18" t="n">
-        <v>4746.976667435614</v>
+        <v>2.727376542162731</v>
       </c>
       <c r="U18" t="n">
-        <v>3323.056866206471</v>
+        <v>2.107258959787709</v>
       </c>
     </row>
     <row r="19">
@@ -1698,16 +1698,16 @@
         <v>1.546478420731142</v>
       </c>
       <c r="R19" t="n">
-        <v>5242.99515861348</v>
+        <v>3.182054343460828</v>
       </c>
       <c r="S19" t="n">
-        <v>6820.092757907608</v>
+        <v>4.695988665055575</v>
       </c>
       <c r="T19" t="n">
-        <v>4979.655881538166</v>
+        <v>2.558767289616491</v>
       </c>
       <c r="U19" t="n">
-        <v>3517.473937315267</v>
+        <v>2.136134022484597</v>
       </c>
     </row>
     <row r="20">
@@ -1763,16 +1763,16 @@
         <v>1.513181650429783</v>
       </c>
       <c r="R20" t="n">
-        <v>5536.957851610074</v>
+        <v>3.265326893846765</v>
       </c>
       <c r="S20" t="n">
-        <v>7179.100642451751</v>
+        <v>3.996745859441715</v>
       </c>
       <c r="T20" t="n">
-        <v>5207.272215924529</v>
+        <v>2.615626155408826</v>
       </c>
       <c r="U20" t="n">
-        <v>3667.640425936954</v>
+        <v>1.655463289610578</v>
       </c>
     </row>
     <row r="21">
@@ -1828,16 +1828,16 @@
         <v>1.501489859390983</v>
       </c>
       <c r="R21" t="n">
-        <v>5787.004910596112</v>
+        <v>2.814582065332089</v>
       </c>
       <c r="S21" t="n">
-        <v>7534.442299726899</v>
+        <v>3.948773660819642</v>
       </c>
       <c r="T21" t="n">
-        <v>5486.707231816186</v>
+        <v>3.099457604912876</v>
       </c>
       <c r="U21" t="n">
-        <v>3836.407007614941</v>
+        <v>1.893578277417746</v>
       </c>
     </row>
     <row r="22">
@@ -1893,16 +1893,16 @@
         <v>1.443449455925208</v>
       </c>
       <c r="R22" t="n">
-        <v>6024.753520453059</v>
+        <v>2.672924354691898</v>
       </c>
       <c r="S22" t="n">
-        <v>7833.420960392539</v>
+        <v>3.328872904686322</v>
       </c>
       <c r="T22" t="n">
-        <v>5777.09117292784</v>
+        <v>3.190036942571418</v>
       </c>
       <c r="U22" t="n">
-        <v>4016.459733488646</v>
+        <v>1.977677219033936</v>
       </c>
     </row>
     <row r="23">
@@ -1958,16 +1958,16 @@
         <v>1.483589605913059</v>
       </c>
       <c r="R23" t="n">
-        <v>6291.021438474563</v>
+        <v>2.988231581957721</v>
       </c>
       <c r="S23" t="n">
-        <v>8185.088917656726</v>
+        <v>3.901064067789787</v>
       </c>
       <c r="T23" t="n">
-        <v>6007.230608555655</v>
+        <v>2.536189919243345</v>
       </c>
       <c r="U23" t="n">
-        <v>4184.200372500767</v>
+        <v>1.84476430686039</v>
       </c>
     </row>
     <row r="24">
@@ -2023,16 +2023,16 @@
         <v>1.50500365535811</v>
       </c>
       <c r="R24" t="n">
-        <v>6506.801621936074</v>
+        <v>2.404048516961149</v>
       </c>
       <c r="S24" t="n">
-        <v>8562.084183576999</v>
+        <v>4.185673955912723</v>
       </c>
       <c r="T24" t="n">
-        <v>6304.157067887893</v>
+        <v>3.255028796211747</v>
       </c>
       <c r="U24" t="n">
-        <v>4362.786533738655</v>
+        <v>1.982757423568646</v>
       </c>
     </row>
     <row r="25">
@@ -2088,16 +2088,16 @@
         <v>1.522409601438568</v>
       </c>
       <c r="R25" t="n">
-        <v>6756.976609137413</v>
+        <v>2.870216314980657</v>
       </c>
       <c r="S25" t="n">
-        <v>8937.173812048284</v>
+        <v>4.410177935200045</v>
       </c>
       <c r="T25" t="n">
-        <v>6575.969804450444</v>
+        <v>3.125770060894987</v>
       </c>
       <c r="U25" t="n">
-        <v>4531.126191687439</v>
+        <v>1.892471281915035</v>
       </c>
     </row>
     <row r="26">
@@ -2153,16 +2153,16 @@
         <v>1.568874090619919</v>
       </c>
       <c r="R26" t="n">
-        <v>7025.530906979325</v>
+        <v>3.049713642212258</v>
       </c>
       <c r="S26" t="n">
-        <v>9304.80911555077</v>
+        <v>4.180286308288603</v>
       </c>
       <c r="T26" t="n">
-        <v>6866.185191138079</v>
+        <v>3.371737433891159</v>
       </c>
       <c r="U26" t="n">
-        <v>4725.407934194997</v>
+        <v>2.132328410755146</v>
       </c>
     </row>
     <row r="27">
@@ -2218,16 +2218,16 @@
         <v>1.553343287328701</v>
       </c>
       <c r="R27" t="n">
-        <v>7279.789321084108</v>
+        <v>2.858979197188847</v>
       </c>
       <c r="S27" t="n">
-        <v>9695.298137600777</v>
+        <v>4.337025366574647</v>
       </c>
       <c r="T27" t="n">
-        <v>7136.626800702871</v>
+        <v>2.976232032594341</v>
       </c>
       <c r="U27" t="n">
-        <v>4905.354885967351</v>
+        <v>1.979122610685976</v>
       </c>
     </row>
     <row r="28">
@@ -2283,16 +2283,16 @@
         <v>1.54306605939417</v>
       </c>
       <c r="R28" t="n">
-        <v>7541.316557751674</v>
+        <v>2.905343031480844</v>
       </c>
       <c r="S28" t="n">
-        <v>10050.37434019963</v>
+        <v>4.038350876015929</v>
       </c>
       <c r="T28" t="n">
-        <v>7419.974650165967</v>
+        <v>3.14641847797469</v>
       </c>
       <c r="U28" t="n">
-        <v>5079.286893480647</v>
+        <v>1.912077501347616</v>
       </c>
     </row>
     <row r="29">
@@ -2348,16 +2348,16 @@
         <v>1.552380169006583</v>
       </c>
       <c r="R29" t="n">
-        <v>7768.021225893163</v>
+        <v>2.579887765988425</v>
       </c>
       <c r="S29" t="n">
-        <v>10416.67350229073</v>
+        <v>4.069642999638675</v>
       </c>
       <c r="T29" t="n">
-        <v>7670.953132790819</v>
+        <v>2.823610012253575</v>
       </c>
       <c r="U29" t="n">
-        <v>5280.542310309816</v>
+        <v>2.232609827807873</v>
       </c>
     </row>
     <row r="30">
@@ -2413,16 +2413,16 @@
         <v>1.629140173865101</v>
       </c>
       <c r="R30" t="n">
-        <v>8049.429971690073</v>
+        <v>3.264237167389639</v>
       </c>
       <c r="S30" t="n">
-        <v>10766.59312449071</v>
+        <v>4.068842128731325</v>
       </c>
       <c r="T30" t="n">
-        <v>7928.495214336193</v>
+        <v>2.830061864756851</v>
       </c>
       <c r="U30" t="n">
-        <v>5472.661010080257</v>
+        <v>2.112514234763584</v>
       </c>
     </row>
     <row r="31">
@@ -2478,16 +2478,16 @@
         <v>1.647105013383172</v>
       </c>
       <c r="R31" t="n">
-        <v>8331.487771672133</v>
+        <v>3.242295876698225</v>
       </c>
       <c r="S31" t="n">
-        <v>11114.63352684482</v>
+        <v>3.869332356954279</v>
       </c>
       <c r="T31" t="n">
-        <v>8193.725972787734</v>
+        <v>2.913704568655439</v>
       </c>
       <c r="U31" t="n">
-        <v>5647.807636412744</v>
+        <v>1.969546006302811</v>
       </c>
     </row>
     <row r="32">
@@ -2543,16 +2543,16 @@
         <v>1.554203521312322</v>
       </c>
       <c r="R32" t="n">
-        <v>8572.822043929216</v>
+        <v>2.779279183338445</v>
       </c>
       <c r="S32" t="n">
-        <v>11419.85668535827</v>
+        <v>3.434361009671142</v>
       </c>
       <c r="T32" t="n">
-        <v>8483.027015074777</v>
+        <v>3.176247248431538</v>
       </c>
       <c r="U32" t="n">
-        <v>5845.800562390715</v>
+        <v>2.173505130263875</v>
       </c>
     </row>
     <row r="33">
@@ -2608,16 +2608,16 @@
         <v>1.589125836065854</v>
       </c>
       <c r="R33" t="n">
-        <v>8827.857067462715</v>
+        <v>2.929707985418588</v>
       </c>
       <c r="S33" t="n">
-        <v>11768.28370240532</v>
+        <v>3.866608550073886</v>
       </c>
       <c r="T33" t="n">
-        <v>8781.326161100964</v>
+        <v>3.27690644863717</v>
       </c>
       <c r="U33" t="n">
-        <v>6019.706560152579</v>
+        <v>1.913907640131824</v>
       </c>
     </row>
     <row r="34">
@@ -2673,16 +2673,16 @@
         <v>1.621927008404695</v>
       </c>
       <c r="R34" t="n">
-        <v>9081.896510924071</v>
+        <v>2.920103993713374</v>
       </c>
       <c r="S34" t="n">
-        <v>12145.64697330588</v>
+        <v>4.189339334622264</v>
       </c>
       <c r="T34" t="n">
-        <v>9046.09392685573</v>
+        <v>2.913529045689137</v>
       </c>
       <c r="U34" t="n">
-        <v>6221.413554628864</v>
+        <v>2.213270675178439</v>
       </c>
     </row>
     <row r="35">
@@ -2738,16 +2738,16 @@
         <v>1.652078917242487</v>
       </c>
       <c r="R35" t="n">
-        <v>9345.822032745526</v>
+        <v>2.964951397946311</v>
       </c>
       <c r="S35" t="n">
-        <v>12521.57930764186</v>
+        <v>4.177161249127376</v>
       </c>
       <c r="T35" t="n">
-        <v>9356.479869298861</v>
+        <v>3.405429037921975</v>
       </c>
       <c r="U35" t="n">
-        <v>6419.517499416673</v>
+        <v>2.17736103764113</v>
       </c>
     </row>
     <row r="36">
@@ -2803,16 +2803,16 @@
         <v>1.611679392578511</v>
       </c>
       <c r="R36" t="n">
-        <v>9622.268264616741</v>
+        <v>3.070452563397321</v>
       </c>
       <c r="S36" t="n">
-        <v>12865.14753092286</v>
+        <v>3.821377851979414</v>
       </c>
       <c r="T36" t="n">
-        <v>9667.030763926177</v>
+        <v>3.412568735491763</v>
       </c>
       <c r="U36" t="n">
-        <v>6617.217818356588</v>
+        <v>2.172583478016935</v>
       </c>
     </row>
     <row r="37">
@@ -2868,16 +2868,16 @@
         <v>1.764835226210266</v>
       </c>
       <c r="R37" t="n">
-        <v>9903.992790480734</v>
+        <v>3.311569516597649</v>
       </c>
       <c r="S37" t="n">
-        <v>13292.58248068792</v>
+        <v>4.791736973522736</v>
       </c>
       <c r="T37" t="n">
-        <v>9966.571375071586</v>
+        <v>3.292969346531442</v>
       </c>
       <c r="U37" t="n">
-        <v>6813.616411245898</v>
+        <v>2.336131486674452</v>
       </c>
     </row>
     <row r="38">
@@ -2933,16 +2933,16 @@
         <v>1.601324981842909</v>
       </c>
       <c r="R38" t="n">
-        <v>10245.48951873351</v>
+        <v>3.831203308548671</v>
       </c>
       <c r="S38" t="n">
-        <v>13626.90971808741</v>
+        <v>4.037130647297855</v>
       </c>
       <c r="T38" t="n">
-        <v>10289.3935569327</v>
+        <v>3.544729904430832</v>
       </c>
       <c r="U38" t="n">
-        <v>7034.879948226393</v>
+        <v>2.430431178990998</v>
       </c>
     </row>
     <row r="39">
@@ -2998,16 +2998,16 @@
         <v>1.519924601706934</v>
       </c>
       <c r="R39" t="n">
-        <v>10534.50440964836</v>
+        <v>3.445248167334051</v>
       </c>
       <c r="S39" t="n">
-        <v>13967.79095064989</v>
+        <v>3.964578887468566</v>
       </c>
       <c r="T39" t="n">
-        <v>10556.57847480434</v>
+        <v>2.942713562783376</v>
       </c>
       <c r="U39" t="n">
-        <v>7237.159692524213</v>
+        <v>2.22511060300879</v>
       </c>
     </row>
     <row r="40">
@@ -3063,16 +3063,16 @@
         <v>1.552553257494497</v>
       </c>
       <c r="R40" t="n">
-        <v>10740.26259004914</v>
+        <v>3.031933747363939</v>
       </c>
       <c r="S40" t="n">
-        <v>14298.43674318684</v>
+        <v>3.890818272376913</v>
       </c>
       <c r="T40" t="n">
-        <v>10829.04230895992</v>
+        <v>3.129619860436011</v>
       </c>
       <c r="U40" t="n">
-        <v>7427.103318724025</v>
+        <v>2.135208186697982</v>
       </c>
     </row>
     <row r="41">
@@ -3128,16 +3128,16 @@
         <v>1.737196281718607</v>
       </c>
       <c r="R41" t="n">
-        <v>11045.58648665997</v>
+        <v>3.426175892868876</v>
       </c>
       <c r="S41" t="n">
-        <v>14667.85698930075</v>
+        <v>4.147900715403223</v>
       </c>
       <c r="T41" t="n">
-        <v>11166.27322298841</v>
+        <v>3.699571020531931</v>
       </c>
       <c r="U41" t="n">
-        <v>7683.911519583929</v>
+        <v>2.814602272245712</v>
       </c>
     </row>
     <row r="42">
@@ -3193,16 +3193,16 @@
         <v>1.695612207471989</v>
       </c>
       <c r="R42" t="n">
-        <v>11408.15700374905</v>
+        <v>4.066629922021617</v>
       </c>
       <c r="S42" t="n">
-        <v>15063.37032778139</v>
+        <v>4.873917551171342</v>
       </c>
       <c r="T42" t="n">
-        <v>11475.22840072351</v>
+        <v>3.435766469842205</v>
       </c>
       <c r="U42" t="n">
-        <v>7866.917327672206</v>
+        <v>2.064671226228041</v>
       </c>
     </row>
     <row r="43">
@@ -3258,16 +3258,16 @@
         <v>1.574427122162243</v>
       </c>
       <c r="R43" t="n">
-        <v>11695.89283170146</v>
+        <v>3.278679301959935</v>
       </c>
       <c r="S43" t="n">
-        <v>15459.98517303895</v>
+        <v>4.41196442646959</v>
       </c>
       <c r="T43" t="n">
-        <v>11801.26869400735</v>
+        <v>3.660845108374168</v>
       </c>
       <c r="U43" t="n">
-        <v>8058.733077153846</v>
+        <v>2.13055407371285</v>
       </c>
     </row>
     <row r="44">
@@ -3323,16 +3323,16 @@
         <v>1.695155109130007</v>
       </c>
       <c r="R44" t="n">
-        <v>12046.13105062305</v>
+        <v>3.927965535817338</v>
       </c>
       <c r="S44" t="n">
-        <v>15859.08881874825</v>
+        <v>4.692041978322823</v>
       </c>
       <c r="T44" t="n">
-        <v>12090.78920590748</v>
+        <v>3.186753880527314</v>
       </c>
       <c r="U44" t="n">
-        <v>8311.545321650889</v>
+        <v>2.77111737576909</v>
       </c>
     </row>
     <row r="45">
@@ -3388,16 +3388,16 @@
         <v>1.685245497636872</v>
       </c>
       <c r="R45" t="n">
-        <v>12388.2461666879</v>
+        <v>3.844923128896224</v>
       </c>
       <c r="S45" t="n">
-        <v>16272.92475917591</v>
+        <v>4.755999800068055</v>
       </c>
       <c r="T45" t="n">
-        <v>12390.41005848395</v>
+        <v>3.327556114911901</v>
       </c>
       <c r="U45" t="n">
-        <v>8508.724513384139</v>
+        <v>2.173372925097986</v>
       </c>
     </row>
     <row r="46">
@@ -3453,16 +3453,16 @@
         <v>1.753848077554592</v>
       </c>
       <c r="R46" t="n">
-        <v>12722.54695420595</v>
+        <v>3.757174562743883</v>
       </c>
       <c r="S46" t="n">
-        <v>16719.49302196991</v>
+        <v>4.959607281253306</v>
       </c>
       <c r="T46" t="n">
-        <v>12709.4431469305</v>
+        <v>3.581784939571863</v>
       </c>
       <c r="U46" t="n">
-        <v>8722.420943827041</v>
+        <v>2.425503408629226</v>
       </c>
     </row>
     <row r="47">
@@ -3518,16 +3518,16 @@
         <v>1.654810448348128</v>
       </c>
       <c r="R47" t="n">
-        <v>13043.32396628545</v>
+        <v>3.646451535306219</v>
       </c>
       <c r="S47" t="n">
-        <v>17152.76636356131</v>
+        <v>4.815746690908385</v>
       </c>
       <c r="T47" t="n">
-        <v>12974.59931912076</v>
+        <v>3.019527608200359</v>
       </c>
       <c r="U47" t="n">
-        <v>8931.593849018402</v>
+        <v>2.377510208988774</v>
       </c>
     </row>
     <row r="48">
@@ -3583,16 +3583,16 @@
         <v>1.553304945692406</v>
       </c>
       <c r="R48" t="n">
-        <v>13323.01425771925</v>
+        <v>3.148186032989992</v>
       </c>
       <c r="S48" t="n">
-        <v>17566.45605853419</v>
+        <v>4.598960897404411</v>
       </c>
       <c r="T48" t="n">
-        <v>13298.92640647233</v>
+        <v>3.558115379997512</v>
       </c>
       <c r="U48" t="n">
-        <v>9144.171006089195</v>
+        <v>2.336463774780313</v>
       </c>
     </row>
   </sheetData>
